--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -10,13 +10,14 @@
     <sheet name="V2G" sheetId="1" r:id="rId1"/>
     <sheet name="Reused batteries" sheetId="2" r:id="rId2"/>
     <sheet name="New batteries" sheetId="3" r:id="rId3"/>
+    <sheet name="EV fleet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="21">
   <si>
     <t>EV Scenario</t>
   </si>
@@ -77,6 +78,9 @@
   <si>
     <t>New batteries</t>
   </si>
+  <si>
+    <t>EV Fleet</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="86">
+  <fills count="87">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,7 +192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3B3BFF"/>
+        <fgColor rgb="FF3C3CFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,6 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9F9FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6E6EFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0202FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B3BFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,13 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9F9FFF"/>
+        <fgColor rgb="FF6F6FFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6F6FFF"/>
+        <fgColor rgb="FF3E3EFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,18 +336,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0606FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C3CFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE5FFE5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,7 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA1D9A1"/>
+        <fgColor rgb="FFA2DAA2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6ABB6A"/>
+        <fgColor rgb="FF6BBB6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCA6A"/>
+        <fgColor rgb="FFFFCB6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,12 +588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCB6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF3DD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,6 +622,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -652,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -678,20 +688,20 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -742,6 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="4">
-        <v>604.7223069012988</v>
+        <v>603.4816473798834</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1176,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="5">
-        <v>1021.41778297362</v>
+        <v>1020.177123452205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1196,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="6">
-        <v>1435.851897251763</v>
+        <v>1434.611237730348</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1216,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7">
-        <v>2004.546444765428</v>
+        <v>2003.305785244013</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1236,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8">
-        <v>652.3688526414892</v>
+        <v>651.2953330671178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1256,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="9">
-        <v>1089.110465892984</v>
+        <v>1088.036946318612</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1276,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="10">
-        <v>1526.34487739605</v>
+        <v>1525.271357821679</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1296,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="11">
-        <v>2069.720148046677</v>
+        <v>2068.646628472305</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1316,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="12">
-        <v>668.548773591874</v>
+        <v>668.4300495255883</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1336,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="13">
-        <v>1115.322260734324</v>
+        <v>1115.016961076582</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1356,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="14">
-        <v>1564.071415108089</v>
+        <v>1563.261541612847</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1376,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="15">
-        <v>2100.128451989983</v>
+        <v>2099.82315233224</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1456,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <v>2112.776605204546</v>
+        <v>2112.401648617598</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1496,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="13">
-        <v>1121.10817446385</v>
+        <v>1121.078542663878</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1516,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="16">
-        <v>1573.855518427422</v>
+        <v>1573.825886627451</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1536,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="17">
-        <v>2112.054677554286</v>
+        <v>2112.025045754315</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1636,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>642.423812360646</v>
+        <v>641.1831250701027</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1656,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="19">
-        <v>1061.829155962289</v>
+        <v>1060.588429249216</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1676,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="20">
-        <v>1477.754208046829</v>
+        <v>1476.513540873914</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1696,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="21">
-        <v>2045.860766953406</v>
+        <v>2044.620099780491</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1715,8 +1726,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="12">
-        <v>663.4082434531</v>
+      <c r="F34" s="22">
+        <v>662.2758032671071</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1735,8 +1746,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="22">
-        <v>1108.015655689714</v>
+      <c r="F35" s="23">
+        <v>1106.883215503721</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1755,8 +1766,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="23">
-        <v>1554.840266350113</v>
+      <c r="F36" s="24">
+        <v>1553.70782616412</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1775,8 +1786,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="24">
-        <v>2094.469908220537</v>
+      <c r="F37" s="25">
+        <v>2093.337468034545</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1796,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="12">
-        <v>670.2983652898145</v>
+        <v>669.9606348677971</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1816,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="13">
-        <v>1118.684944969754</v>
+        <v>1118.347214547736</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1835,8 +1846,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="14">
-        <v>1569.663136972265</v>
+      <c r="F40" s="26">
+        <v>1568.771037425759</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1856,7 +1867,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="17">
-        <v>2107.157528470085</v>
+        <v>2106.265428923579</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1936,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="17">
-        <v>2113.084680807583</v>
+        <v>2112.630989371062</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1976,7 +1987,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="13">
-        <v>1121.176908590901</v>
+        <v>1121.14727679093</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1996,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="F48" s="16">
-        <v>1574.038865661473</v>
+        <v>1574.009233861501</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2016,7 +2027,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="17">
-        <v>2112.837352467125</v>
+        <v>2112.807720667153</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2116,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="18">
-        <v>646.133932491229</v>
+        <v>644.8645971241425</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2136,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="9">
-        <v>1083.91040791062</v>
+        <v>1082.641072543533</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2155,8 +2166,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="25">
-        <v>1522.90574408701</v>
+      <c r="F56" s="27">
+        <v>1521.636408719924</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2176,7 +2187,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="11">
-        <v>2070.278648740228</v>
+        <v>2069.009313373142</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2195,8 +2206,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="12">
-        <v>663.5101965342544</v>
+      <c r="F58" s="22">
+        <v>662.3761222821279</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2215,8 +2226,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="22">
-        <v>1108.268352399891</v>
+      <c r="F59" s="23">
+        <v>1107.134278147765</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2235,8 +2246,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="23">
-        <v>1555.274695266585</v>
+      <c r="F60" s="24">
+        <v>1554.140621014459</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2255,8 +2266,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="24">
-        <v>2094.788335411154</v>
+      <c r="F61" s="25">
+        <v>2093.654261159028</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2276,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="12">
-        <v>670.3111320438381</v>
+        <v>669.9724100783658</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2296,7 +2307,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="13">
-        <v>1118.739280249623</v>
+        <v>1118.40055828415</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2315,8 +2326,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="14">
-        <v>1569.724430419979</v>
+      <c r="F64" s="26">
+        <v>1568.82999372919</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2336,7 +2347,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="17">
-        <v>2107.221594642009</v>
+        <v>2106.327157951219</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2416,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="17">
-        <v>2113.091020653005</v>
+        <v>2112.641416054892</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2456,7 +2467,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="13">
-        <v>1121.17996925936</v>
+        <v>1121.150337459389</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2476,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="16">
-        <v>1574.047029947838</v>
+        <v>1574.017398147867</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2496,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="F73" s="17">
-        <v>2112.872204272512</v>
+        <v>2112.84257247254</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2595,8 +2606,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="26">
-        <v>623.1651493117437</v>
+      <c r="F78" s="28">
+        <v>622.6069750378426</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2615,8 +2626,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="27">
-        <v>1052.073720960212</v>
+      <c r="F79" s="29">
+        <v>1051.515546686311</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2635,8 +2646,8 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="28">
-        <v>1472.653539394248</v>
+      <c r="F80" s="30">
+        <v>1468.954453052899</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2655,8 +2666,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="29">
-        <v>2033.118447257518</v>
+      <c r="F81" s="31">
+        <v>2032.560272983618</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2675,8 +2686,8 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="30">
-        <v>660.9782753555329</v>
+      <c r="F82" s="22">
+        <v>660.7577161231256</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2695,8 +2706,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="31">
-        <v>1104.759188861573</v>
+      <c r="F83" s="32">
+        <v>1103.883385889178</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2715,8 +2726,8 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="23">
-        <v>1547.89528900478</v>
+      <c r="F84" s="33">
+        <v>1547.019486032385</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2735,8 +2746,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="32">
-        <v>2086.239793575821</v>
+      <c r="F85" s="34">
+        <v>2085.363990603425</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2756,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="12">
-        <v>669.9259360440528</v>
+        <v>669.8420645539239</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2776,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="13">
-        <v>1118.438595640775</v>
+        <v>1118.354724150646</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2795,8 +2806,8 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="14">
-        <v>1569.486380969754</v>
+      <c r="F88" s="26">
+        <v>1569.234466724742</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2816,7 +2827,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="17">
-        <v>2105.263096524879</v>
+        <v>2105.011182279866</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2896,7 +2907,7 @@
         <v>17</v>
       </c>
       <c r="F93" s="17">
-        <v>2112.777774991373</v>
+        <v>2112.703066303705</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2916,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="12">
-        <v>671.5297643923342</v>
+        <v>671.5083713546526</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2936,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="13">
-        <v>1120.976012990398</v>
+        <v>1120.954619952717</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2956,7 +2967,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="16">
-        <v>1573.723356953971</v>
+        <v>1573.70196391629</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2976,7 +2987,7 @@
         <v>17</v>
       </c>
       <c r="F97" s="17">
-        <v>2111.922516080836</v>
+        <v>2111.901123043154</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3075,8 +3086,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="33">
-        <v>637.7539898922213</v>
+      <c r="F102" s="35">
+        <v>637.1958156263721</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3095,8 +3106,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="34">
-        <v>1066.658505457533</v>
+      <c r="F103" s="36">
+        <v>1066.100331183632</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3115,8 +3126,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="35">
-        <v>1491.576155147845</v>
+      <c r="F104" s="37">
+        <v>1487.802982757231</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3135,8 +3146,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="36">
-        <v>2047.70323175484</v>
+      <c r="F105" s="21">
+        <v>2047.145057480938</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3156,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="12">
-        <v>666.1088788283701</v>
+        <v>665.8761187660222</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3175,8 +3186,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="22">
-        <v>1110.315353855482</v>
+      <c r="F107" s="23">
+        <v>1109.406828212336</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3195,8 +3206,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="23">
-        <v>1555.350075409948</v>
+      <c r="F108" s="24">
+        <v>1554.474272437552</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3215,8 +3226,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="24">
-        <v>2092.80109222961</v>
+      <c r="F109" s="25">
+        <v>2091.892566586465</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3236,7 +3247,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="12">
-        <v>670.8145454536652</v>
+        <v>670.7244249582923</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3256,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="13">
-        <v>1119.832700781612</v>
+        <v>1119.744501003117</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3275,8 +3286,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="14">
-        <v>1571.341876131877</v>
+      <c r="F112" s="26">
+        <v>1571.076742835102</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3296,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="17">
-        <v>2107.436060807309</v>
+        <v>2107.170927510534</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3376,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="F117" s="17">
-        <v>2112.916398736767</v>
+        <v>2112.841690049099</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3396,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="F118" s="12">
-        <v>671.5916597511898</v>
+        <v>671.5702667135083</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3416,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="F119" s="13">
-        <v>1121.114636735791</v>
+        <v>1121.09324369811</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3436,7 +3447,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="16">
-        <v>1573.861980699364</v>
+        <v>1573.840587661683</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3456,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="F121" s="17">
-        <v>2112.061139826229</v>
+        <v>2112.039746788547</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3556,7 +3567,7 @@
         <v>11</v>
       </c>
       <c r="F126" s="8">
-        <v>653.1968985922613</v>
+        <v>652.6258876983602</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3576,7 +3587,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="9">
-        <v>1095.212959407829</v>
+        <v>1094.641948513928</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3595,8 +3606,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="10">
-        <v>1526.68243115295</v>
+      <c r="F128" s="27">
+        <v>1522.90652495607</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3615,8 +3626,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="32">
-        <v>2081.261374316578</v>
+      <c r="F129" s="34">
+        <v>2080.690460350181</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3636,7 +3647,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="12">
-        <v>667.2871058062873</v>
+        <v>667.0552626808351</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3655,8 +3666,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="13">
-        <v>1114.205172968389</v>
+      <c r="F131" s="23">
+        <v>1113.284427705705</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3675,8 +3686,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="37">
-        <v>1563.348514936283</v>
+      <c r="F132" s="14">
+        <v>1562.427769673598</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3696,7 +3707,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="15">
-        <v>2101.173647430482</v>
+        <v>2100.252902167797</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3716,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="12">
-        <v>670.9461899411458</v>
+        <v>670.8558447545361</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3736,7 +3747,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="13">
-        <v>1120.1220198757</v>
+        <v>1120.031674689091</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3755,8 +3766,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="14">
-        <v>1572.206680639134</v>
+      <c r="F136" s="26">
+        <v>1571.93466249846</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3776,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="F137" s="17">
-        <v>2109.511547484812</v>
+        <v>2109.239529344138</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3856,7 +3867,7 @@
         <v>17</v>
       </c>
       <c r="F141" s="17">
-        <v>2113.116828515822</v>
+        <v>2113.042119828153</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3876,7 +3887,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="12">
-        <v>671.5944357214249</v>
+        <v>671.5730426837433</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3896,7 +3907,7 @@
         <v>16</v>
       </c>
       <c r="F143" s="13">
-        <v>1121.135326800907</v>
+        <v>1121.113933763226</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3916,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="16">
-        <v>1574.002424201537</v>
+        <v>1573.981031163856</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3936,7 +3947,7 @@
         <v>17</v>
       </c>
       <c r="F145" s="17">
-        <v>2112.514725906586</v>
+        <v>2112.493332868904</v>
       </c>
     </row>
   </sheetData>
@@ -4466,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="39">
-        <v>607.437687862064</v>
+        <v>606.1931742214435</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4486,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="40">
-        <v>833.2751826257771</v>
+        <v>832.103992297232</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4506,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="41">
-        <v>1045.508224683551</v>
+        <v>1044.423499375176</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4526,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="42">
-        <v>1272.304507218042</v>
+        <v>1271.426478909957</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4546,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="43">
-        <v>48.71554310612554</v>
+        <v>48.71545139939134</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4566,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="43">
-        <v>54.56818119136659</v>
+        <v>54.56808948463239</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4586,7 +4597,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="44">
-        <v>59.43296922020684</v>
+        <v>59.43295495950299</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4606,7 +4617,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="44">
-        <v>62.42049969042196</v>
+        <v>62.42048542971813</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4626,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="38">
-        <v>15.30934695937282</v>
+        <v>15.24556978077904</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4646,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="38">
-        <v>24.91798949593381</v>
+        <v>24.85421231734003</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4666,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="45">
-        <v>36.67895187795017</v>
+        <v>36.61517469935639</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4686,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="45">
-        <v>35.35522757277542</v>
+        <v>35.29145039418164</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4706,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="38">
-        <v>2.384861322190901</v>
+        <v>2.348510971736848</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4726,7 +4737,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="38">
-        <v>4.529040110392115</v>
+        <v>4.492689759938063</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4746,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="38">
-        <v>8.035303841467258</v>
+        <v>7.943663343443415</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4766,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="38">
-        <v>11.02283431168238</v>
+        <v>10.93119381365854</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4846,7 +4857,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="38">
-        <v>0.36376748993015</v>
+        <v>0.270196367198503</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4946,7 +4957,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="46">
-        <v>1172.200666452452</v>
+        <v>1170.518400365213</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4966,7 +4977,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="47">
-        <v>1644.213957245313</v>
+        <v>1642.748982546507</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4986,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="48">
-        <v>1961.788155632516</v>
+        <v>1960.388186645904</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5006,7 +5017,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="49">
-        <v>2589.340564873989</v>
+        <v>2588.086076671444</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5026,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="44">
-        <v>55.71201530609848</v>
+        <v>55.68173350328258</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5046,7 +5057,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="50">
-        <v>82.02315825310703</v>
+        <v>81.99287645029113</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5066,7 +5077,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="51">
-        <v>112.9825432270896</v>
+        <v>112.9522614242737</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5086,7 +5097,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="52">
-        <v>93.474120302443</v>
+        <v>93.44383849962712</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5106,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="38">
-        <v>16.27777603300387</v>
+        <v>16.21292590009006</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5126,7 +5137,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="38">
-        <v>26.28174785105303</v>
+        <v>26.21689771813921</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5146,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="45">
-        <v>38.53342821514357</v>
+        <v>38.46857808222975</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5166,7 +5177,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="45">
-        <v>37.39243263592762</v>
+        <v>37.32758250301379</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5186,7 +5197,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="38">
-        <v>2.552629892846991</v>
+        <v>2.515363375448584</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5206,7 +5217,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="38">
-        <v>4.785675218759326</v>
+        <v>4.748408701360919</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5226,7 +5237,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="38">
-        <v>8.553000502962744</v>
+        <v>8.459062358527969</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5246,7 +5257,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="38">
-        <v>11.77651366788316</v>
+        <v>11.68257552344839</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5326,7 +5337,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="38">
-        <v>0.3804208167270601</v>
+        <v>0.2716560163058608</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5906,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="53">
-        <v>741.4782266677248</v>
+        <v>739.9306604341631</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5926,7 +5937,7 @@
         <v>16</v>
       </c>
       <c r="F99" s="54">
-        <v>1068.922450257201</v>
+        <v>1067.480442359388</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5946,7 +5957,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="55">
-        <v>1339.762375182537</v>
+        <v>1338.421236639862</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5966,7 +5977,7 @@
         <v>17</v>
       </c>
       <c r="F101" s="56">
-        <v>1863.626870505522</v>
+        <v>1862.640310485881</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5986,7 +5997,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="38">
-        <v>19.05919834792099</v>
+        <v>19.05919833483546</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6026,7 +6037,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="38">
-        <v>26.08118311098249</v>
+        <v>26.00085611855348</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6066,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="38">
-        <v>6.443652796510138</v>
+        <v>6.44365131390806</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6086,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="38">
-        <v>7.637433976466809</v>
+        <v>7.602045599492611</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6126,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="38">
-        <v>8.72444943243568</v>
+        <v>8.68906105546148</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6146,7 +6157,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="38">
-        <v>1.083611559453515</v>
+        <v>1.076630805953213</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6166,7 +6177,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="38">
-        <v>1.659754453429354</v>
+        <v>1.654922451742959</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6186,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="38">
-        <v>2.315702546230825</v>
+        <v>2.301029118238271</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6206,7 +6217,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="38">
-        <v>2.668100007133025</v>
+        <v>2.653426579140471</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6386,7 +6397,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="57">
-        <v>1167.861062008968</v>
+        <v>1165.715107509699</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6406,7 +6417,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="58">
-        <v>1884.419398066373</v>
+        <v>1882.559198435469</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6426,7 +6437,7 @@
         <v>13</v>
       </c>
       <c r="F124" s="59">
-        <v>2397.655810619903</v>
+        <v>2395.900479543598</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6446,7 +6457,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="60">
-        <v>3520.099024319936</v>
+        <v>3518.435685876256</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6466,7 +6477,7 @@
         <v>11</v>
       </c>
       <c r="F126" s="45">
-        <v>39.15939450602083</v>
+        <v>39.14591372510083</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6486,7 +6497,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="44">
-        <v>55.46315710563108</v>
+        <v>55.44967632471107</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6506,7 +6517,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="50">
-        <v>77.1686451320561</v>
+        <v>77.08827888256269</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6526,7 +6537,7 @@
         <v>17</v>
       </c>
       <c r="F129" s="44">
-        <v>65.8902643256902</v>
+        <v>65.87684134126609</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6546,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="38">
-        <v>8.406409354097793</v>
+        <v>8.39426909492429</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6566,7 +6577,7 @@
         <v>16</v>
       </c>
       <c r="F131" s="38">
-        <v>13.70072822118465</v>
+        <v>13.65266487629944</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6586,7 +6597,7 @@
         <v>13</v>
       </c>
       <c r="F132" s="38">
-        <v>21.24513986599481</v>
+        <v>21.19707652110961</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6606,7 +6617,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="38">
-        <v>22.11649413792603</v>
+        <v>22.06843079304083</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6626,7 +6637,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="38">
-        <v>1.345943380631392</v>
+        <v>1.338833143034349</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6646,7 +6657,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="38">
-        <v>2.149998437997628</v>
+        <v>2.142888200400585</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6666,7 +6677,7 @@
         <v>13</v>
       </c>
       <c r="F136" s="38">
-        <v>3.772394230854767</v>
+        <v>3.750273982395325</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6686,7 +6697,7 @@
         <v>17</v>
       </c>
       <c r="F137" s="38">
-        <v>5.76762847243575</v>
+        <v>5.745508223976307</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6896,7 +6907,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="61">
-        <v>503.501562489833</v>
+        <v>502.5940469669805</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6916,7 +6927,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="62">
-        <v>845.6950492403296</v>
+        <v>844.787533717477</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6936,7 +6947,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="63">
-        <v>1190.85372647454</v>
+        <v>1189.946210951688</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6956,7 +6967,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="64">
-        <v>1580.247947903324</v>
+        <v>1579.340432380471</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6976,7 +6987,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="65">
-        <v>47.2482506442884</v>
+        <v>47.21817162770338</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6996,7 +7007,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="66">
-        <v>70.64417240807387</v>
+        <v>70.61409339148885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7016,7 +7027,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="67">
-        <v>98.00160944064315</v>
+        <v>97.97153042405814</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7036,7 +7047,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="68">
-        <v>76.72469055652758</v>
+        <v>76.69461153994256</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7056,7 +7067,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="69">
-        <v>13.25566515100215</v>
+        <v>13.19203124741503</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7076,7 +7087,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="70">
-        <v>22.18514664927616</v>
+        <v>22.12151274568903</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7096,7 +7107,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="71">
-        <v>33.09024280681102</v>
+        <v>33.0266089032239</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7116,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="72">
-        <v>30.08805430145042</v>
+        <v>30.0244203978633</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7136,7 +7147,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="73">
-        <v>2.117869906045341</v>
+        <v>2.103483941458897</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7156,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="73">
-        <v>4.043180165901165</v>
+        <v>4.00713563344096</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7176,7 +7187,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="73">
-        <v>6.901448053761143</v>
+        <v>6.810734959314241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7196,7 +7207,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="73">
-        <v>9.036710091931607</v>
+        <v>9.0006655594714</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7276,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="73">
-        <v>0.3503335136736847</v>
+        <v>0.2606792795901418</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7376,7 +7387,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="74">
-        <v>178.6171623236598</v>
+        <v>178.4946248444584</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7396,7 +7407,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="75">
-        <v>369.4352473789946</v>
+        <v>369.283286307213</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7416,7 +7427,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="76">
-        <v>568.2006233794907</v>
+        <v>568.0130259219638</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7436,7 +7447,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="77">
-        <v>814.3761799341463</v>
+        <v>814.100745334792</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7456,7 +7467,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="73">
-        <v>3.582407332148237</v>
+        <v>3.552407480448886</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7476,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="70">
-        <v>22.98277698812812</v>
+        <v>22.95277706027473</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7496,7 +7507,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="65">
-        <v>47.52592116952269</v>
+        <v>47.49585253853579</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7516,7 +7527,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="72">
-        <v>25.54784743165502</v>
+        <v>25.5177788006681</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7876,7 +7887,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="78">
-        <v>110.0268357839718</v>
+        <v>109.9520465887421</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7896,7 +7907,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="79">
-        <v>276.1904093149447</v>
+        <v>276.0928704405691</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7916,7 +7927,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="75">
-        <v>374.1210230812806</v>
+        <v>373.9703671229533</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8336,7 +8347,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="61">
-        <v>502.3271453346225</v>
+        <v>501.3052779287796</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8355,8 +8366,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="80">
-        <v>844.5206320851189</v>
+      <c r="F75" s="62">
+        <v>843.4987646792762</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8376,7 +8387,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="63">
-        <v>1189.67930931933</v>
+        <v>1188.657441913487</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8396,7 +8407,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="64">
-        <v>1579.073530748113</v>
+        <v>1578.05166334227</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8416,7 +8427,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="71">
-        <v>33.93711204676197</v>
+        <v>33.92371746178431</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8436,7 +8447,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="65">
-        <v>48.47983473899561</v>
+        <v>48.46644015401796</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8456,7 +8467,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="66">
-        <v>71.38235323815853</v>
+        <v>71.28863166075186</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8475,8 +8486,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="81">
-        <v>56.07098511578626</v>
+      <c r="F81" s="80">
+        <v>56.0575905308086</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8496,7 +8507,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="73">
-        <v>7.289786621461033</v>
+        <v>7.277823662879424</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8516,7 +8527,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="73">
-        <v>11.27576089232673</v>
+        <v>11.22840955677092</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8536,7 +8547,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="69">
-        <v>18.01696137403346</v>
+        <v>17.96961003847765</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8556,7 +8567,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="70">
-        <v>18.56419514459801</v>
+        <v>18.5168438090422</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8576,7 +8587,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="73">
-        <v>1.179335280021038</v>
+        <v>1.172354779560705</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8596,7 +8607,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="73">
-        <v>1.921021783854771</v>
+        <v>1.914041283394438</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8616,7 +8627,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="73">
-        <v>3.211848975469301</v>
+        <v>3.190195047016415</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8636,7 +8647,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="73">
-        <v>5.540454090721285</v>
+        <v>5.518800162268399</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8815,8 +8826,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="82">
-        <v>126.9246421873744</v>
+      <c r="F98" s="81">
+        <v>126.7571474971216</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8835,8 +8846,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="83">
-        <v>278.7903310606651</v>
+      <c r="F99" s="82">
+        <v>278.5858779427269</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -8855,8 +8866,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="84">
-        <v>454.6957044911437</v>
+      <c r="F100" s="83">
+        <v>454.450456456837</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -8875,8 +8886,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="85">
-        <v>576.6409515258404</v>
+      <c r="F101" s="84">
+        <v>576.2541790440018</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -8896,7 +8907,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="69">
-        <v>16.88160377567795</v>
+        <v>16.86820919217237</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -8916,7 +8927,7 @@
         <v>16</v>
       </c>
       <c r="F103" s="71">
-        <v>31.42346746461299</v>
+        <v>31.41007287963534</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -8936,7 +8947,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="65">
-        <v>48.85653547866163</v>
+        <v>48.84314089368397</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -8955,8 +8966,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="86">
-        <v>39.01461784140365</v>
+      <c r="F105" s="85">
+        <v>39.00122325642599</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -8976,7 +8987,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="73">
-        <v>1.310965925054893</v>
+        <v>1.307985971245964</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -8996,7 +9007,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="73">
-        <v>4.569971386801662</v>
+        <v>4.558008428220052</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9016,7 +9027,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="73">
-        <v>9.339542417081486</v>
+        <v>9.292191081525679</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9036,7 +9047,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="73">
-        <v>10.77139018310407</v>
+        <v>10.75942722452246</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9076,7 +9087,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="73">
-        <v>0.3201162449533483</v>
+        <v>0.3179677461794101</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9096,7 +9107,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="73">
-        <v>1.039802686574531</v>
+        <v>1.032822186114198</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9116,7 +9127,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="73">
-        <v>3.016010340924316</v>
+        <v>3.009029840463982</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9316,7 +9327,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="72">
-        <v>26.05883106916713</v>
+        <v>25.96097912848965</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9335,8 +9346,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="82">
-        <v>124.4032471157535</v>
+      <c r="F124" s="81">
+        <v>124.2694146695647</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9356,7 +9367,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="65">
-        <v>47.55724682394026</v>
+        <v>47.39172399488481</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9416,7 +9427,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="73">
-        <v>8.229852231153483</v>
+        <v>8.216485433534537</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9757,6 +9768,2916 @@
       </c>
       <c r="F145" s="73">
         <v>0.335537146211912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="86">
+        <v>2847656.582494935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="87">
+        <v>3303660.367545749</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="87">
+        <v>3303660.367545749</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,7 +144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4A4F7"/>
+        <fgColor rgb="FFA5A5F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0101FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4A4F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,13 +204,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4646FB"/>
+        <fgColor rgb="FF4545FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0505FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4949FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,12 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0707FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -543,38 +549,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -599,7 +605,8 @@
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>607.2897778836813</v>
+        <v>565.9152544174246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1014,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>1438.419368234145</v>
+        <v>1340.179112074856</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1034,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>2007.113915747811</v>
+        <v>1871.669320701552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1054,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>668.6622379726718</v>
+        <v>620.7502161710411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1074,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>1565.317021822742</v>
+        <v>1454.94711491725</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1094,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>2100.890518324818</v>
+        <v>1956.327374914845</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1113,8 +1120,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
-        <v>671.6274476136346</v>
+      <c r="F11" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1133,8 +1140,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10">
-        <v>1574.14487790612</v>
+      <c r="F12" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1153,8 +1160,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11">
-        <v>2112.549818973813</v>
+      <c r="F13" s="12">
+        <v>1966.766116343693</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1233,8 +1240,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="12">
-        <v>625.4593519186379</v>
+      <c r="F17" s="13">
+        <v>582.8185979174182</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1253,8 +1260,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13">
-        <v>1456.588942269102</v>
+      <c r="F18" s="14">
+        <v>1357.08245557485</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1273,8 +1280,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="14">
-        <v>2025.283489782767</v>
+      <c r="F19" s="15">
+        <v>1888.572664201545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1294,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7">
-        <v>670.0752467606162</v>
+        <v>622.0334160007335</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1313,8 +1320,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="10">
-        <v>1568.608376781044</v>
+      <c r="F21" s="8">
+        <v>1457.93975091872</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1333,8 +1340,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="9">
-        <v>2104.307596078843</v>
+      <c r="F22" s="12">
+        <v>1959.434869202987</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1353,8 +1360,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="7">
-        <v>671.6274476136346</v>
+      <c r="F23" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1373,8 +1380,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10">
-        <v>1574.14487790612</v>
+      <c r="F24" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1393,8 +1400,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="11">
-        <v>2112.610772090001</v>
+      <c r="F25" s="12">
+        <v>1966.822099623048</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1473,8 +1480,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="15">
-        <v>645.8573055272968</v>
+      <c r="F29" s="16">
+        <v>601.7840211400251</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1493,8 +1500,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="16">
-        <v>1501.586596608642</v>
+      <c r="F30" s="17">
+        <v>1398.910292793575</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1513,8 +1520,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="17">
-        <v>2066.067559024787</v>
+      <c r="F31" s="18">
+        <v>1926.484276448094</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1534,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7">
-        <v>670.3139128595089</v>
+        <v>622.25114723056</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1553,8 +1560,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10">
-        <v>1570.086205795181</v>
+      <c r="F33" s="8">
+        <v>1459.280047838208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1573,8 +1580,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="11">
-        <v>2107.173430866648</v>
+      <c r="F34" s="12">
+        <v>1962.033476701951</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1593,8 +1600,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="7">
-        <v>671.6274476136346</v>
+      <c r="F35" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1613,8 +1620,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="10">
-        <v>1574.14487790612</v>
+      <c r="F36" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1633,8 +1640,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="11">
-        <v>2112.857612081576</v>
+      <c r="F37" s="12">
+        <v>1967.048943448735</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1713,8 +1720,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="12">
-        <v>622.6097642397169</v>
+      <c r="F41" s="13">
+        <v>578.9143574202435</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1733,8 +1740,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="13">
-        <v>1468.971904852071</v>
+      <c r="F42" s="19">
+        <v>1369.913837685192</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1753,8 +1760,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="18">
-        <v>2032.563062185492</v>
+      <c r="F43" s="20">
+        <v>1893.838803655416</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1774,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="7">
-        <v>669.8421799811606</v>
+        <v>621.7878866530157</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1793,8 +1800,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="10">
-        <v>1569.23516321978</v>
+      <c r="F45" s="8">
+        <v>1458.448850249273</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1813,8 +1820,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="11">
-        <v>2105.011878774904</v>
+      <c r="F46" s="12">
+        <v>1960.017561280078</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1833,8 +1840,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="7">
-        <v>671.6274476136346</v>
+      <c r="F47" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1853,8 +1860,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="10">
-        <v>1574.14487790612</v>
+      <c r="F48" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1873,8 +1880,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="11">
-        <v>2112.702799087389</v>
+      <c r="F49" s="12">
+        <v>1966.91506012143</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1953,8 +1960,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="19">
-        <v>637.0844473220922</v>
+      <c r="F53" s="21">
+        <v>592.3301912343321</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1973,8 +1980,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="20">
-        <v>1487.751841312518</v>
+      <c r="F54" s="22">
+        <v>1387.405160866716</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1993,8 +2000,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="21">
-        <v>2047.037745267867</v>
+      <c r="F55" s="23">
+        <v>1907.254637469505</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2014,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="7">
-        <v>670.4965165966013</v>
+        <v>622.3829108389771</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2033,8 +2040,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="10">
-        <v>1570.524570716051</v>
+      <c r="F57" s="8">
+        <v>1459.619904785944</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2053,8 +2060,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="11">
-        <v>2106.618755391483</v>
+      <c r="F58" s="12">
+        <v>1961.47739950612</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2073,8 +2080,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="7">
-        <v>671.6274476136346</v>
+      <c r="F59" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2093,8 +2100,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="10">
-        <v>1574.14487790612</v>
+      <c r="F60" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2113,8 +2120,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="11">
-        <v>2112.740575750564</v>
+      <c r="F61" s="12">
+        <v>1966.949756649185</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2193,8 +2200,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="22">
-        <v>652.595894952501</v>
+      <c r="F65" s="16">
+        <v>606.6869826922898</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2213,8 +2220,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="23">
-        <v>1522.544050148325</v>
+      <c r="F66" s="24">
+        <v>1419.727868000706</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2233,8 +2240,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="24">
-        <v>2080.372309136527</v>
+      <c r="F67" s="25">
+        <v>1938.101392957686</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2253,8 +2260,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="7">
-        <v>670.7711076554779</v>
+      <c r="F68" s="10">
+        <v>622.634057984588</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2273,8 +2280,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="10">
-        <v>1571.704631232502</v>
+      <c r="F69" s="11">
+        <v>1460.692678108664</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2293,8 +2300,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="11">
-        <v>2108.731429652436</v>
+      <c r="F70" s="12">
+        <v>1963.397805041242</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2313,8 +2320,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="7">
-        <v>671.6274476136346</v>
+      <c r="F71" s="10">
+        <v>623.342815174823</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2333,8 +2340,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="10">
-        <v>1574.14487790612</v>
+      <c r="F72" s="11">
+        <v>1462.713331941743</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2353,8 +2360,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="11">
-        <v>2112.884736330318</v>
+      <c r="F73" s="12">
+        <v>1967.08223898001</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2410,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2423,7 +2430,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2443,7 +2450,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2470,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2483,7 +2490,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2503,7 +2510,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2523,7 +2530,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2550,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2563,7 +2570,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2583,7 +2590,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2610,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2630,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2643,7 +2650,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="27">
         <v>616.2619429148438</v>
       </c>
     </row>
@@ -2663,7 +2670,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="28">
         <v>1075.808909626444</v>
       </c>
     </row>
@@ -2683,7 +2690,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>1319.070738412528</v>
       </c>
     </row>
@@ -2703,7 +2710,7 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <v>24.7366827661403</v>
       </c>
     </row>
@@ -2723,7 +2730,7 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="30">
         <v>24.7366827661403</v>
       </c>
     </row>
@@ -2743,7 +2750,7 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <v>24.7366827661403</v>
       </c>
     </row>
@@ -2763,7 +2770,7 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="26">
         <v>1.721201479431673</v>
       </c>
     </row>
@@ -2783,7 +2790,7 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="26">
         <v>3.990945371962852</v>
       </c>
     </row>
@@ -2803,7 +2810,7 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="26">
         <v>4.129341951426044</v>
       </c>
     </row>
@@ -2823,7 +2830,7 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2850,7 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +2870,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="26">
         <v>0.06194088324613722</v>
       </c>
     </row>
@@ -2883,7 +2890,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="31">
         <v>1147.271624831435</v>
       </c>
     </row>
@@ -2903,7 +2910,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="32">
         <v>1953.1432449587</v>
       </c>
     </row>
@@ -2923,7 +2930,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="33">
         <v>2738.730225682273</v>
       </c>
     </row>
@@ -2943,7 +2950,7 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="34">
         <v>52.66512742172172</v>
       </c>
     </row>
@@ -2963,7 +2970,7 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="35">
         <v>85.70618179403229</v>
       </c>
     </row>
@@ -2983,7 +2990,7 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="35">
         <v>84.01864744187954</v>
       </c>
     </row>
@@ -3003,7 +3010,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="26">
         <v>2.256665676135701</v>
       </c>
     </row>
@@ -3023,7 +3030,7 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="26">
         <v>6.433353256355201</v>
       </c>
     </row>
@@ -3043,7 +3050,7 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="26">
         <v>8.57916095491996</v>
       </c>
     </row>
@@ -3063,7 +3070,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3083,7 +3090,7 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3103,7 +3110,7 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="26">
         <v>0.3210427361123303</v>
       </c>
     </row>
@@ -3123,7 +3130,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3143,7 +3150,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3163,7 +3170,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3183,7 +3190,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3203,7 +3210,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3223,7 +3230,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3243,7 +3250,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3270,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3290,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3310,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3323,7 +3330,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3343,7 +3350,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3363,7 +3370,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="36">
         <v>759.2297272366442</v>
       </c>
     </row>
@@ -3383,7 +3390,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="37">
         <v>1354.448307248184</v>
       </c>
     </row>
@@ -3403,7 +3410,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="38">
         <v>1873.781221153102</v>
       </c>
     </row>
@@ -3423,7 +3430,7 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="30">
         <v>17.9039684322433</v>
       </c>
     </row>
@@ -3443,7 +3450,7 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="30">
         <v>24.71348940620958</v>
       </c>
     </row>
@@ -3463,7 +3470,7 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="30">
         <v>17.9039684322433</v>
       </c>
     </row>
@@ -3483,7 +3490,7 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="26">
         <v>0.7630664063589053</v>
       </c>
     </row>
@@ -3503,7 +3510,7 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="26">
         <v>1.532187398651487</v>
       </c>
     </row>
@@ -3523,7 +3530,7 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="26">
         <v>1.884584859553688</v>
       </c>
     </row>
@@ -3543,7 +3550,7 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3563,7 +3570,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +3590,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="26">
         <v>0.03838884751747525</v>
       </c>
     </row>
@@ -3603,7 +3610,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="39">
         <v>1197.134754443719</v>
       </c>
     </row>
@@ -3623,7 +3630,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="40">
         <v>2417.958950560746</v>
       </c>
     </row>
@@ -3643,7 +3650,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="41">
         <v>3538.613576294043</v>
       </c>
     </row>
@@ -3663,7 +3670,7 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="42">
         <v>38.86259409460152</v>
       </c>
     </row>
@@ -3683,7 +3690,7 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="43">
         <v>75.81956380984481</v>
       </c>
     </row>
@@ -3703,7 +3710,7 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="44">
         <v>63.84598799011226</v>
       </c>
     </row>
@@ -3723,7 +3730,7 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="26">
         <v>1.195403724221273</v>
       </c>
     </row>
@@ -3743,7 +3750,7 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="26">
         <v>3.247314346877608</v>
       </c>
     </row>
@@ -3763,7 +3770,7 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="26">
         <v>4.756952720689417</v>
       </c>
     </row>
@@ -3783,7 +3790,7 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F71" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3803,7 +3810,7 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3823,7 +3830,7 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="26">
         <v>0.1897106535437932</v>
       </c>
     </row>
@@ -3873,7 +3880,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="45">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -3893,7 +3900,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="46">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -3913,7 +3920,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="47">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -3933,7 +3940,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>44.26054413735847</v>
       </c>
     </row>
@@ -3953,7 +3960,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="49">
         <v>95.01390293371325</v>
       </c>
     </row>
@@ -3973,7 +3980,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <v>73.73698404959765</v>
       </c>
     </row>
@@ -3993,7 +4000,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <v>1.936352364409015</v>
       </c>
     </row>
@@ -4013,7 +4020,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="51">
         <v>5.761525304311214</v>
       </c>
     </row>
@@ -4033,7 +4040,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="52">
         <v>8.228526999026389</v>
       </c>
     </row>
@@ -4053,7 +4060,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4073,7 +4080,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4093,7 +4100,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="51">
         <v>0.474532612948954</v>
       </c>
     </row>
@@ -4113,7 +4120,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="53">
         <v>183.7625431282737</v>
       </c>
     </row>
@@ -4133,7 +4140,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="54">
         <v>564.8558930484317</v>
       </c>
     </row>
@@ -4153,7 +4160,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="55">
         <v>803.5661598844738</v>
       </c>
     </row>
@@ -4173,7 +4180,7 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="56">
         <v>22.70962231469279</v>
       </c>
     </row>
@@ -4193,7 +4200,7 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <v>73.46298111104755</v>
       </c>
     </row>
@@ -4213,7 +4220,7 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="57">
         <v>52.18606222693199</v>
       </c>
     </row>
@@ -4233,7 +4240,7 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="51">
         <v>0.3021161210002949</v>
       </c>
     </row>
@@ -4253,7 +4260,7 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="51">
         <v>1.967559390991002</v>
       </c>
     </row>
@@ -4273,7 +4280,7 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="51">
         <v>4.296164506242987</v>
       </c>
     </row>
@@ -4293,7 +4300,7 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4313,7 +4320,7 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4333,7 +4340,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="51">
         <v>0.4088092642435778</v>
       </c>
     </row>
@@ -4353,7 +4360,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="52">
         <v>17.03713432198739</v>
       </c>
     </row>
@@ -4373,7 +4380,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="58">
         <v>287.2318664885298</v>
       </c>
     </row>
@@ -4393,7 +4400,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="59">
         <v>328.3449640089807</v>
       </c>
     </row>
@@ -4413,7 +4420,7 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4433,7 +4440,7 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="56">
         <v>22.59732434760382</v>
       </c>
     </row>
@@ -4453,7 +4460,7 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="51">
         <v>4.844419821488441</v>
       </c>
     </row>
@@ -4473,7 +4480,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4493,7 +4500,7 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="51">
         <v>0.2051261322193287</v>
       </c>
     </row>
@@ -4513,7 +4520,7 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="51">
         <v>0.8695242873460773</v>
       </c>
     </row>
@@ -4533,7 +4540,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4553,7 +4560,7 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4573,7 +4580,7 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="51">
         <v>0.1500571724585605</v>
       </c>
     </row>
@@ -4593,7 +4600,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="45">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -4613,7 +4620,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="46">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -4633,7 +4640,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="47">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -4653,7 +4660,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="60">
         <v>33.92157739486524</v>
       </c>
     </row>
@@ -4673,7 +4680,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="50">
         <v>71.2750733561096</v>
       </c>
     </row>
@@ -4693,7 +4700,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="61">
         <v>56.05545046388953</v>
       </c>
     </row>
@@ -4713,7 +4720,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="51">
         <v>1.172271354296421</v>
       </c>
     </row>
@@ -4733,7 +4740,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="51">
         <v>3.189691974707481</v>
       </c>
     </row>
@@ -4753,7 +4760,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="51">
         <v>5.518297089959466</v>
       </c>
     </row>
@@ -4773,7 +4780,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4793,7 +4800,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="51">
         <v>0</v>
       </c>
     </row>
@@ -4813,7 +4820,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="51">
         <v>0.3599318234696518</v>
       </c>
     </row>
@@ -4833,7 +4840,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="61">
+      <c r="F50" s="62">
         <v>130.5635813865584</v>
       </c>
     </row>
@@ -4853,7 +4860,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="63">
         <v>459.4908617846568</v>
       </c>
     </row>
@@ -4873,7 +4880,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="63">
+      <c r="F52" s="64">
         <v>583.2422931874853</v>
       </c>
     </row>
@@ -4893,7 +4900,7 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="52">
         <v>17.37834277799846</v>
       </c>
     </row>
@@ -4913,7 +4920,7 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="47">
+      <c r="F54" s="48">
         <v>49.35413348428072</v>
       </c>
     </row>
@@ -4933,7 +4940,7 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="65">
         <v>39.51221584702273</v>
       </c>
     </row>
@@ -4953,7 +4960,7 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="51">
         <v>0.4273792104589046</v>
       </c>
     </row>
@@ -4973,7 +4980,7 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="51">
         <v>1.710847809862805</v>
       </c>
     </row>
@@ -4993,7 +5000,7 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="50">
+      <c r="F58" s="51">
         <v>3.68705546421259</v>
       </c>
     </row>
@@ -5013,7 +5020,7 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="50">
+      <c r="F59" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5033,7 +5040,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5053,7 +5060,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="50">
+      <c r="F61" s="51">
         <v>0.319198732826391</v>
       </c>
     </row>
@@ -5073,7 +5080,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="50">
+      <c r="F62" s="51">
         <v>0.1178186833649647</v>
       </c>
     </row>
@@ -5093,7 +5100,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="61">
+      <c r="F63" s="62">
         <v>127.5892090831109</v>
       </c>
     </row>
@@ -5113,7 +5120,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F64" s="57">
         <v>51.35203405575294</v>
       </c>
     </row>
@@ -5133,7 +5140,7 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="50">
+      <c r="F65" s="51">
         <v>0.1178177020944756</v>
       </c>
     </row>
@@ -5153,7 +5160,7 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="52">
         <v>8.892161596421589</v>
       </c>
     </row>
@@ -5173,7 +5180,7 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="50">
+      <c r="F67" s="51">
         <v>1.490532331558613</v>
       </c>
     </row>
@@ -5193,7 +5200,7 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="50">
+      <c r="F68" s="51">
         <v>0.1090910646711687</v>
       </c>
     </row>
@@ -5213,7 +5220,7 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="50">
+      <c r="F69" s="51">
         <v>0.3365625140071203</v>
       </c>
     </row>
@@ -5233,7 +5240,7 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="50">
+      <c r="F70" s="51">
         <v>1.267902199329418</v>
       </c>
     </row>
@@ -5253,7 +5260,7 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="50">
+      <c r="F71" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5273,7 +5280,7 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="50">
+      <c r="F72" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5293,7 +5300,7 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F73" s="51">
         <v>0.1680811958081707</v>
       </c>
     </row>
@@ -5343,7 +5350,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5363,7 +5370,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5383,7 +5390,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5403,7 +5410,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5423,7 +5430,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5443,7 +5450,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5463,7 +5470,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5483,7 +5490,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5503,7 +5510,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5523,7 +5530,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5543,7 +5550,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5563,7 +5570,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5583,7 +5590,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5603,7 +5610,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5623,7 +5630,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5643,7 +5650,7 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5663,7 +5670,7 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5683,7 +5690,7 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5703,7 +5710,7 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5723,7 +5730,7 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5743,7 +5750,7 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5763,7 +5770,7 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5783,7 +5790,7 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5803,7 +5810,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5823,7 +5830,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5843,7 +5850,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5863,7 +5870,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5883,7 +5890,7 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5903,7 +5910,7 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5923,7 +5930,7 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5943,7 +5950,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5963,7 +5970,7 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5983,7 +5990,7 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6003,7 +6010,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6023,7 +6030,7 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6043,7 +6050,7 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="66">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6063,7 +6070,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6083,7 +6090,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6103,7 +6110,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6123,7 +6130,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6143,7 +6150,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6163,7 +6170,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6183,7 +6190,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6203,7 +6210,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6223,7 +6230,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6243,7 +6250,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="66">
+      <c r="F47" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6263,7 +6270,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6283,7 +6290,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="66">
+      <c r="F49" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6303,7 +6310,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="66">
+      <c r="F50" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6323,7 +6330,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6343,7 +6350,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6363,7 +6370,7 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="66">
+      <c r="F53" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6383,7 +6390,7 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F54" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6403,7 +6410,7 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="66">
+      <c r="F55" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6423,7 +6430,7 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="66">
+      <c r="F56" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6443,7 +6450,7 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="66">
+      <c r="F57" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6463,7 +6470,7 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="66">
+      <c r="F58" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6483,7 +6490,7 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6503,7 +6510,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="66">
+      <c r="F60" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6523,7 +6530,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="66">
+      <c r="F61" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6543,7 +6550,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6563,7 +6570,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6583,7 +6590,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6603,7 +6610,7 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="66">
+      <c r="F65" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6623,7 +6630,7 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="66">
+      <c r="F66" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6643,7 +6650,7 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6663,7 +6670,7 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="66">
+      <c r="F68" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6683,7 +6690,7 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="66">
+      <c r="F69" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6703,7 +6710,7 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="66">
+      <c r="F70" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6723,7 +6730,7 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="66">
+      <c r="F71" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6743,7 +6750,7 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="66">
+      <c r="F72" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6763,7 +6770,7 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="66">
+      <c r="F73" s="67">
         <v>3303079.964256136</v>
       </c>
     </row>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,19 +126,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACACF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4C4CFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BFE"/>
+        <fgColor rgb="FFB9B9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8686F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B6BFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABABF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5959FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0DFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADADF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B5BFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1010FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5B5F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7FF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6464FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8A8F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5555FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A0AFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5757FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C0CFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAEF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7676F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B4BFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0606FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7A7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D4DFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F6FF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5252FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4646FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0404FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4949FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0505FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6767FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F4FFB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,25 +336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3E3EFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0101FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4A4F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D3DFC"/>
+        <fgColor rgb="FF4343FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0202FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0303FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E5EFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F3FFC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,79 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A4AFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0909FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7A7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4545FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0505FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4949FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0808FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8A8F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4747FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0707FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4343FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0303FF"/>
+        <fgColor rgb="FF4040FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,31 +408,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3E7D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCE9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B369"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF349A34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAE3CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94C994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9DBB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91C791"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EB66E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBDCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEAF2EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FCE9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69B369"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF349A34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
+        <fgColor rgb="FF9BCC9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BA54A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE4CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96C996"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,55 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB9DBB9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91C791"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6EB66E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BCC9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BA54A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
+        <fgColor rgb="FFE4F0E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,19 +582,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DBAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D18A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3EEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4ECE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE4"/>
+        <fgColor rgb="FFF4E8D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E7D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D69A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CA76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DBAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E3C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,49 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D69A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E3C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BE"/>
+        <fgColor rgb="FFF4E8D4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE6"/>
+        <fgColor rgb="FFF4ECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D79E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,13 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6DBAA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF7D597"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E6CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -544,8 +820,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -553,39 +829,39 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -606,7 +882,53 @@
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>565.9152544174246</v>
+        <v>483.12078453503</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1021,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>1340.179112074856</v>
+        <v>923.1831725841055</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1041,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>1871.669320701552</v>
+        <v>1152.751003947368</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1061,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>620.7502161710411</v>
+        <v>605.8979066706646</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1081,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>1454.94711491725</v>
+        <v>1317.249133481703</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1101,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>1956.327374914845</v>
+        <v>1965.52415509424</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1121,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10">
-        <v>623.342815174823</v>
+        <v>594.3782323951318</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1141,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="11">
-        <v>1462.713331941743</v>
+        <v>1301.879148750203</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1161,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12">
-        <v>1966.766116343693</v>
+        <v>1943.557311694308</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1241,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <v>582.8185979174182</v>
+        <v>516.7393436324022</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1261,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>1357.08245557485</v>
+        <v>977.8659786286419</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1281,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>1888.572664201545</v>
+        <v>1216.650628157832</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1300,8 +1622,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7">
-        <v>622.0334160007335</v>
+      <c r="F20" s="16">
+        <v>627.2015891316861</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1320,8 +1642,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8">
-        <v>1457.93975091872</v>
+      <c r="F21" s="17">
+        <v>1350.567597398343</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1340,8 +1662,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="12">
-        <v>1959.434869202987</v>
+      <c r="F22" s="18">
+        <v>1993.216796156673</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1360,8 +1682,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10">
-        <v>623.342815174823</v>
+      <c r="F23" s="19">
+        <v>615.9845044264446</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1380,8 +1702,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="11">
-        <v>1462.713331941743</v>
+      <c r="F24" s="20">
+        <v>1331.708582166876</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1400,8 +1722,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="12">
-        <v>1966.822099623048</v>
+      <c r="F25" s="21">
+        <v>1975.277432470191</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1480,8 +1802,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="16">
-        <v>601.7840211400251</v>
+      <c r="F29" s="22">
+        <v>570.2340431172195</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1500,8 +1822,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="17">
-        <v>1398.910292793575</v>
+      <c r="F30" s="23">
+        <v>1062.9119307393</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1520,8 +1842,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="18">
-        <v>1926.484276448094</v>
+      <c r="F31" s="15">
+        <v>1216.650628157832</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1540,8 +1862,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="7">
-        <v>622.25114723056</v>
+      <c r="F32" s="24">
+        <v>644.9321684842531</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1560,8 +1882,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="8">
-        <v>1459.280047838208</v>
+      <c r="F33" s="25">
+        <v>1426.160769060212</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1580,8 +1902,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="12">
-        <v>1962.033476701951</v>
+      <c r="F34" s="26">
+        <v>2027.849145965239</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1600,8 +1922,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="10">
-        <v>623.342815174823</v>
+      <c r="F35" s="27">
+        <v>639.4866324486115</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1620,8 +1942,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="11">
-        <v>1462.713331941743</v>
+      <c r="F36" s="28">
+        <v>1409.052977442889</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1640,8 +1962,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="12">
-        <v>1967.048943448735</v>
+      <c r="F37" s="26">
+        <v>2029.720920787313</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1720,8 +2042,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="13">
-        <v>578.9143574202435</v>
+      <c r="F41" s="29">
+        <v>544.1390201710497</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1740,8 +2062,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19">
-        <v>1369.913837685192</v>
+      <c r="F42" s="30">
+        <v>1117.765513126117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1760,8 +2082,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="20">
-        <v>1893.838803655416</v>
+      <c r="F43" s="31">
+        <v>1369.900126978853</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1780,8 +2102,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="7">
-        <v>621.7878866530157</v>
+      <c r="F44" s="27">
+        <v>641.1266007144516</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1800,8 +2122,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="8">
-        <v>1458.448850249273</v>
+      <c r="F45" s="32">
+        <v>1480.185886249178</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1820,8 +2142,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="12">
-        <v>1960.017561280078</v>
+      <c r="F46" s="33">
+        <v>2049.674743127431</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1840,8 +2162,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="10">
-        <v>623.342815174823</v>
+      <c r="F47" s="27">
+        <v>637.9581645781425</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1860,8 +2182,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="11">
-        <v>1462.713331941743</v>
+      <c r="F48" s="34">
+        <v>1452.185526283143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1880,8 +2202,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="12">
-        <v>1966.91506012143</v>
+      <c r="F49" s="35">
+        <v>2037.810921743861</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1960,8 +2282,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="21">
-        <v>592.3301912343321</v>
+      <c r="F53" s="10">
+        <v>578.6995966935914</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1980,8 +2302,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="22">
-        <v>1387.405160866716</v>
+      <c r="F54" s="36">
+        <v>1193.718513582891</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2000,8 +2322,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="23">
-        <v>1907.254637469505</v>
+      <c r="F55" s="37">
+        <v>1394.001501279783</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2020,8 +2342,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="7">
-        <v>622.3829108389771</v>
+      <c r="F56" s="38">
+        <v>653.4724117453472</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2040,8 +2362,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="8">
-        <v>1459.619904785944</v>
+      <c r="F57" s="39">
+        <v>1499.453134140224</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2060,8 +2382,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="12">
-        <v>1961.47739950612</v>
+      <c r="F58" s="40">
+        <v>2064.334238553281</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2080,8 +2402,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="10">
-        <v>623.342815174823</v>
+      <c r="F59" s="38">
+        <v>651.7108701284687</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2100,8 +2422,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="11">
-        <v>1462.713331941743</v>
+      <c r="F60" s="32">
+        <v>1478.927633176474</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2120,8 +2442,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="12">
-        <v>1966.949756649185</v>
+      <c r="F61" s="41">
+        <v>2057.710104037031</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2200,8 +2522,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="16">
-        <v>606.6869826922898</v>
+      <c r="F65" s="42">
+        <v>619.8700563430664</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2220,8 +2542,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="24">
-        <v>1419.727868000706</v>
+      <c r="F66" s="43">
+        <v>1263.869862652072</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2240,8 +2562,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="25">
-        <v>1938.101392957686</v>
+      <c r="F67" s="37">
+        <v>1394.001501279783</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2260,8 +2582,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="10">
-        <v>622.634057984588</v>
+      <c r="F68" s="38">
+        <v>659.0796714290118</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2280,8 +2602,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="11">
-        <v>1460.692678108664</v>
+      <c r="F69" s="44">
+        <v>1534.149384223912</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2300,8 +2622,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="12">
-        <v>1963.397805041242</v>
+      <c r="F70" s="45">
+        <v>2084.522286770332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2320,8 +2642,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="10">
-        <v>623.342815174823</v>
+      <c r="F71" s="38">
+        <v>657.2982506168862</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2340,8 +2662,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="11">
-        <v>1462.713331941743</v>
+      <c r="F72" s="46">
+        <v>1524.821920266571</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2360,8 +2682,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="12">
-        <v>1967.08223898001</v>
+      <c r="F73" s="45">
+        <v>2080.323524544172</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2732,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2430,7 +2752,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2450,7 +2772,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2470,7 +2792,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2490,7 +2812,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2510,7 +2832,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +2852,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2550,7 +2872,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2892,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2590,7 +2912,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2610,7 +2932,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2630,7 +2952,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2650,8 +2972,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="27">
-        <v>616.2619429148438</v>
+      <c r="F14" s="48">
+        <v>616.2619429148439</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2670,8 +2992,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="28">
-        <v>1075.808909626444</v>
+      <c r="F15" s="49">
+        <v>1075.808909626445</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2690,8 +3012,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="29">
-        <v>1319.070738412528</v>
+      <c r="F16" s="50">
+        <v>1319.070738412529</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2710,8 +3032,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="30">
-        <v>24.7366827661403</v>
+      <c r="F17" s="51">
+        <v>68.62344430462659</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2730,8 +3052,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="30">
-        <v>24.7366827661403</v>
+      <c r="F18" s="52">
+        <v>123.382203195936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2750,8 +3072,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="30">
-        <v>24.7366827661403</v>
+      <c r="F19" s="53">
+        <v>364.4666266399108</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2770,8 +3092,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="26">
-        <v>1.721201479431673</v>
+      <c r="F20" s="54">
+        <v>31.4492424985207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2790,8 +3112,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="26">
-        <v>3.990945371962852</v>
+      <c r="F21" s="51">
+        <v>60.37855996830722</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2810,8 +3132,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="26">
-        <v>4.129341951426044</v>
+      <c r="F22" s="55">
+        <v>53.87988420038165</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2830,8 +3152,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="26">
-        <v>0</v>
+      <c r="F23" s="54">
+        <v>33.12524638344903</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2850,8 +3172,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="26">
-        <v>0</v>
+      <c r="F24" s="55">
+        <v>53.49084226871565</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2870,8 +3192,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="26">
-        <v>0.06194088324613722</v>
+      <c r="F25" s="55">
+        <v>50.99647979473985</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2890,7 +3212,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="56">
         <v>1147.271624831435</v>
       </c>
     </row>
@@ -2910,7 +3232,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="57">
         <v>1953.1432449587</v>
       </c>
     </row>
@@ -2930,7 +3252,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="58">
         <v>2738.730225682273</v>
       </c>
     </row>
@@ -2950,8 +3272,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="34">
-        <v>52.66512742172172</v>
+      <c r="F29" s="59">
+        <v>203.1680193021543</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2970,8 +3292,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="35">
-        <v>85.70618179403229</v>
+      <c r="F30" s="60">
+        <v>495.1232989097524</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2990,8 +3312,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="35">
-        <v>84.01864744187954</v>
+      <c r="F31" s="61">
+        <v>1306.653953097716</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3010,8 +3332,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="26">
-        <v>2.256665676135701</v>
+      <c r="F32" s="51">
+        <v>58.28292627013489</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3030,8 +3352,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="26">
-        <v>6.433353256355201</v>
+      <c r="F33" s="59">
+        <v>204.8798529795227</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3050,8 +3372,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="26">
-        <v>8.57916095491996</v>
+      <c r="F34" s="62">
+        <v>173.1823420834153</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3070,8 +3392,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="26">
-        <v>0</v>
+      <c r="F35" s="63">
+        <v>70.56254658121432</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3090,8 +3412,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="26">
-        <v>0</v>
+      <c r="F36" s="59">
+        <v>199.8002246283588</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3110,8 +3432,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="26">
-        <v>0.3210427361123303</v>
+      <c r="F37" s="62">
+        <v>168.6425823170192</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3130,7 +3452,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3150,7 +3472,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3170,7 +3492,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3512,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3210,7 +3532,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3552,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3250,7 +3572,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3270,7 +3592,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3612,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3310,7 +3632,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3330,7 +3652,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3350,7 +3672,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3370,8 +3692,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="36">
-        <v>759.2297272366442</v>
+      <c r="F50" s="64">
+        <v>759.2297272366443</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3390,7 +3712,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="65">
         <v>1354.448307248184</v>
       </c>
     </row>
@@ -3410,7 +3732,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="66">
         <v>1873.781221153102</v>
       </c>
     </row>
@@ -3430,8 +3752,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="30">
-        <v>17.9039684322433</v>
+      <c r="F53" s="55">
+        <v>47.97742029878688</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3450,8 +3772,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="30">
-        <v>24.71348940620958</v>
+      <c r="F54" s="67">
+        <v>139.3228605696621</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3470,8 +3792,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="30">
-        <v>17.9039684322433</v>
+      <c r="F55" s="68">
+        <v>726.9746725108813</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3490,8 +3812,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="26">
-        <v>0.7630664063589053</v>
+      <c r="F56" s="69">
+        <v>16.08545935837178</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3510,8 +3832,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="26">
-        <v>1.532187398651487</v>
+      <c r="F57" s="54">
+        <v>27.72313477612434</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3530,8 +3852,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="26">
-        <v>1.884584859553688</v>
+      <c r="F58" s="69">
+        <v>20.24594606881279</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3550,8 +3872,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="26">
-        <v>0</v>
+      <c r="F59" s="69">
+        <v>19.23173885121909</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3570,8 +3892,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="26">
-        <v>0</v>
+      <c r="F60" s="54">
+        <v>35.0814098334927</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3590,8 +3912,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="26">
-        <v>0.03838884751747525</v>
+      <c r="F61" s="69">
+        <v>25.29289472196106</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3610,7 +3932,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="70">
         <v>1197.134754443719</v>
       </c>
     </row>
@@ -3630,7 +3952,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="71">
         <v>2417.958950560746</v>
       </c>
     </row>
@@ -3650,7 +3972,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="41">
+      <c r="F64" s="72">
         <v>3538.613576294043</v>
       </c>
     </row>
@@ -3670,8 +3992,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="42">
-        <v>38.86259409460152</v>
+      <c r="F65" s="52">
+        <v>114.5834803005756</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3690,8 +4012,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="43">
-        <v>75.81956380984481</v>
+      <c r="F66" s="73">
+        <v>457.5275225094762</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3710,8 +4032,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="44">
-        <v>63.84598799011226</v>
+      <c r="F67" s="74">
+        <v>1276.88334455429</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3730,8 +4052,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="26">
-        <v>1.195403724221273</v>
+      <c r="F68" s="69">
+        <v>25.55812244389284</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3750,8 +4072,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="26">
-        <v>3.247314346877608</v>
+      <c r="F69" s="75">
+        <v>85.04682687406506</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3770,8 +4092,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="26">
-        <v>4.756952720689417</v>
+      <c r="F70" s="51">
+        <v>55.87992085895756</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3790,8 +4112,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="26">
-        <v>0</v>
+      <c r="F71" s="54">
+        <v>29.69897916076388</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3810,8 +4132,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="26">
-        <v>0</v>
+      <c r="F72" s="76">
+        <v>106.2937780279886</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3830,8 +4152,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="26">
-        <v>0.1897106535437932</v>
+      <c r="F73" s="51">
+        <v>65.99310399251166</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +4202,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="77">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -3900,7 +4222,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="78">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -3920,7 +4242,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="79">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -3940,8 +4262,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="48">
-        <v>44.26054413735847</v>
+      <c r="F5" s="80">
+        <v>134.3053731443071</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3960,8 +4282,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="49">
-        <v>95.01390293371325</v>
+      <c r="F6" s="81">
+        <v>454.3618084992925</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3980,8 +4302,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="50">
-        <v>73.73698404959765</v>
+      <c r="F7" s="82">
+        <v>667.3249808243377</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4000,8 +4322,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="51">
-        <v>1.936352364409015</v>
+      <c r="F8" s="83">
+        <v>46.38043355645637</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4020,8 +4342,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="51">
-        <v>5.761525304311214</v>
+      <c r="F9" s="84">
+        <v>182.4978379949073</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4040,8 +4362,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="52">
-        <v>8.228526999026389</v>
+      <c r="F10" s="85">
+        <v>104.1655418559661</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4060,8 +4382,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="51">
-        <v>0</v>
+      <c r="F11" s="86">
+        <v>54.78436092290551</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4080,8 +4402,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="51">
-        <v>0</v>
+      <c r="F12" s="87">
+        <v>194.1929445856546</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4100,8 +4422,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="51">
-        <v>0.474532612948954</v>
+      <c r="F13" s="88">
+        <v>120.411246992468</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4120,7 +4442,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="84">
         <v>183.7625431282737</v>
       </c>
     </row>
@@ -4140,7 +4462,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="89">
         <v>564.8558930484317</v>
       </c>
     </row>
@@ -4160,7 +4482,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="90">
         <v>803.5661598844738</v>
       </c>
     </row>
@@ -4180,8 +4502,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="56">
-        <v>22.70962231469279</v>
+      <c r="F17" s="91">
+        <v>84.82386276273837</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4200,8 +4522,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="50">
-        <v>73.46298111104755</v>
+      <c r="F18" s="92">
+        <v>367.4292698011744</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4220,8 +4542,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="57">
-        <v>52.18606222693199</v>
+      <c r="F19" s="93">
+        <v>452.9940195118803</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4240,8 +4562,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="51">
-        <v>0.3021161210002949</v>
+      <c r="F20" s="94">
+        <v>20.28153675045895</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4260,8 +4582,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="51">
-        <v>1.967559390991002</v>
+      <c r="F21" s="80">
+        <v>136.8393397935809</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4280,8 +4602,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="51">
-        <v>4.296164506242987</v>
+      <c r="F22" s="95">
+        <v>65.0308742471066</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4300,8 +4622,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="51">
-        <v>0</v>
+      <c r="F23" s="96">
+        <v>27.71744338716682</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4320,8 +4642,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="51">
-        <v>0</v>
+      <c r="F24" s="97">
+        <v>153.4042032650071</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4340,8 +4662,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="51">
-        <v>0.4088092642435778</v>
+      <c r="F25" s="98">
+        <v>79.62250567182066</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4360,7 +4682,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="99">
         <v>17.03713432198739</v>
       </c>
     </row>
@@ -4380,8 +4702,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="58">
-        <v>287.2318664885298</v>
+      <c r="F27" s="100">
+        <v>287.2318664885297</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4400,8 +4722,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="59">
-        <v>328.3449640089807</v>
+      <c r="F28" s="101">
+        <v>328.3449640089808</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4420,8 +4742,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="51">
-        <v>0</v>
+      <c r="F29" s="102">
+        <v>2.324118779117084</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4440,8 +4762,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="56">
-        <v>22.59732434760382</v>
+      <c r="F30" s="103">
+        <v>176.0546189652882</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4460,8 +4782,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="51">
-        <v>4.844419821488441</v>
+      <c r="F31" s="80">
+        <v>134.8578475370718</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4480,7 +4802,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4500,8 +4822,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="51">
-        <v>0.2051261322193287</v>
+      <c r="F33" s="104">
+        <v>36.96416854849968</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4520,8 +4842,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="51">
-        <v>0.8695242873460773</v>
+      <c r="F34" s="102">
+        <v>0.8768219189023396</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4540,7 +4862,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4560,8 +4882,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="51">
-        <v>0</v>
+      <c r="F36" s="86">
+        <v>51.42141036601843</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4580,8 +4902,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="51">
-        <v>0.1500571724585605</v>
+      <c r="F37" s="102">
+        <v>3.462995388394147</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4600,7 +4922,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="77">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -4620,7 +4942,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="78">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -4640,7 +4962,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="79">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -4660,8 +4982,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="60">
-        <v>33.92157739486524</v>
+      <c r="F41" s="105">
+        <v>91.05292679505567</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4680,8 +5002,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="50">
-        <v>71.2750733561096</v>
+      <c r="F42" s="106">
+        <v>321.5262058651348</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4700,8 +5022,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="61">
-        <v>56.05545046388953</v>
+      <c r="F43" s="107">
+        <v>536.1615916173696</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4720,8 +5042,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="51">
-        <v>1.172271354296421</v>
+      <c r="F44" s="94">
+        <v>21.14379388521164</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4740,8 +5062,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="51">
-        <v>3.189691974707481</v>
+      <c r="F45" s="95">
+        <v>65.82631989830935</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4760,8 +5082,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="51">
-        <v>5.518297089959466</v>
+      <c r="F46" s="83">
+        <v>44.18782887180122</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4780,8 +5102,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="51">
-        <v>0</v>
+      <c r="F47" s="94">
+        <v>23.44644400454487</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4800,8 +5122,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="51">
-        <v>0</v>
+      <c r="F48" s="91">
+        <v>86.24062205008727</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4820,8 +5142,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="51">
-        <v>0.3599318234696518</v>
+      <c r="F49" s="86">
+        <v>52.81883861675564</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4840,8 +5162,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="62">
-        <v>130.5635813865584</v>
+      <c r="F50" s="108">
+        <v>130.5635813865583</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4860,7 +5182,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="81">
         <v>459.4908617846568</v>
       </c>
     </row>
@@ -4880,8 +5202,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="64">
-        <v>583.2422931874853</v>
+      <c r="F52" s="109">
+        <v>583.2422931874851</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4900,8 +5222,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="52">
-        <v>17.37834277799846</v>
+      <c r="F53" s="83">
+        <v>49.56131869794132</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4920,8 +5242,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="48">
-        <v>49.35413348428072</v>
+      <c r="F54" s="110">
+        <v>213.6944929801791</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4940,8 +5262,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="65">
-        <v>39.51221584702273</v>
+      <c r="F55" s="103">
+        <v>178.0814745941907</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4960,8 +5282,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="51">
-        <v>0.4273792104589046</v>
+      <c r="F56" s="99">
+        <v>6.756301976429436</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4980,8 +5302,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="51">
-        <v>1.710847809862805</v>
+      <c r="F57" s="111">
+        <v>42.51319236584933</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5000,8 +5322,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="51">
-        <v>3.68705546421259</v>
+      <c r="F58" s="96">
+        <v>26.73443233736913</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5020,8 +5342,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="51">
-        <v>0</v>
+      <c r="F59" s="99">
+        <v>6.903209387678077</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5040,8 +5362,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="51">
-        <v>0</v>
+      <c r="F60" s="86">
+        <v>54.97147660664991</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5060,8 +5382,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="51">
-        <v>0.319198732826391</v>
+      <c r="F61" s="96">
+        <v>29.86728322668818</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5080,7 +5402,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="51">
+      <c r="F62" s="102">
         <v>0.1178186833649647</v>
       </c>
     </row>
@@ -5100,7 +5422,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="62">
+      <c r="F63" s="108">
         <v>127.5892090831109</v>
       </c>
     </row>
@@ -5120,8 +5442,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="57">
-        <v>51.35203405575294</v>
+      <c r="F64" s="86">
+        <v>51.35203405575305</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5140,8 +5462,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="51">
-        <v>0.1178177020944756</v>
+      <c r="F65" s="102">
+        <v>0.1178186519249901</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5160,8 +5482,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="52">
-        <v>8.892161596421589</v>
+      <c r="F66" s="86">
+        <v>52.2063639349315</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5180,8 +5502,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="51">
-        <v>1.490532331558613</v>
+      <c r="F67" s="99">
+        <v>8.545459160627047</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5200,8 +5522,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="51">
-        <v>0.1090910646711687</v>
+      <c r="F68" s="102">
+        <v>0.1175390498553906</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5220,8 +5542,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="51">
-        <v>0.3365625140071203</v>
+      <c r="F69" s="102">
+        <v>0.3450104991913423</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5240,8 +5562,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="51">
-        <v>1.267902199329418</v>
+      <c r="F70" s="102">
+        <v>1.449974475261339</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5260,8 +5582,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="51">
-        <v>0</v>
+      <c r="F71" s="102">
+        <v>0.09085353363962542</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5280,8 +5602,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="51">
-        <v>0</v>
+      <c r="F72" s="102">
+        <v>0.3183249829755772</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5300,8 +5622,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="51">
-        <v>0.1680811958081707</v>
+      <c r="F73" s="102">
+        <v>1.267180118981133</v>
       </c>
     </row>
   </sheetData>
@@ -5350,8 +5672,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66">
-        <v>2682711.463207951</v>
+      <c r="F2" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5370,8 +5692,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="66">
-        <v>2682711.463207951</v>
+      <c r="F3" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5390,8 +5712,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="66">
-        <v>2682711.463207951</v>
+      <c r="F4" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5410,8 +5732,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="66">
-        <v>2682711.463207951</v>
+      <c r="F5" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5430,8 +5752,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="66">
-        <v>2682711.463207951</v>
+      <c r="F6" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5450,8 +5772,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="66">
-        <v>2682711.463207951</v>
+      <c r="F7" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5470,8 +5792,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="66">
-        <v>2682711.463207951</v>
+      <c r="F8" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5490,8 +5812,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="66">
-        <v>2682711.463207951</v>
+      <c r="F9" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5510,8 +5832,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="66">
-        <v>2682711.463207951</v>
+      <c r="F10" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5530,8 +5852,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="66">
-        <v>2682711.463207951</v>
+      <c r="F11" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5550,8 +5872,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="66">
-        <v>2682711.463207951</v>
+      <c r="F12" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5570,8 +5892,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="66">
-        <v>2682711.463207951</v>
+      <c r="F13" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5590,8 +5912,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="66">
-        <v>2682711.463207951</v>
+      <c r="F14" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5610,8 +5932,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="66">
-        <v>2682711.463207951</v>
+      <c r="F15" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5630,8 +5952,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="66">
-        <v>2682711.463207951</v>
+      <c r="F16" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5650,8 +5972,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="66">
-        <v>2682711.463207951</v>
+      <c r="F17" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5670,8 +5992,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="66">
-        <v>2682711.463207951</v>
+      <c r="F18" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5690,8 +6012,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="66">
-        <v>2682711.463207951</v>
+      <c r="F19" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5710,8 +6032,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="66">
-        <v>2682711.463207951</v>
+      <c r="F20" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5730,8 +6052,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="66">
-        <v>2682711.463207951</v>
+      <c r="F21" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5750,8 +6072,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="66">
-        <v>2682711.463207951</v>
+      <c r="F22" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5770,8 +6092,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="66">
-        <v>2682711.463207951</v>
+      <c r="F23" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5790,8 +6112,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="66">
-        <v>2682711.463207951</v>
+      <c r="F24" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5810,8 +6132,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="66">
-        <v>2682711.463207951</v>
+      <c r="F25" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5830,8 +6152,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="66">
-        <v>2682711.463207951</v>
+      <c r="F26" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5850,8 +6172,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="66">
-        <v>2682711.463207951</v>
+      <c r="F27" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5870,8 +6192,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="66">
-        <v>2682711.463207951</v>
+      <c r="F28" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5890,8 +6212,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="66">
-        <v>2682711.463207951</v>
+      <c r="F29" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5910,8 +6232,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="66">
-        <v>2682711.463207951</v>
+      <c r="F30" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5930,8 +6252,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="66">
-        <v>2682711.463207951</v>
+      <c r="F31" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5950,8 +6272,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="66">
-        <v>2682711.463207951</v>
+      <c r="F32" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5970,8 +6292,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="66">
-        <v>2682711.463207951</v>
+      <c r="F33" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5990,8 +6312,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="66">
-        <v>2682711.463207951</v>
+      <c r="F34" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6010,8 +6332,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="66">
-        <v>2682711.463207951</v>
+      <c r="F35" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6030,8 +6352,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="66">
-        <v>2682711.463207951</v>
+      <c r="F36" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6050,8 +6372,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="66">
-        <v>2682711.463207951</v>
+      <c r="F37" s="112">
+        <v>2682711.463207952</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6070,8 +6392,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="67">
-        <v>3303079.964256136</v>
+      <c r="F38" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6090,8 +6412,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="67">
-        <v>3303079.964256136</v>
+      <c r="F39" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6110,8 +6432,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="67">
-        <v>3303079.964256136</v>
+      <c r="F40" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6130,8 +6452,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="67">
-        <v>3303079.964256136</v>
+      <c r="F41" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6150,8 +6472,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="67">
-        <v>3303079.964256136</v>
+      <c r="F42" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6170,8 +6492,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="67">
-        <v>3303079.964256136</v>
+      <c r="F43" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6190,8 +6512,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="67">
-        <v>3303079.964256136</v>
+      <c r="F44" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6210,8 +6532,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="67">
-        <v>3303079.964256136</v>
+      <c r="F45" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6230,8 +6552,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="67">
-        <v>3303079.964256136</v>
+      <c r="F46" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6250,8 +6572,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="67">
-        <v>3303079.964256136</v>
+      <c r="F47" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6270,8 +6592,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="67">
-        <v>3303079.964256136</v>
+      <c r="F48" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6290,8 +6612,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="67">
-        <v>3303079.964256136</v>
+      <c r="F49" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6310,8 +6632,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="67">
-        <v>3303079.964256136</v>
+      <c r="F50" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6330,8 +6652,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="67">
-        <v>3303079.964256136</v>
+      <c r="F51" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6350,8 +6672,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="67">
-        <v>3303079.964256136</v>
+      <c r="F52" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6370,8 +6692,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="67">
-        <v>3303079.964256136</v>
+      <c r="F53" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6390,8 +6712,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="67">
-        <v>3303079.964256136</v>
+      <c r="F54" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6410,8 +6732,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="67">
-        <v>3303079.964256136</v>
+      <c r="F55" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6430,8 +6752,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="67">
-        <v>3303079.964256136</v>
+      <c r="F56" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6450,8 +6772,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="67">
-        <v>3303079.964256136</v>
+      <c r="F57" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6470,8 +6792,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="67">
-        <v>3303079.964256136</v>
+      <c r="F58" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6490,8 +6812,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="67">
-        <v>3303079.964256136</v>
+      <c r="F59" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6510,8 +6832,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="67">
-        <v>3303079.964256136</v>
+      <c r="F60" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6530,8 +6852,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="67">
-        <v>3303079.964256136</v>
+      <c r="F61" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6550,8 +6872,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="67">
-        <v>3303079.964256136</v>
+      <c r="F62" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6570,8 +6892,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="67">
-        <v>3303079.964256136</v>
+      <c r="F63" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6590,8 +6912,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="67">
-        <v>3303079.964256136</v>
+      <c r="F64" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6610,8 +6932,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="67">
-        <v>3303079.964256136</v>
+      <c r="F65" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6630,8 +6952,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="67">
-        <v>3303079.964256136</v>
+      <c r="F66" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6650,8 +6972,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="67">
-        <v>3303079.964256136</v>
+      <c r="F67" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6670,8 +6992,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="67">
-        <v>3303079.964256136</v>
+      <c r="F68" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6690,8 +7012,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="67">
-        <v>3303079.964256136</v>
+      <c r="F69" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6710,8 +7032,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="67">
-        <v>3303079.964256136</v>
+      <c r="F70" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6730,8 +7052,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="67">
-        <v>3303079.964256136</v>
+      <c r="F71" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6750,8 +7072,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="67">
-        <v>3303079.964256136</v>
+      <c r="F72" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6770,8 +7092,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="67">
-        <v>3303079.964256136</v>
+      <c r="F73" s="113">
+        <v>3303079.964256137</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -820,8 +820,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -829,8 +829,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -838,27 +838,27 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -872,8 +872,8 @@
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -881,12 +881,12 @@
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1323,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>483.12078453503</v>
+        <v>483.1207845350301</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>923.1831725841055</v>
+        <v>923.1831725841057</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>1152.751003947368</v>
+        <v>1152.751003947369</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1583,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>977.8659786286419</v>
+        <v>977.8659786286421</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1623,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="16">
-        <v>627.2015891316861</v>
+        <v>627.2015891316862</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1863,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="24">
-        <v>644.9321684842531</v>
+        <v>644.9321684842532</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="26">
-        <v>2027.849145965239</v>
+        <v>2027.849145965238</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="27">
-        <v>639.4866324486115</v>
+        <v>639.4866324486113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="26">
-        <v>2029.720920787313</v>
+        <v>2029.720920787312</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2063,7 +2063,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="30">
-        <v>1117.765513126117</v>
+        <v>1117.765513126118</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2103,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="27">
-        <v>641.1266007144516</v>
+        <v>641.1266007144515</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2123,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="32">
-        <v>1480.185886249178</v>
+        <v>1480.185886249179</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="27">
-        <v>637.9581645781425</v>
+        <v>637.9581645781423</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="10">
-        <v>578.6995966935914</v>
+        <v>578.699596693591</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2363,7 +2363,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="39">
-        <v>1499.453134140224</v>
+        <v>1499.453134140225</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2403,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="38">
-        <v>651.7108701284687</v>
+        <v>651.7108701284689</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2443,7 +2443,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="41">
-        <v>2057.710104037031</v>
+        <v>2057.71010403703</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2523,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="42">
-        <v>619.8700563430664</v>
+        <v>619.8700563430662</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2543,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="43">
-        <v>1263.869862652072</v>
+        <v>1263.869862652073</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2583,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="38">
-        <v>659.0796714290118</v>
+        <v>659.0796714290116</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="38">
-        <v>657.2982506168862</v>
+        <v>657.298250616886</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2973,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="48">
-        <v>616.2619429148439</v>
+        <v>616.2619429148438</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2993,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="49">
-        <v>1075.808909626445</v>
+        <v>1075.808909626444</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3013,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="50">
-        <v>1319.070738412529</v>
+        <v>1319.070738412528</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3033,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="51">
-        <v>68.62344430462659</v>
+        <v>68.62344430462662</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3073,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="53">
-        <v>364.4666266399108</v>
+        <v>364.4666266399109</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3113,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="51">
-        <v>60.37855996830722</v>
+        <v>60.37855996830721</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3133,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="55">
-        <v>53.87988420038165</v>
+        <v>53.87988420038161</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3153,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="54">
-        <v>33.12524638344903</v>
+        <v>33.12524638344904</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3173,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="55">
-        <v>53.49084226871565</v>
+        <v>53.49084226871564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3193,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="55">
-        <v>50.99647979473985</v>
+        <v>50.99647979473984</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3333,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="51">
-        <v>58.28292627013489</v>
+        <v>58.2829262701349</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3373,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="62">
-        <v>173.1823420834153</v>
+        <v>173.1823420834154</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3393,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="63">
-        <v>70.56254658121432</v>
+        <v>70.56254658121431</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3433,7 +3433,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="62">
-        <v>168.6425823170192</v>
+        <v>168.6425823170193</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3693,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="64">
-        <v>759.2297272366443</v>
+        <v>759.2297272366442</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3833,7 +3833,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="54">
-        <v>27.72313477612434</v>
+        <v>27.72313477612435</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3853,7 +3853,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="69">
-        <v>20.24594606881279</v>
+        <v>20.24594606881278</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3873,7 +3873,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="69">
-        <v>19.23173885121909</v>
+        <v>19.2317388512191</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="74">
-        <v>1276.88334455429</v>
+        <v>1276.883344554291</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4053,7 +4053,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="69">
-        <v>25.55812244389284</v>
+        <v>25.55812244389283</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4073,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="75">
-        <v>85.04682687406506</v>
+        <v>85.04682687406503</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="54">
-        <v>29.69897916076388</v>
+        <v>29.69897916076389</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4133,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="76">
-        <v>106.2937780279886</v>
+        <v>106.2937780279885</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4283,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="81">
-        <v>454.3618084992925</v>
+        <v>454.3618084992924</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4503,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="91">
-        <v>84.82386276273837</v>
+        <v>84.82386276273839</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4643,7 +4643,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="97">
-        <v>153.4042032650071</v>
+        <v>153.4042032650072</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4703,7 +4703,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="100">
-        <v>287.2318664885297</v>
+        <v>287.2318664885298</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4723,7 +4723,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="101">
-        <v>328.3449640089808</v>
+        <v>328.3449640089807</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4743,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="102">
-        <v>2.324118779117084</v>
+        <v>2.32411877911707</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4823,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="104">
-        <v>36.96416854849968</v>
+        <v>36.96416854849969</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4883,7 +4883,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="86">
-        <v>51.42141036601843</v>
+        <v>51.42141036601842</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5023,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="107">
-        <v>536.1615916173696</v>
+        <v>536.1615916173694</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5043,7 +5043,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="94">
-        <v>21.14379388521164</v>
+        <v>21.14379388521163</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5143,7 +5143,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="86">
-        <v>52.81883861675564</v>
+        <v>52.81883861675566</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5163,7 +5163,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="108">
-        <v>130.5635813865583</v>
+        <v>130.5635813865584</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5203,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="109">
-        <v>583.2422931874851</v>
+        <v>583.2422931874853</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5303,7 +5303,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="111">
-        <v>42.51319236584933</v>
+        <v>42.51319236584932</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5323,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="96">
-        <v>26.73443233736913</v>
+        <v>26.73443233736914</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5343,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="99">
-        <v>6.903209387678077</v>
+        <v>6.903209387678072</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5363,7 +5363,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="86">
-        <v>54.97147660664991</v>
+        <v>54.9714766066499</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5383,7 +5383,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="96">
-        <v>29.86728322668818</v>
+        <v>29.86728322668819</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5443,7 +5443,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="86">
-        <v>51.35203405575305</v>
+        <v>51.35203405575294</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5483,7 +5483,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="86">
-        <v>52.2063639349315</v>
+        <v>52.20636393493147</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5503,7 +5503,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="99">
-        <v>8.545459160627047</v>
+        <v>8.545459160627033</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5673,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5693,7 +5693,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5713,7 +5713,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5733,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5753,7 +5753,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5773,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5793,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5813,7 +5813,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5833,7 +5833,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5853,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5873,7 +5873,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5893,7 +5893,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5913,7 +5913,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5933,7 +5933,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5953,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5973,7 +5973,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5993,7 +5993,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6013,7 +6013,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6033,7 +6033,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6053,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6073,7 +6073,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6093,7 +6093,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6113,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6133,7 +6133,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6153,7 +6153,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6173,7 +6173,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6193,7 +6193,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6213,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6233,7 +6233,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6253,7 +6253,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6273,7 +6273,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6293,7 +6293,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6313,7 +6313,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6333,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6353,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6373,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="112">
-        <v>2682711.463207952</v>
+        <v>2682711.463207951</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6393,7 +6393,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6413,7 +6413,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6433,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6453,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6473,7 +6473,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6493,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6513,7 +6513,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6533,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6553,7 +6553,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6573,7 +6573,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6593,7 +6593,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6613,7 +6613,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6633,7 +6633,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6653,7 +6653,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6693,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6713,7 +6713,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6733,7 +6733,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6753,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6773,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6793,7 +6793,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6813,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6833,7 +6833,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6853,7 +6853,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6873,7 +6873,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6893,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6913,7 +6913,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6933,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6953,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6973,7 +6973,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6993,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7013,7 +7013,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7033,7 +7033,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7053,7 +7053,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7073,7 +7073,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7093,7 +7093,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="113">
-        <v>3303079.964256137</v>
+        <v>3303079.964256136</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="113">
+  <fills count="118">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,19 +126,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB9B9F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8686F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6B6BFA"/>
+        <fgColor rgb="FFBABAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8888F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D6DF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAEF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6262FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1919FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACACF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A5AFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8181F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6565FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,49 +204,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5959FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D0DFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADADF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B5BFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1010FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5B5F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7FF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6464FA"/>
+        <fgColor rgb="FF5E5EFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1414FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5757FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B0BFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFAFF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7878F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,43 +252,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5454FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C0CFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7A7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D4DFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0606FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7171F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5555FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0A0AFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5757FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C0CFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEAEF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7676F9"/>
+        <fgColor rgb="FF4C4CFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0707FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4949FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0505FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6969FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5151FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,43 +336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4B4BFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0606FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7A7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4D4DFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6F6FF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5252FB"/>
+        <fgColor rgb="FF0404FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,73 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0404FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4949FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0505FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6767FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F4FFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4343FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0202FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0303FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA9A9F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5E5EFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3F3FFC"/>
+        <fgColor rgb="FF5F5FFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4242FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,30 +414,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE7F1E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3EFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3E7D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE8F2E8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,36 +468,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDECDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E3C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94C994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBEBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDEEDDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCAE3CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94C994"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE0EEDF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB9DBB9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,7 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBDCBB"/>
+        <fgColor rgb="FFBCDCBC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,30 +570,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCE4CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF96C996"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE4F0E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC8E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92C892"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF7D8A2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,7 +606,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADB"/>
+        <fgColor rgb="FFF4EADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DAA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D089"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E5CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E8D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E7D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E8D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D69A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CA76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DEB6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E3C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D69C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,181 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8D18A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E7D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D69A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3ECE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DFB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DBAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E3C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4ECE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D79E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF7D597"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E6CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE9"/>
+        <fgColor rgb="FFF5E6CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -844,7 +874,7 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -855,14 +885,14 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -872,27 +902,27 @@
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -928,7 +958,12 @@
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>483.1207845350301</v>
+        <v>474.4029034397092</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>923.1831725841057</v>
+        <v>906.5438560850721</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1363,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>1152.751003947369</v>
+        <v>1132.179091506727</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1383,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>605.8979066706646</v>
+        <v>576.4035835196676</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1403,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>1317.249133481703</v>
+        <v>1230.325051803228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1423,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>1965.52415509424</v>
+        <v>1867.739527406279</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1443,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10">
-        <v>594.3782323951318</v>
+        <v>594.3782324942863</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1463,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="11">
-        <v>1301.879148750203</v>
+        <v>1301.879148857448</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1483,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12">
-        <v>1943.557311694308</v>
+        <v>1943.557311801553</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1563,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <v>516.7393436324022</v>
+        <v>511.4633194868453</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1583,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>977.8659786286421</v>
+        <v>961.3267163932668</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1603,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>1216.650628157832</v>
+        <v>1203.733312454611</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1623,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="16">
-        <v>627.2015891316862</v>
+        <v>603.2723561704601</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1643,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="17">
-        <v>1350.567597398343</v>
+        <v>1267.354175856447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1663,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>1993.216796156673</v>
+        <v>1907.326567745497</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1683,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="19">
-        <v>615.9845044264446</v>
+        <v>615.9845045393731</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1703,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="20">
-        <v>1331.708582166876</v>
+        <v>1331.708582232373</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1723,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="21">
-        <v>1975.277432470191</v>
+        <v>1975.277432577436</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1803,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="22">
-        <v>570.2340431172195</v>
+        <v>567.2035612788743</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1823,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="23">
-        <v>1062.9119307393</v>
+        <v>1047.780414282606</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1843,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="15">
-        <v>1216.650628157832</v>
+        <v>1203.733312454611</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1863,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="24">
-        <v>644.9321684842532</v>
+        <v>632.66453185662</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1883,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="25">
-        <v>1426.160769060212</v>
+        <v>1353.906433908002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1903,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="26">
-        <v>2027.849145965238</v>
+        <v>1971.31594838937</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1923,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="27">
-        <v>639.4866324486113</v>
+        <v>639.4866324788121</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1943,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="28">
-        <v>1409.052977442889</v>
+        <v>1409.052977523679</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1962,8 +1997,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="26">
-        <v>2029.720920787312</v>
+      <c r="F37" s="29">
+        <v>2029.720920810875</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2042,8 +2077,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="29">
-        <v>544.1390201710497</v>
+      <c r="F41" s="7">
+        <v>569.7767207682507</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2063,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="30">
-        <v>1117.765513126118</v>
+        <v>1097.53140582985</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2083,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="31">
-        <v>1369.900126978853</v>
+        <v>1344.76219057161</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2102,8 +2137,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="27">
-        <v>641.1266007144515</v>
+      <c r="F44" s="24">
+        <v>628.7780890456836</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2123,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="32">
-        <v>1480.185886249179</v>
+        <v>1416.951425456558</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2143,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="33">
-        <v>2049.674743127431</v>
+        <v>2022.306845507773</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2163,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="27">
-        <v>637.9581645781423</v>
+        <v>637.9581645773976</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2183,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="34">
-        <v>1452.185526283143</v>
+        <v>1452.185526543575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2203,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="35">
-        <v>2037.810921743861</v>
+        <v>2037.810921858353</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2282,8 +2317,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="10">
-        <v>578.699596693591</v>
+      <c r="F53" s="16">
+        <v>606.1842797503461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2303,7 +2338,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="36">
-        <v>1193.718513582891</v>
+        <v>1175.584615574035</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2323,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="37">
-        <v>1394.001501279783</v>
+        <v>1376.053971277621</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2343,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="38">
-        <v>653.4724117453472</v>
+        <v>645.8333098790795</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2362,8 +2397,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="39">
-        <v>1499.453134140225</v>
+      <c r="F57" s="34">
+        <v>1451.105239772088</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2382,8 +2417,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="40">
-        <v>2064.334238553281</v>
+      <c r="F58" s="39">
+        <v>2045.289377015126</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2402,8 +2437,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="38">
-        <v>651.7108701284689</v>
+      <c r="F59" s="40">
+        <v>651.7108701656134</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2422,8 +2457,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="32">
-        <v>1478.927633176474</v>
+      <c r="F60" s="41">
+        <v>1478.927633436907</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2442,8 +2477,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="41">
-        <v>2057.71010403703</v>
+      <c r="F61" s="42">
+        <v>2057.710104151522</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2522,8 +2557,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="42">
-        <v>619.8700563430662</v>
+      <c r="F65" s="43">
+        <v>625.0619465806465</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2542,8 +2577,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="43">
-        <v>1263.869862652073</v>
+      <c r="F66" s="44">
+        <v>1256.099166413514</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2563,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="37">
-        <v>1394.001501279783</v>
+        <v>1376.053971277621</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2582,8 +2617,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="38">
-        <v>659.0796714290116</v>
+      <c r="F68" s="40">
+        <v>654.1034336650072</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2602,8 +2637,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
-        <v>1534.149384223912</v>
+      <c r="F69" s="45">
+        <v>1507.683624605957</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2622,8 +2657,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="45">
-        <v>2084.522286770332</v>
+      <c r="F70" s="46">
+        <v>2073.189731082388</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2642,8 +2677,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="38">
-        <v>657.298250616886</v>
+      <c r="F71" s="40">
+        <v>657.2982506306657</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2662,8 +2697,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="46">
-        <v>1524.821920266571</v>
+      <c r="F72" s="47">
+        <v>1524.821920355353</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2682,8 +2717,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="45">
-        <v>2080.323524544172</v>
+      <c r="F73" s="46">
+        <v>2080.323524600145</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2767,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +2787,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2772,7 +2807,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2792,7 +2827,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2812,7 +2847,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2832,7 +2867,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2887,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2872,7 +2907,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2892,7 +2927,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2912,7 +2947,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2932,7 +2967,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2952,7 +2987,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="48">
         <v>0</v>
       </c>
     </row>
@@ -2972,7 +3007,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="49">
         <v>616.2619429148438</v>
       </c>
     </row>
@@ -2992,7 +3027,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <v>1075.808909626444</v>
       </c>
     </row>
@@ -3012,7 +3047,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="51">
         <v>1319.070738412528</v>
       </c>
     </row>
@@ -3032,8 +3067,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51">
-        <v>68.62344430462662</v>
+      <c r="F17" s="52">
+        <v>73.02222644975259</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3052,8 +3087,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="52">
-        <v>123.382203195936</v>
+      <c r="F18" s="53">
+        <v>125.7862361509206</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3072,8 +3107,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="53">
-        <v>364.4666266399109</v>
+      <c r="F19" s="54">
+        <v>354.5232269418087</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3092,8 +3127,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="54">
-        <v>31.4492424985207</v>
+      <c r="F20" s="55">
+        <v>40.63500153130117</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3112,8 +3147,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="51">
-        <v>60.37855996830721</v>
+      <c r="F21" s="56">
+        <v>63.44160165559349</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3132,8 +3167,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="55">
-        <v>53.87988420038161</v>
+      <c r="F22" s="52">
+        <v>75.94719677631051</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3152,8 +3187,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="54">
-        <v>33.12524638344904</v>
+      <c r="F23" s="55">
+        <v>33.12524635506448</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3172,8 +3207,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="55">
-        <v>53.49084226871564</v>
+      <c r="F24" s="57">
+        <v>53.49084234101774</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3192,7 +3227,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="57">
         <v>50.99647979473984</v>
       </c>
     </row>
@@ -3212,7 +3247,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="58">
         <v>1147.271624831435</v>
       </c>
     </row>
@@ -3232,7 +3267,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="59">
         <v>1953.1432449587</v>
       </c>
     </row>
@@ -3252,7 +3287,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="60">
         <v>2738.730225682273</v>
       </c>
     </row>
@@ -3272,8 +3307,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="59">
-        <v>203.1680193021543</v>
+      <c r="F29" s="61">
+        <v>212.5304528868173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3292,8 +3327,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="60">
-        <v>495.1232989097524</v>
+      <c r="F30" s="62">
+        <v>506.4743605609118</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3312,8 +3347,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="61">
-        <v>1306.653953097716</v>
+      <c r="F31" s="63">
+        <v>1301.645092622711</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3332,8 +3367,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="51">
-        <v>58.2829262701349</v>
+      <c r="F32" s="64">
+        <v>86.10815840304463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3352,8 +3387,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="59">
-        <v>204.8798529795227</v>
+      <c r="F33" s="65">
+        <v>241.2911215602028</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3372,8 +3407,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="62">
-        <v>173.1823420834154</v>
+      <c r="F34" s="66">
+        <v>260.1271726717603</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3392,8 +3427,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="63">
-        <v>70.56254658121431</v>
+      <c r="F35" s="52">
+        <v>70.56254650320392</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3412,8 +3447,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="59">
-        <v>199.8002246283588</v>
+      <c r="F36" s="67">
+        <v>199.8002247574227</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3432,8 +3467,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="62">
-        <v>168.6425823170193</v>
+      <c r="F37" s="68">
+        <v>168.6425823725728</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3452,7 +3487,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3472,7 +3507,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3492,7 +3527,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3512,7 +3547,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3532,7 +3567,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3552,7 +3587,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3607,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3592,7 +3627,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3612,7 +3647,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +3667,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3652,7 +3687,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3707,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3692,7 +3727,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="69">
         <v>759.2297272366442</v>
       </c>
     </row>
@@ -3712,7 +3747,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="70">
         <v>1354.448307248184</v>
       </c>
     </row>
@@ -3732,7 +3767,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="71">
         <v>1873.781221153102</v>
       </c>
     </row>
@@ -3752,8 +3787,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="55">
-        <v>47.97742029878688</v>
+      <c r="F53" s="56">
+        <v>55.66978214092804</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3772,8 +3807,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="67">
-        <v>139.3228605696621</v>
+      <c r="F54" s="72">
+        <v>147.5557770117394</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3792,8 +3827,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="68">
-        <v>726.9746725108813</v>
+      <c r="F55" s="73">
+        <v>717.7545896487301</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3812,8 +3847,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="69">
-        <v>16.08545935837178</v>
+      <c r="F56" s="74">
+        <v>22.84348526251698</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3832,8 +3867,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="54">
-        <v>27.72313477612435</v>
+      <c r="F57" s="57">
+        <v>47.87410995276102</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3852,8 +3887,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="69">
-        <v>20.24594606881278</v>
+      <c r="F58" s="55">
+        <v>31.8048175592814</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3872,8 +3907,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="69">
-        <v>19.2317388512191</v>
+      <c r="F59" s="74">
+        <v>19.23173876735697</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3892,7 +3927,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="54">
+      <c r="F60" s="55">
         <v>35.0814098334927</v>
       </c>
     </row>
@@ -3912,7 +3947,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="69">
+      <c r="F61" s="74">
         <v>25.29289472196106</v>
       </c>
     </row>
@@ -3932,7 +3967,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F62" s="75">
         <v>1197.134754443719</v>
       </c>
     </row>
@@ -3952,7 +3987,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="76">
         <v>2417.958950560746</v>
       </c>
     </row>
@@ -3972,7 +4007,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="72">
+      <c r="F64" s="77">
         <v>3538.613576294043</v>
       </c>
     </row>
@@ -3992,8 +4027,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="52">
-        <v>114.5834803005756</v>
+      <c r="F65" s="78">
+        <v>100.2802419147501</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4012,8 +4047,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="73">
-        <v>457.5275225094762</v>
+      <c r="F66" s="79">
+        <v>529.2058943638125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4032,8 +4067,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="74">
-        <v>1276.883344554291</v>
+      <c r="F67" s="80">
+        <v>1334.634825281704</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4052,8 +4087,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="69">
-        <v>25.55812244389283</v>
+      <c r="F68" s="55">
+        <v>36.92475364368187</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4072,8 +4107,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="75">
-        <v>85.04682687406503</v>
+      <c r="F69" s="72">
+        <v>139.8809094746801</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4092,8 +4127,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="51">
-        <v>55.87992085895756</v>
+      <c r="F70" s="52">
+        <v>82.0748808079145</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4112,8 +4147,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="54">
-        <v>29.69897916076389</v>
+      <c r="F71" s="55">
+        <v>29.6989791070048</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4132,8 +4167,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="76">
-        <v>106.2937780279885</v>
+      <c r="F72" s="78">
+        <v>106.2937778014817</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4152,8 +4187,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="51">
-        <v>65.99310399251166</v>
+      <c r="F73" s="56">
+        <v>65.9931038156725</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4237,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="81">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -4222,7 +4257,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="82">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -4242,7 +4277,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="83">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -4262,8 +4297,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="80">
-        <v>134.3053731443071</v>
+      <c r="F5" s="84">
+        <v>139.8482317295895</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4282,8 +4317,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="81">
-        <v>454.3618084992924</v>
+      <c r="F6" s="85">
+        <v>465.1694006900454</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4302,8 +4337,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="82">
-        <v>667.3249808243377</v>
+      <c r="F7" s="86">
+        <v>680.6165357998716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4322,8 +4357,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="83">
-        <v>46.38043355645637</v>
+      <c r="F8" s="87">
+        <v>67.68128237873438</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4342,8 +4377,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="84">
-        <v>182.4978379949073</v>
+      <c r="F9" s="88">
+        <v>244.4740677669433</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4362,8 +4397,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="85">
-        <v>104.1655418559661</v>
+      <c r="F10" s="89">
+        <v>173.1269023092481</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4382,8 +4417,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="86">
-        <v>54.78436092290551</v>
+      <c r="F11" s="90">
+        <v>54.78436084931974</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4402,8 +4437,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="87">
-        <v>194.1929445856546</v>
+      <c r="F12" s="91">
+        <v>194.1929445057847</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4422,8 +4457,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="88">
-        <v>120.411246992468</v>
+      <c r="F13" s="92">
+        <v>120.4112469125981</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4442,7 +4477,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="93">
         <v>183.7625431282737</v>
       </c>
     </row>
@@ -4462,7 +4497,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="94">
         <v>564.8558930484317</v>
       </c>
     </row>
@@ -4482,7 +4517,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="95">
         <v>803.5661598844738</v>
       </c>
     </row>
@@ -4502,8 +4537,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="91">
-        <v>84.82386276273839</v>
+      <c r="F17" s="96">
+        <v>86.30656099333278</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4522,8 +4557,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="92">
-        <v>367.4292698011744</v>
+      <c r="F18" s="97">
+        <v>377.1108976102956</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4542,8 +4577,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="93">
-        <v>452.9940195118803</v>
+      <c r="F19" s="85">
+        <v>465.9419955552864</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4562,8 +4597,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="94">
-        <v>20.28153675045895</v>
+      <c r="F20" s="98">
+        <v>34.26522879975045</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4582,8 +4617,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="80">
-        <v>136.8393397935809</v>
+      <c r="F21" s="91">
+        <v>194.9925573853746</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4602,8 +4637,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="95">
-        <v>65.0308742471066</v>
+      <c r="F22" s="99">
+        <v>116.6602612464334</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4622,8 +4657,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="96">
-        <v>27.71744338716682</v>
+      <c r="F23" s="100">
+        <v>27.71744331358105</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4642,8 +4677,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="97">
-        <v>153.4042032650072</v>
+      <c r="F24" s="101">
+        <v>153.4042031851373</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4662,8 +4697,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="98">
-        <v>79.62250567182066</v>
+      <c r="F25" s="102">
+        <v>79.62250559195077</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4682,7 +4717,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="99">
+      <c r="F26" s="103">
         <v>17.03713432198739</v>
       </c>
     </row>
@@ -4702,7 +4737,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="100">
+      <c r="F27" s="104">
         <v>287.2318664885298</v>
       </c>
     </row>
@@ -4722,7 +4757,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="101">
+      <c r="F28" s="105">
         <v>328.3449640089807</v>
       </c>
     </row>
@@ -4742,8 +4777,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="102">
-        <v>2.32411877911707</v>
+      <c r="F29" s="106">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4762,8 +4797,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="103">
-        <v>176.0546189652882</v>
+      <c r="F30" s="93">
+        <v>181.9641651829144</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4782,8 +4817,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="80">
-        <v>134.8578475370718</v>
+      <c r="F31" s="107">
+        <v>145.7385204480468</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4802,7 +4837,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="106">
         <v>0</v>
       </c>
     </row>
@@ -4822,8 +4857,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="104">
-        <v>36.96416854849969</v>
+      <c r="F33" s="102">
+        <v>74.73892561325249</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4842,8 +4877,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="102">
-        <v>0.8768219189023396</v>
+      <c r="F34" s="103">
+        <v>9.091083355413309</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4862,7 +4897,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="102">
+      <c r="F35" s="106">
         <v>0</v>
       </c>
     </row>
@@ -4882,8 +4917,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="86">
-        <v>51.42141036601842</v>
+      <c r="F36" s="90">
+        <v>51.42141025832059</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4902,8 +4937,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="102">
-        <v>3.462995388394147</v>
+      <c r="F37" s="106">
+        <v>3.462995346219572</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4922,7 +4957,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="77">
+      <c r="F38" s="81">
         <v>515.7983333314282</v>
       </c>
     </row>
@@ -4942,7 +4977,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="82">
         <v>1203.150497316135</v>
       </c>
     </row>
@@ -4962,7 +4997,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="83">
         <v>1592.544718744919</v>
       </c>
     </row>
@@ -4982,8 +5017,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="105">
-        <v>91.05292679505567</v>
+      <c r="F41" s="108">
+        <v>72.31241386536003</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5002,8 +5037,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="106">
-        <v>321.5262058651348</v>
+      <c r="F42" s="109">
+        <v>334.3886677849438</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5022,8 +5057,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="107">
-        <v>536.1615916173694</v>
+      <c r="F43" s="110">
+        <v>550.2836664962356</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5042,8 +5077,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="94">
-        <v>21.14379388521163</v>
+      <c r="F44" s="100">
+        <v>29.95721592277759</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5062,8 +5097,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="95">
-        <v>65.82631989830935</v>
+      <c r="F45" s="111">
+        <v>111.5081460532446</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5082,8 +5117,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="83">
-        <v>44.18782887180122</v>
+      <c r="F46" s="87">
+        <v>63.87691076056639</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5102,8 +5137,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="94">
-        <v>23.44644400454487</v>
+      <c r="F47" s="112">
+        <v>23.44644400286136</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5122,8 +5157,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="91">
-        <v>86.24062205008727</v>
+      <c r="F48" s="96">
+        <v>86.24062185797608</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5142,8 +5177,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="86">
-        <v>52.81883861675566</v>
+      <c r="F49" s="90">
+        <v>52.81883853121003</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5162,7 +5197,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="108">
+      <c r="F50" s="113">
         <v>130.5635813865584</v>
       </c>
     </row>
@@ -5182,7 +5217,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="114">
         <v>459.4908617846568</v>
       </c>
     </row>
@@ -5202,7 +5237,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="109">
+      <c r="F52" s="115">
         <v>583.2422931874853</v>
       </c>
     </row>
@@ -5222,8 +5257,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="83">
-        <v>49.56131869794132</v>
+      <c r="F53" s="100">
+        <v>26.59120556282283</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5242,8 +5277,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="110">
-        <v>213.6944929801791</v>
+      <c r="F54" s="116">
+        <v>221.5582677565538</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5262,8 +5297,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="103">
-        <v>178.0814745941907</v>
+      <c r="F55" s="91">
+        <v>194.2742741105039</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5282,8 +5317,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="99">
-        <v>6.756301976429436</v>
+      <c r="F56" s="103">
+        <v>9.906280194641312</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5302,8 +5337,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="111">
-        <v>42.51319236584932</v>
+      <c r="F57" s="108">
+        <v>70.35836355069486</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5322,8 +5357,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="96">
-        <v>26.73443233736914</v>
+      <c r="F58" s="98">
+        <v>36.4821004449493</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5342,8 +5377,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="99">
-        <v>6.903209387678072</v>
+      <c r="F59" s="103">
+        <v>6.903209385994574</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5362,8 +5397,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="86">
-        <v>54.9714766066499</v>
+      <c r="F60" s="90">
+        <v>54.97147641453871</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5382,8 +5417,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="96">
-        <v>29.86728322668819</v>
+      <c r="F61" s="100">
+        <v>29.86728314114256</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5402,7 +5437,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="102">
+      <c r="F62" s="106">
         <v>0.1178186833649647</v>
       </c>
     </row>
@@ -5422,7 +5457,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="108">
+      <c r="F63" s="113">
         <v>127.5892090831109</v>
       </c>
     </row>
@@ -5442,7 +5477,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="86">
+      <c r="F64" s="90">
         <v>51.35203405575294</v>
       </c>
     </row>
@@ -5462,8 +5497,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="102">
-        <v>0.1178186519249901</v>
+      <c r="F65" s="106">
+        <v>0.1169192971902779</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5482,8 +5517,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="86">
-        <v>52.20636393493147</v>
+      <c r="F66" s="100">
+        <v>29.71521246753847</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5502,8 +5537,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="99">
-        <v>8.545459160627033</v>
+      <c r="F67" s="106">
+        <v>1.442957698078107</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5522,8 +5557,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="102">
-        <v>0.1175390498553906</v>
+      <c r="F68" s="106">
+        <v>0.1172344692888464</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5542,8 +5577,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="102">
-        <v>0.3450104991913423</v>
+      <c r="F69" s="106">
+        <v>2.037290738113189</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5562,8 +5597,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="102">
-        <v>1.449974475261339</v>
+      <c r="F70" s="106">
+        <v>1.443530178951179</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5582,8 +5617,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="102">
-        <v>0.09085353363962542</v>
+      <c r="F71" s="106">
+        <v>0.09085353591583653</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5602,8 +5637,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="102">
-        <v>0.3183249829755772</v>
+      <c r="F72" s="106">
+        <v>0.3183249852517882</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5622,8 +5657,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="102">
-        <v>1.267180118981133</v>
+      <c r="F73" s="106">
+        <v>1.267180128570172</v>
       </c>
     </row>
   </sheetData>
@@ -5672,7 +5707,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5692,7 +5727,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5712,7 +5747,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5732,7 +5767,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="112">
+      <c r="F5" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5752,7 +5787,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5772,7 +5807,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5792,7 +5827,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5812,7 +5847,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5832,7 +5867,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5852,7 +5887,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5872,7 +5907,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5892,7 +5927,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5912,7 +5947,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5932,7 +5967,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5952,7 +5987,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5972,7 +6007,7 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -5992,7 +6027,7 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="112">
+      <c r="F18" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6012,7 +6047,7 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6032,7 +6067,7 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6052,7 +6087,7 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="112">
+      <c r="F21" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6072,7 +6107,7 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="112">
+      <c r="F22" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6092,7 +6127,7 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="112">
+      <c r="F23" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6112,7 +6147,7 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="112">
+      <c r="F24" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6132,7 +6167,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="112">
+      <c r="F25" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6152,7 +6187,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6172,7 +6207,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F27" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6192,7 +6227,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="112">
+      <c r="F28" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6212,7 +6247,7 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="112">
+      <c r="F29" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6232,7 +6267,7 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="112">
+      <c r="F30" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6252,7 +6287,7 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6272,7 +6307,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="112">
+      <c r="F32" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6292,7 +6327,7 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="112">
+      <c r="F33" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6312,7 +6347,7 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="112">
+      <c r="F34" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6332,7 +6367,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6352,7 +6387,7 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="112">
+      <c r="F36" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6372,7 +6407,7 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="112">
+      <c r="F37" s="117">
         <v>2682711.463207951</v>
       </c>
     </row>
@@ -6392,7 +6427,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="113">
+      <c r="F38" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6412,7 +6447,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="113">
+      <c r="F39" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6432,7 +6467,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="113">
+      <c r="F40" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6452,7 +6487,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="113">
+      <c r="F41" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6472,7 +6507,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="113">
+      <c r="F42" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6492,7 +6527,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="113">
+      <c r="F43" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6512,7 +6547,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="113">
+      <c r="F44" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6532,7 +6567,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6552,7 +6587,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="113">
+      <c r="F46" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6572,7 +6607,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="113">
+      <c r="F47" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6592,7 +6627,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="113">
+      <c r="F48" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6612,7 +6647,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="113">
+      <c r="F49" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6632,7 +6667,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="113">
+      <c r="F50" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6652,7 +6687,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="113">
+      <c r="F51" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6672,7 +6707,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="113">
+      <c r="F52" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6692,7 +6727,7 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="113">
+      <c r="F53" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6712,7 +6747,7 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="113">
+      <c r="F54" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6732,7 +6767,7 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="113">
+      <c r="F55" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6752,7 +6787,7 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="113">
+      <c r="F56" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6772,7 +6807,7 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="113">
+      <c r="F57" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6792,7 +6827,7 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="113">
+      <c r="F58" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6812,7 +6847,7 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="113">
+      <c r="F59" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6832,7 +6867,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="113">
+      <c r="F60" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6852,7 +6887,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="113">
+      <c r="F61" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6872,7 +6907,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="113">
+      <c r="F62" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6892,7 +6927,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="113">
+      <c r="F63" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6912,7 +6947,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="113">
+      <c r="F64" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6932,7 +6967,7 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="113">
+      <c r="F65" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6952,7 +6987,7 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="113">
+      <c r="F66" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6972,7 +7007,7 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="113">
+      <c r="F67" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -6992,7 +7027,7 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="113">
+      <c r="F68" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -7012,7 +7047,7 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="113">
+      <c r="F69" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -7032,7 +7067,7 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="113">
+      <c r="F70" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -7052,7 +7087,7 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="113">
+      <c r="F71" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -7072,7 +7107,7 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="113">
+      <c r="F72" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>
@@ -7092,7 +7127,7 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="113">
+      <c r="F73" s="118">
         <v>3303079.964256136</v>
       </c>
     </row>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="118">
+  <fills count="132">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,19 +126,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBABAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8888F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D6DF9"/>
+        <fgColor rgb="FFC1C1F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E9EF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8585F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1B1F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7272F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2BFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6262FA"/>
+        <fgColor rgb="FF6767FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,55 +180,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBEBEF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A9AF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C7CF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFAFF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F6FF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADADF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6565FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1717FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9B9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F8FF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E6EF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFACACF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5AFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0F0FFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6B6F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8181F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6565FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABABF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5E5EFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1414FE"/>
+        <fgColor rgb="FF6969FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1FFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,25 +276,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5757FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFAFF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7878F9"/>
+        <fgColor rgb="FF5F5FFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1111FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4B4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8989F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B6BFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +312,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5454FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C0CFE"/>
+        <fgColor rgb="FF5353FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0707FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B4BFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0303FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8282F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B5BFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4D4DFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0606FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7171F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5555FB"/>
+        <fgColor rgb="FF5151FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0505FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A4AFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0202FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7676F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,49 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0707FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4949FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0505FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6969FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5151FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0404FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5F7"/>
+        <fgColor rgb="FFA4A4F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,49 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0202FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9A9F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5F5FFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4242FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4040FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEBF3EB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2DFC2"/>
+        <fgColor rgb="FFC5E0C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD5AD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C893"/>
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,181 +474,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECE9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF74B974"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46A246"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1D7B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDCBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DCD9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83C083"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FC68F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF52A852"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FCE9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69B369"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF349A34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDECDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9E3C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94C994"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBEBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEBDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEDDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9DBB9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91C791"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6EB66E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCDCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BCC9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BA54A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92C892"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D8A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCB73A"/>
+        <fgColor rgb="FFD3E7D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82C082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D9A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB83E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,13 +612,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DAA9"/>
+        <fgColor rgb="FFF4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9C972"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E0BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E2C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E3C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E7D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E3C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CC7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBB45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D69C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CD80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E4C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E8D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E8D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D495"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CA74"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4ECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DBAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D79E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E4C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E7D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DAA7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,91 +804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3EDE5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5E5CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E7D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D69A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3ECE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DEB6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D8"/>
+        <fgColor rgb="FFF8CF84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC159"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,85 +840,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF6DDB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D8A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F0ED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF7D9A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D597"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5E3C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F0EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D69C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DBAA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D597"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E6CE"/>
+        <fgColor rgb="FFF3EEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -869,61 +953,61 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -963,7 +1047,21 @@
     <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>474.4029034397092</v>
+        <v>333.8897647349417</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1378,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>906.5438560850721</v>
+        <v>582.046763894979</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1398,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>1132.179091506727</v>
+        <v>760.26423716264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1418,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>576.4035835196676</v>
+        <v>450.816296618539</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1438,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>1230.325051803228</v>
+        <v>890.6180292728423</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1458,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>1867.739527406279</v>
+        <v>1385.92735646541</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1478,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10">
-        <v>594.3782324942863</v>
+        <v>469.9744422065266</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1498,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="11">
-        <v>1301.879148857448</v>
+        <v>970.3952003864586</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1518,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12">
-        <v>1943.557311801553</v>
+        <v>1517.362339641741</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1598,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <v>511.4633194868453</v>
+        <v>351.8954284095144</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1618,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>961.3267163932668</v>
+        <v>613.3805848218954</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1638,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>1203.733312454611</v>
+        <v>823.4441695659094</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1658,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="16">
-        <v>603.2723561704601</v>
+        <v>461.7611427909187</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1678,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="17">
-        <v>1267.354175856447</v>
+        <v>909.6018300341824</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1698,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="18">
-        <v>1907.326567745497</v>
+        <v>1412.111300712683</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1718,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="19">
-        <v>615.9845045393731</v>
+        <v>479.8305591360053</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1738,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="20">
-        <v>1331.708582232373</v>
+        <v>985.8266481562183</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1758,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="21">
-        <v>1975.277432577436</v>
+        <v>1536.346140403081</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1838,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="22">
-        <v>567.2035612788743</v>
+        <v>393.0678030771135</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1858,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="23">
-        <v>1047.780414282606</v>
+        <v>687.1077612459214</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1877,8 +1975,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="15">
-        <v>1203.733312454611</v>
+      <c r="F31" s="24">
+        <v>917.5613217342902</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1897,8 +1995,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="24">
-        <v>632.66453185662</v>
+      <c r="F32" s="25">
+        <v>485.6717688534186</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1917,8 +2015,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="25">
-        <v>1353.906433908002</v>
+      <c r="F33" s="26">
+        <v>956.9131653477574</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1937,8 +2035,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="26">
-        <v>1971.31594838937</v>
+      <c r="F34" s="27">
+        <v>1472.851989727133</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1957,8 +2055,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="27">
-        <v>639.4866324788121</v>
+      <c r="F35" s="28">
+        <v>502.9912783831231</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1977,8 +2075,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="28">
-        <v>1409.052977523679</v>
+      <c r="F36" s="29">
+        <v>1026.951910630591</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1997,8 +2095,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="29">
-        <v>2029.720920810875</v>
+      <c r="F37" s="30">
+        <v>1573.383034698201</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2077,8 +2175,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="7">
-        <v>569.7767207682507</v>
+      <c r="F41" s="31">
+        <v>428.968242352244</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2097,8 +2195,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="30">
-        <v>1097.53140582985</v>
+      <c r="F42" s="32">
+        <v>733.7612372489878</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2117,8 +2215,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="31">
-        <v>1344.76219057161</v>
+      <c r="F43" s="33">
+        <v>945.7680357263429</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2137,8 +2235,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="24">
-        <v>628.7780890456836</v>
+      <c r="F44" s="34">
+        <v>514.64429381196</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2157,8 +2255,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="32">
-        <v>1416.951425456558</v>
+      <c r="F45" s="35">
+        <v>1109.000469409643</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2177,8 +2275,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="33">
-        <v>2022.306845507773</v>
+      <c r="F46" s="36">
+        <v>1646.92112930195</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2197,8 +2295,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="27">
-        <v>637.9581645773976</v>
+      <c r="F47" s="37">
+        <v>523.8520442090969</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2217,8 +2315,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="34">
-        <v>1452.185526543575</v>
+      <c r="F48" s="38">
+        <v>1162.265763257505</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2237,8 +2335,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="35">
-        <v>2037.810921858353</v>
+      <c r="F49" s="39">
+        <v>1671.69323009914</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2317,8 +2415,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="16">
-        <v>606.1842797503461</v>
+      <c r="F53" s="7">
+        <v>446.7861586145526</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2337,8 +2435,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="36">
-        <v>1175.584615574035</v>
+      <c r="F54" s="40">
+        <v>778.2255859440905</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2357,8 +2455,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="37">
-        <v>1376.053971277621</v>
+      <c r="F55" s="41">
+        <v>1048.385946742503</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2377,8 +2475,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="38">
-        <v>645.8333098790795</v>
+      <c r="F56" s="42">
+        <v>521.4377065933841</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2397,8 +2495,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="34">
-        <v>1451.105239772088</v>
+      <c r="F57" s="43">
+        <v>1124.138250003744</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2417,8 +2515,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="39">
-        <v>2045.289377015126</v>
+      <c r="F58" s="44">
+        <v>1658.008876309751</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2437,8 +2535,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="40">
-        <v>651.7108701656134</v>
+      <c r="F59" s="37">
+        <v>529.5516116747555</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2457,8 +2555,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="41">
-        <v>1478.927633436907</v>
+      <c r="F60" s="45">
+        <v>1173.353510265305</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2477,8 +2575,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="42">
-        <v>2057.710104151522</v>
+      <c r="F61" s="46">
+        <v>1679.708939574667</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2557,8 +2655,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="43">
-        <v>625.0619465806465</v>
+      <c r="F65" s="19">
+        <v>479.1584290542007</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2577,8 +2675,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="44">
-        <v>1256.099166413514</v>
+      <c r="F66" s="47">
+        <v>866.1336967639149</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2597,8 +2695,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="37">
-        <v>1376.053971277621</v>
+      <c r="F67" s="41">
+        <v>1049.600402072408</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2617,8 +2715,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="40">
-        <v>654.1034336650072</v>
+      <c r="F68" s="48">
+        <v>535.5667080980877</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2637,8 +2735,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="45">
-        <v>1507.683624605957</v>
+      <c r="F69" s="49">
+        <v>1157.838366191088</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2658,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="46">
-        <v>2073.189731082388</v>
+        <v>1679.775134035151</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2677,8 +2775,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="40">
-        <v>657.2982506306657</v>
+      <c r="F71" s="50">
+        <v>542.5159303981791</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2697,8 +2795,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="47">
-        <v>1524.821920355353</v>
+      <c r="F72" s="51">
+        <v>1201.037268024097</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2717,8 +2815,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="46">
-        <v>2080.323524600145</v>
+      <c r="F73" s="52">
+        <v>1697.369290567061</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2865,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2787,7 +2885,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2807,7 +2905,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2827,7 +2925,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2847,7 +2945,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2867,7 +2965,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2887,7 +2985,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +3005,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3025,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2947,7 +3045,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2967,7 +3065,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2987,7 +3085,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3007,8 +3105,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="49">
-        <v>616.2619429148438</v>
+      <c r="F14" s="54">
+        <v>362.5472365279041</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3027,8 +3125,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="50">
-        <v>1075.808909626444</v>
+      <c r="F15" s="55">
+        <v>592.2793847193818</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3047,8 +3145,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="51">
-        <v>1319.070738412528</v>
+      <c r="F16" s="56">
+        <v>678.1647005158347</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3067,8 +3165,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="52">
-        <v>73.02222644975259</v>
+      <c r="F17" s="57">
+        <v>30.63197321696617</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3087,8 +3185,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="53">
-        <v>125.7862361509206</v>
+      <c r="F18" s="58">
+        <v>54.00951890999004</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3107,8 +3205,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="54">
-        <v>354.5232269418087</v>
+      <c r="F19" s="59">
+        <v>117.843467480379</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3127,8 +3225,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="55">
-        <v>40.63500153130117</v>
+      <c r="F20" s="60">
+        <v>16.39835346344346</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3147,8 +3245,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="56">
-        <v>63.44160165559349</v>
+      <c r="F21" s="57">
+        <v>28.81065504601809</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3167,8 +3265,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="52">
-        <v>75.94719677631051</v>
+      <c r="F22" s="61">
+        <v>44.01397257389518</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3187,8 +3285,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="55">
-        <v>33.12524635506448</v>
+      <c r="F23" s="60">
+        <v>13.30152133943466</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3207,8 +3305,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="57">
-        <v>53.49084234101774</v>
+      <c r="F24" s="62">
+        <v>22.5990363947439</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3228,7 +3326,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="57">
-        <v>50.99647979473984</v>
+        <v>28.81065504601809</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3247,8 +3345,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="58">
-        <v>1147.271624831435</v>
+      <c r="F26" s="63">
+        <v>736.7431232409151</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3267,8 +3365,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="59">
-        <v>1953.1432449587</v>
+      <c r="F27" s="64">
+        <v>1140.449971421264</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3287,8 +3385,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="60">
-        <v>2738.730225682273</v>
+      <c r="F28" s="65">
+        <v>1577.856327494092</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3307,8 +3405,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="61">
-        <v>212.5304528868173</v>
+      <c r="F29" s="59">
+        <v>117.8596272460904</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3327,8 +3425,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="62">
-        <v>506.4743605609118</v>
+      <c r="F30" s="66">
+        <v>214.3173716591666</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3347,8 +3445,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="63">
-        <v>1301.645092622711</v>
+      <c r="F31" s="67">
+        <v>558.3885235396642</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3367,8 +3465,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="64">
-        <v>86.10815840304463</v>
+      <c r="F32" s="58">
+        <v>58.50157823580282</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3387,8 +3485,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="65">
-        <v>241.2911215602028</v>
+      <c r="F33" s="68">
+        <v>109.392248617568</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3407,8 +3505,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="66">
-        <v>260.1271726717603</v>
+      <c r="F34" s="69">
+        <v>162.0285214738068</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3427,8 +3525,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="52">
-        <v>70.56254650320392</v>
+      <c r="F35" s="61">
+        <v>49.24244602507588</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3447,8 +3545,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="67">
-        <v>199.8002247574227</v>
+      <c r="F36" s="70">
+        <v>87.94921228677637</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3467,8 +3565,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="68">
-        <v>168.6425823725728</v>
+      <c r="F37" s="71">
+        <v>103.509369588693</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3487,7 +3585,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3507,7 +3605,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3625,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3547,7 +3645,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3665,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3685,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F43" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3607,7 +3705,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3627,7 +3725,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +3745,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3667,7 +3765,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3687,7 +3785,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3707,7 +3805,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3727,8 +3825,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="69">
-        <v>759.2297272366442</v>
+      <c r="F50" s="72">
+        <v>446.7746005399407</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3747,8 +3845,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="70">
-        <v>1354.448307248184</v>
+      <c r="F51" s="73">
+        <v>743.6893470413171</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3767,8 +3865,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="71">
-        <v>1873.781221153102</v>
+      <c r="F52" s="74">
+        <v>994.3083424884223</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3787,8 +3885,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="56">
-        <v>55.66978214092804</v>
+      <c r="F53" s="62">
+        <v>24.82255454037221</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3807,8 +3905,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="72">
-        <v>147.5557770117394</v>
+      <c r="F54" s="75">
+        <v>67.65297753015111</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3827,8 +3925,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="73">
-        <v>717.7545896487301</v>
+      <c r="F55" s="66">
+        <v>221.7636683686073</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3847,8 +3945,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="74">
-        <v>22.84348526251698</v>
+      <c r="F56" s="60">
+        <v>8.824442106633123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3867,8 +3965,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="57">
-        <v>47.87410995276102</v>
+      <c r="F57" s="62">
+        <v>19.42070183315585</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3887,8 +3985,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="55">
-        <v>31.8048175592814</v>
+      <c r="F58" s="60">
+        <v>13.90619589870861</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3907,8 +4005,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="74">
-        <v>19.23173876735697</v>
+      <c r="F59" s="53">
+        <v>6.767010020283342</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3927,8 +4025,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="55">
-        <v>35.0814098334927</v>
+      <c r="F60" s="60">
+        <v>13.90619589870861</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3947,8 +4045,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="74">
-        <v>25.29289472196106</v>
+      <c r="F61" s="60">
+        <v>9.794129431318149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3967,8 +4065,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="75">
-        <v>1197.134754443719</v>
+      <c r="F62" s="76">
+        <v>884.2850426238274</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3987,8 +4085,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="76">
-        <v>2417.958950560746</v>
+      <c r="F63" s="77">
+        <v>1466.847865020949</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4007,8 +4105,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="77">
-        <v>3538.613576294043</v>
+      <c r="F64" s="78">
+        <v>2248.879587315711</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4027,8 +4125,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="78">
-        <v>100.2802419147501</v>
+      <c r="F65" s="79">
+        <v>83.64482975856085</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4047,8 +4145,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="79">
-        <v>529.2058943638125</v>
+      <c r="F66" s="80">
+        <v>234.4972914687875</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4067,8 +4165,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="80">
-        <v>1334.634825281704</v>
+      <c r="F67" s="81">
+        <v>1008.117554939843</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4087,8 +4185,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="55">
-        <v>36.92475364368187</v>
+      <c r="F68" s="57">
+        <v>29.9489217757292</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4107,8 +4205,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="72">
-        <v>139.8809094746801</v>
+      <c r="F69" s="75">
+        <v>69.14141286032783</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4127,8 +4225,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="52">
-        <v>82.0748808079145</v>
+      <c r="F70" s="61">
+        <v>46.59641434382343</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4147,8 +4245,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="55">
-        <v>29.6989791070048</v>
+      <c r="F71" s="62">
+        <v>24.17474730427704</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4167,8 +4265,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="78">
-        <v>106.2937778014817</v>
+      <c r="F72" s="61">
+        <v>52.15835168350019</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4187,8 +4285,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="56">
-        <v>65.9931038156725</v>
+      <c r="F73" s="57">
+        <v>34.48571891385981</v>
       </c>
     </row>
   </sheetData>
@@ -4237,8 +4335,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="81">
-        <v>515.7983333314282</v>
+      <c r="F2" s="82">
+        <v>422.1388308493481</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4257,8 +4355,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="82">
-        <v>1203.150497316135</v>
+      <c r="F3" s="83">
+        <v>979.2169842674924</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4277,8 +4375,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="83">
-        <v>1592.544718744919</v>
+      <c r="F4" s="84">
+        <v>1318.042188487271</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4297,8 +4395,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="84">
-        <v>139.8482317295895</v>
+      <c r="F5" s="85">
+        <v>159.3118660270487</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4317,8 +4415,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="85">
-        <v>465.1694006900454</v>
+      <c r="F6" s="86">
+        <v>500.3920761970707</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4337,8 +4435,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="86">
-        <v>680.6165357998716</v>
+      <c r="F7" s="87">
+        <v>691.1590386901258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4357,8 +4455,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="87">
-        <v>67.68128237873438</v>
+      <c r="F8" s="88">
+        <v>82.1912273882007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4377,8 +4475,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="88">
-        <v>244.4740677669433</v>
+      <c r="F9" s="89">
+        <v>295.8187617945234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4397,8 +4495,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="89">
-        <v>173.1269023092481</v>
+      <c r="F10" s="90">
+        <v>255.447121496121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4417,8 +4515,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="90">
-        <v>54.78436084931974</v>
+      <c r="F11" s="91">
+        <v>69.39272669083402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4437,8 +4535,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="91">
-        <v>194.1929445057847</v>
+      <c r="F12" s="92">
+        <v>243.6548576057918</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4457,8 +4555,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="92">
-        <v>120.4112469125981</v>
+      <c r="F13" s="93">
+        <v>169.5821259984417</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4477,8 +4575,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="93">
-        <v>183.7625431282737</v>
+      <c r="F14" s="94">
+        <v>241.6556280303396</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4497,8 +4595,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="94">
-        <v>564.8558930484317</v>
+      <c r="F15" s="95">
+        <v>642.137502531311</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4517,8 +4615,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="95">
-        <v>803.5661598844738</v>
+      <c r="F16" s="96">
+        <v>939.6423519976167</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4537,8 +4635,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="96">
-        <v>86.30656099333278</v>
+      <c r="F17" s="97">
+        <v>137.8267957926754</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4557,8 +4655,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="97">
-        <v>377.1108976102956</v>
+      <c r="F18" s="98">
+        <v>464.2731555825158</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4577,8 +4675,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="85">
-        <v>465.9419955552864</v>
+      <c r="F19" s="99">
+        <v>615.9738107046142</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4597,8 +4695,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="98">
-        <v>34.26522879975045</v>
+      <c r="F20" s="91">
+        <v>69.72365576778144</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4617,8 +4715,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="91">
-        <v>194.9925573853746</v>
+      <c r="F21" s="100">
+        <v>274.3336915601502</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4637,8 +4735,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="99">
-        <v>116.6602612464334</v>
+      <c r="F22" s="101">
+        <v>225.1654807873635</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4657,8 +4755,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="100">
-        <v>27.71744331358105</v>
+      <c r="F23" s="102">
+        <v>58.60936191087556</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4678,7 +4776,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="101">
-        <v>153.4042031851373</v>
+        <v>226.3282552899169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4697,8 +4795,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="102">
-        <v>79.62250559195077</v>
+      <c r="F25" s="103">
+        <v>148.0970557640685</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4717,8 +4815,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="103">
-        <v>17.03713432198739</v>
+      <c r="F26" s="104">
+        <v>152.1675052519429</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4737,8 +4835,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="104">
-        <v>287.2318664885298</v>
+      <c r="F27" s="105">
+        <v>504.9931683932138</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4757,8 +4855,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="105">
-        <v>328.3449640089807</v>
+      <c r="F28" s="106">
+        <v>681.9541238165453</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4777,8 +4875,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="106">
-        <v>0</v>
+      <c r="F29" s="107">
+        <v>86.27735141368896</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4797,8 +4895,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="93">
-        <v>181.9641651829144</v>
+      <c r="F30" s="108">
+        <v>374.6886673011044</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4817,8 +4915,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="107">
-        <v>145.7385204480468</v>
+      <c r="F31" s="109">
+        <v>455.4996780805851</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4837,8 +4935,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="106">
-        <v>0</v>
+      <c r="F32" s="110">
+        <v>41.81992973638927</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4857,8 +4955,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="102">
-        <v>74.73892561325249</v>
+      <c r="F33" s="111">
+        <v>220.5087834372089</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4877,8 +4975,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="103">
-        <v>9.091083355413309</v>
+      <c r="F34" s="104">
+        <v>153.3892149442433</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4897,8 +4995,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="106">
-        <v>0</v>
+      <c r="F35" s="112">
+        <v>32.97925461722791</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4917,8 +5015,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="90">
-        <v>51.42141025832059</v>
+      <c r="F36" s="113">
+        <v>180.6042102339438</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4937,8 +5035,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="106">
-        <v>3.462995346219572</v>
+      <c r="F37" s="114">
+        <v>101.944035533317</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4957,8 +5055,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="81">
-        <v>515.7983333314282</v>
+      <c r="F38" s="82">
+        <v>422.1388308493481</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4977,8 +5075,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="82">
-        <v>1203.150497316135</v>
+      <c r="F39" s="83">
+        <v>979.2169842674924</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4997,8 +5095,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="83">
-        <v>1592.544718744919</v>
+      <c r="F40" s="84">
+        <v>1318.042188487271</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5017,8 +5115,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="108">
-        <v>72.31241386536003</v>
+      <c r="F41" s="114">
+        <v>96.10203713321924</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5037,8 +5135,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="109">
-        <v>334.3886677849438</v>
+      <c r="F42" s="115">
+        <v>401.3855641106798</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5057,8 +5155,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="110">
-        <v>550.2836664962356</v>
+      <c r="F43" s="116">
+        <v>568.769362419298</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5077,8 +5175,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="100">
-        <v>29.95721592277759</v>
+      <c r="F44" s="110">
+        <v>38.55956736459595</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5097,8 +5195,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="111">
-        <v>111.5081460532446</v>
+      <c r="F45" s="104">
+        <v>151.3988561656548</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5117,8 +5215,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="87">
-        <v>63.87691076056639</v>
+      <c r="F46" s="107">
+        <v>84.16933116711195</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5137,8 +5235,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="112">
-        <v>23.44644400286136</v>
+      <c r="F47" s="117">
+        <v>32.12960111300057</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5157,8 +5255,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="96">
-        <v>86.24062185797608</v>
+      <c r="F48" s="118">
+        <v>115.9066571335074</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5177,8 +5275,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="90">
-        <v>52.81883853121003</v>
+      <c r="F49" s="119">
+        <v>67.34212514966553</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5197,8 +5295,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="113">
-        <v>130.5635813865584</v>
+      <c r="F50" s="111">
+        <v>217.6034776644426</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5217,8 +5315,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="114">
-        <v>459.4908617846568</v>
+      <c r="F51" s="120">
+        <v>596.0442143227149</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5237,8 +5335,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="115">
-        <v>583.2422931874853</v>
+      <c r="F52" s="121">
+        <v>829.1215976406793</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5257,8 +5355,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="100">
-        <v>26.59120556282283</v>
+      <c r="F53" s="122">
+        <v>76.48950485624425</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5277,8 +5375,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="116">
-        <v>221.5582677565538</v>
+      <c r="F54" s="123">
+        <v>347.0416202931916</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5297,8 +5395,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="91">
-        <v>194.2742741105039</v>
+      <c r="F55" s="124">
+        <v>427.5962889221049</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5317,8 +5415,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="103">
-        <v>9.906280194641312</v>
+      <c r="F56" s="117">
+        <v>31.2222451044472</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5337,8 +5435,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="108">
-        <v>70.35836355069486</v>
+      <c r="F57" s="97">
+        <v>135.1837743565289</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5357,8 +5455,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="98">
-        <v>36.4821004449493</v>
+      <c r="F58" s="91">
+        <v>72.34884046205642</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5377,8 +5475,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="103">
-        <v>6.903209385994574</v>
+      <c r="F59" s="125">
+        <v>26.16822524131824</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5397,8 +5495,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="90">
-        <v>54.97147641453871</v>
+      <c r="F60" s="114">
+        <v>104.0861664284519</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5417,8 +5515,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="100">
-        <v>29.86728314114256</v>
+      <c r="F61" s="102">
+        <v>58.86589283748849</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5437,8 +5535,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="106">
-        <v>0.1178186833649647</v>
+      <c r="F62" s="118">
+        <v>114.8735242343117</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5457,8 +5555,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="113">
-        <v>127.5892090831109</v>
+      <c r="F63" s="126">
+        <v>418.708042052421</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5477,8 +5575,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="90">
-        <v>51.35203405575294</v>
+      <c r="F64" s="127">
+        <v>490.5748751043557</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5497,8 +5595,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="106">
-        <v>0.1169192971902779</v>
+      <c r="F65" s="112">
+        <v>38.01315502828126</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5517,8 +5615,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="100">
-        <v>29.71521246753847</v>
+      <c r="F66" s="128">
+        <v>247.4322689988537</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5537,8 +5635,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="106">
-        <v>1.442957698078107</v>
+      <c r="F67" s="101">
+        <v>221.9500537539789</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5557,8 +5655,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="106">
-        <v>0.1172344692888464</v>
+      <c r="F68" s="129">
+        <v>15.79981150388325</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5577,8 +5675,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="106">
-        <v>2.037290738113189</v>
+      <c r="F69" s="114">
+        <v>98.58937276032312</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5597,8 +5695,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="106">
-        <v>1.443530178951179</v>
+      <c r="F70" s="130">
+        <v>48.5149770916593</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5617,8 +5715,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="106">
-        <v>0.09085353591583653</v>
+      <c r="F71" s="129">
+        <v>12.57510897607936</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5637,8 +5735,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="106">
-        <v>0.3183249852517882</v>
+      <c r="F72" s="122">
+        <v>74.69036571837803</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5657,8 +5755,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="106">
-        <v>1.267180128570172</v>
+      <c r="F73" s="110">
+        <v>40.04557215082223</v>
       </c>
     </row>
   </sheetData>
@@ -5707,8 +5805,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="117">
-        <v>2682711.463207951</v>
+      <c r="F2" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5727,8 +5825,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="117">
-        <v>2682711.463207951</v>
+      <c r="F3" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5747,8 +5845,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="117">
-        <v>2682711.463207951</v>
+      <c r="F4" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5767,8 +5865,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="117">
-        <v>2682711.463207951</v>
+      <c r="F5" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5787,8 +5885,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="117">
-        <v>2682711.463207951</v>
+      <c r="F6" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5807,8 +5905,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="117">
-        <v>2682711.463207951</v>
+      <c r="F7" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5827,8 +5925,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="117">
-        <v>2682711.463207951</v>
+      <c r="F8" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5847,8 +5945,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="117">
-        <v>2682711.463207951</v>
+      <c r="F9" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5867,8 +5965,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="117">
-        <v>2682711.463207951</v>
+      <c r="F10" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5887,8 +5985,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="117">
-        <v>2682711.463207951</v>
+      <c r="F11" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5907,8 +6005,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="117">
-        <v>2682711.463207951</v>
+      <c r="F12" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5927,8 +6025,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="117">
-        <v>2682711.463207951</v>
+      <c r="F13" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5947,8 +6045,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="117">
-        <v>2682711.463207951</v>
+      <c r="F14" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5967,8 +6065,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="117">
-        <v>2682711.463207951</v>
+      <c r="F15" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5987,8 +6085,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="117">
-        <v>2682711.463207951</v>
+      <c r="F16" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6007,8 +6105,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="117">
-        <v>2682711.463207951</v>
+      <c r="F17" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6027,8 +6125,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="117">
-        <v>2682711.463207951</v>
+      <c r="F18" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6047,8 +6145,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="117">
-        <v>2682711.463207951</v>
+      <c r="F19" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6067,8 +6165,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="117">
-        <v>2682711.463207951</v>
+      <c r="F20" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6087,8 +6185,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="117">
-        <v>2682711.463207951</v>
+      <c r="F21" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6107,8 +6205,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="117">
-        <v>2682711.463207951</v>
+      <c r="F22" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6127,8 +6225,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="117">
-        <v>2682711.463207951</v>
+      <c r="F23" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6147,8 +6245,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="117">
-        <v>2682711.463207951</v>
+      <c r="F24" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6167,8 +6265,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="117">
-        <v>2682711.463207951</v>
+      <c r="F25" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6187,8 +6285,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="117">
-        <v>2682711.463207951</v>
+      <c r="F26" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6207,8 +6305,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="117">
-        <v>2682711.463207951</v>
+      <c r="F27" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6227,8 +6325,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="117">
-        <v>2682711.463207951</v>
+      <c r="F28" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6247,8 +6345,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="117">
-        <v>2682711.463207951</v>
+      <c r="F29" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6267,8 +6365,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="117">
-        <v>2682711.463207951</v>
+      <c r="F30" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6287,8 +6385,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="117">
-        <v>2682711.463207951</v>
+      <c r="F31" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6307,8 +6405,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="117">
-        <v>2682711.463207951</v>
+      <c r="F32" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6327,8 +6425,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="117">
-        <v>2682711.463207951</v>
+      <c r="F33" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6347,8 +6445,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="117">
-        <v>2682711.463207951</v>
+      <c r="F34" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6367,8 +6465,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="117">
-        <v>2682711.463207951</v>
+      <c r="F35" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6387,8 +6485,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="117">
-        <v>2682711.463207951</v>
+      <c r="F36" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6407,8 +6505,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="117">
-        <v>2682711.463207951</v>
+      <c r="F37" s="131">
+        <v>2045643.852639714</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6427,8 +6525,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="118">
-        <v>3303079.964256136</v>
+      <c r="F38" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6447,8 +6545,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="118">
-        <v>3303079.964256136</v>
+      <c r="F39" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6467,8 +6565,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="118">
-        <v>3303079.964256136</v>
+      <c r="F40" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6487,8 +6585,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="118">
-        <v>3303079.964256136</v>
+      <c r="F41" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6507,8 +6605,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="118">
-        <v>3303079.964256136</v>
+      <c r="F42" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6527,8 +6625,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="118">
-        <v>3303079.964256136</v>
+      <c r="F43" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6547,8 +6645,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="118">
-        <v>3303079.964256136</v>
+      <c r="F44" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6567,8 +6665,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="118">
-        <v>3303079.964256136</v>
+      <c r="F45" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6587,8 +6685,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="118">
-        <v>3303079.964256136</v>
+      <c r="F46" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6607,8 +6705,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="118">
-        <v>3303079.964256136</v>
+      <c r="F47" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6627,8 +6725,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="118">
-        <v>3303079.964256136</v>
+      <c r="F48" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6647,8 +6745,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="118">
-        <v>3303079.964256136</v>
+      <c r="F49" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6667,8 +6765,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="118">
-        <v>3303079.964256136</v>
+      <c r="F50" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6687,8 +6785,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="118">
-        <v>3303079.964256136</v>
+      <c r="F51" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6707,8 +6805,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="118">
-        <v>3303079.964256136</v>
+      <c r="F52" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6727,8 +6825,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="118">
-        <v>3303079.964256136</v>
+      <c r="F53" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6747,8 +6845,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="118">
-        <v>3303079.964256136</v>
+      <c r="F54" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6767,8 +6865,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="118">
-        <v>3303079.964256136</v>
+      <c r="F55" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6787,8 +6885,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="118">
-        <v>3303079.964256136</v>
+      <c r="F56" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6807,8 +6905,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="118">
-        <v>3303079.964256136</v>
+      <c r="F57" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6827,8 +6925,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="118">
-        <v>3303079.964256136</v>
+      <c r="F58" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6847,8 +6945,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="118">
-        <v>3303079.964256136</v>
+      <c r="F59" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6867,8 +6965,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="118">
-        <v>3303079.964256136</v>
+      <c r="F60" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6887,8 +6985,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="118">
-        <v>3303079.964256136</v>
+      <c r="F61" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6907,8 +7005,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="118">
-        <v>3303079.964256136</v>
+      <c r="F62" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6927,8 +7025,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="118">
-        <v>3303079.964256136</v>
+      <c r="F63" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6947,8 +7045,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="118">
-        <v>3303079.964256136</v>
+      <c r="F64" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6967,8 +7065,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="118">
-        <v>3303079.964256136</v>
+      <c r="F65" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6987,8 +7085,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="118">
-        <v>3303079.964256136</v>
+      <c r="F66" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7007,8 +7105,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="118">
-        <v>3303079.964256136</v>
+      <c r="F67" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7027,8 +7125,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="118">
-        <v>3303079.964256136</v>
+      <c r="F68" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7047,8 +7145,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="118">
-        <v>3303079.964256136</v>
+      <c r="F69" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7067,8 +7165,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="118">
-        <v>3303079.964256136</v>
+      <c r="F70" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7087,8 +7185,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="118">
-        <v>3303079.964256136</v>
+      <c r="F71" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7107,8 +7205,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="118">
-        <v>3303079.964256136</v>
+      <c r="F72" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7127,8 +7225,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="118">
-        <v>3303079.964256136</v>
+      <c r="F73" s="132">
+        <v>2520356.386981622</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="132">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,19 +126,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC1C1F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9E9EF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8585F8"/>
+        <fgColor rgb="FFBDBDF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9292F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7878F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAEF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A6AFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2424FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADADF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F5FFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1515FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBBBF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D8DF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E6EF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6767FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2121FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABABF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D5DFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1212FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5B5F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8484F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D6DF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6060FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1919FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8A8F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5858FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0DFE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,175 +288,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7272F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2B2BFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEAEF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6767FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1919FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEBEF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9A9AF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7C7CF9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFAFF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6F6FF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2929FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADADF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6565FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1717FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9B9F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8F8FF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E6EF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFACACF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6969FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F1FFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5F5FFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1111FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4B4F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8989F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6B6BFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8A8F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5353FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0707FF"/>
+        <fgColor rgb="FFA7A7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F4FFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0606FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,19 +318,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4B4BFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0303FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8282F8"/>
+        <fgColor rgb="FF4949FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0404FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7777F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA7A7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5151FB"/>
+        <fgColor rgb="FF4C4CFB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A4AFB"/>
+        <fgColor rgb="FFA5A5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4747FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7676F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4C4CFB"/>
+        <fgColor rgb="FF6C6CF9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4646FB"/>
+        <fgColor rgb="FF4848FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0101FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3A3F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4444FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADD5AD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4D0A4"/>
+        <fgColor rgb="FFC3E0C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D2A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1CFA1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +444,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECE9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DB56D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40A040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1E6D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9DBB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94C994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ABC7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E1C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90C790"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BA54B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEE5CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CBD7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE5F0E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDFEDDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECE9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF74B974"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF46A246"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1D7B1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEBDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDDCBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DCD9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF83C083"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FC68F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF52A852"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3E7D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF82C082"/>
+        <fgColor rgb="FFE7F1E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCB83E"/>
+        <fgColor rgb="FFFCB93F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,31 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D496"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9C972"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3ECE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E0BB"/>
+        <fgColor rgb="FFF4E9D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D79F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CC7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,241 +648,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5E5CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E5CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E4C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CF85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBE50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DAA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D28E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E4C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E6D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E6CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D9A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D18B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6E0BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DCB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E7D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4ECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DDB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D392"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EBDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9C76C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E0BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3EDE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5E3C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E7D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E3C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CC7B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBB45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D69C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CD80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E1BF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E4C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E8D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D495"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CA74"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4ECE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DBAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D79E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E4C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E7D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DAA7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D089"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CF84"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAC159"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DDB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D8A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D9A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D597"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E3C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE8"/>
+        <fgColor rgb="FFF3EEE7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -945,28 +927,28 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -975,13 +957,13 @@
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -992,9 +974,9 @@
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1058,10 +1040,7 @@
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4">
-        <v>333.8897647349417</v>
+        <v>385.2093943619174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1476,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>582.046763894979</v>
+        <v>704.2390861496874</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1496,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>760.26423716264</v>
+        <v>900.1251323649539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1516,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>450.816296618539</v>
+        <v>492.5415265768003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1536,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>890.6180292728423</v>
+        <v>1007.057106869324</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1556,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>1385.92735646541</v>
+        <v>1522.631098456789</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1576,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="10">
-        <v>469.9744422065266</v>
+        <v>508.6964856454138</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1596,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="11">
-        <v>970.3952003864586</v>
+        <v>1079.550581900349</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1616,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12">
-        <v>1517.362339641741</v>
+        <v>1637.541383032564</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1696,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <v>351.8954284095144</v>
+        <v>403.7208815204298</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1716,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>613.3805848218954</v>
+        <v>737.5963277163289</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1736,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>823.4441695659094</v>
+        <v>969.9448484414287</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1755,8 +1734,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="16">
-        <v>461.7611427909187</v>
+      <c r="F20" s="10">
+        <v>503.388307733832</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1775,8 +1754,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="17">
-        <v>909.6018300341824</v>
+      <c r="F21" s="16">
+        <v>1026.659370482678</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1795,8 +1774,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="18">
-        <v>1412.111300712683</v>
+      <c r="F22" s="17">
+        <v>1546.858961652662</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1815,8 +1794,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="19">
-        <v>479.8305591360053</v>
+      <c r="F23" s="18">
+        <v>519.5812022374348</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1835,8 +1814,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="20">
-        <v>985.8266481562183</v>
+      <c r="F24" s="19">
+        <v>1095.795057904169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1855,8 +1834,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="21">
-        <v>1536.346140403081</v>
+      <c r="F25" s="20">
+        <v>1654.041157164771</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1935,8 +1914,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="22">
-        <v>393.0678030771135</v>
+      <c r="F29" s="21">
+        <v>443.9214893411298</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1955,8 +1934,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="23">
-        <v>687.1077612459214</v>
+      <c r="F30" s="22">
+        <v>806.979414168351</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1975,8 +1954,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="24">
-        <v>917.5613217342902</v>
+      <c r="F31" s="23">
+        <v>975.6365207775164</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1995,8 +1974,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="25">
-        <v>485.6717688534186</v>
+      <c r="F32" s="24">
+        <v>530.0270708174673</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2015,8 +1994,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="26">
-        <v>956.9131653477574</v>
+      <c r="F33" s="25">
+        <v>1074.162034772901</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2035,8 +2014,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="27">
-        <v>1472.851989727133</v>
+      <c r="F34" s="26">
+        <v>1602.813898810018</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2055,8 +2034,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="28">
-        <v>502.9912783831231</v>
+      <c r="F35" s="27">
+        <v>543.1317334577639</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2075,8 +2054,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="29">
-        <v>1026.951910630591</v>
+      <c r="F36" s="28">
+        <v>1140.156211243356</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2095,8 +2074,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="30">
-        <v>1573.383034698201</v>
+      <c r="F37" s="29">
+        <v>1690.601212371855</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2175,8 +2154,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="31">
-        <v>428.968242352244</v>
+      <c r="F41" s="30">
+        <v>474.0430120635939</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2195,8 +2174,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="32">
-        <v>733.7612372489878</v>
+      <c r="F42" s="31">
+        <v>862.0647268036761</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2215,8 +2194,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="33">
-        <v>945.7680357263429</v>
+      <c r="F43" s="25">
+        <v>1077.506018751933</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2235,8 +2214,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="34">
-        <v>514.64429381196</v>
+      <c r="F44" s="32">
+        <v>547.4676738064785</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2255,8 +2234,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="35">
-        <v>1109.000469409643</v>
+      <c r="F45" s="33">
+        <v>1202.803160493306</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2275,8 +2254,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="36">
-        <v>1646.92112930195</v>
+      <c r="F46" s="34">
+        <v>1743.959216463822</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2295,8 +2274,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="37">
-        <v>523.8520442090969</v>
+      <c r="F47" s="35">
+        <v>554.456297334886</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2315,8 +2294,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="38">
-        <v>1162.265763257505</v>
+      <c r="F48" s="36">
+        <v>1246.927745110285</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2335,8 +2314,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="39">
-        <v>1671.69323009914</v>
+      <c r="F49" s="37">
+        <v>1763.772118315419</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2416,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="7">
-        <v>446.7861586145526</v>
+        <v>492.7235749439139</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2435,8 +2414,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="40">
-        <v>778.2255859440905</v>
+      <c r="F54" s="38">
+        <v>909.1929152637631</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2455,8 +2434,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="41">
-        <v>1048.385946742503</v>
+      <c r="F55" s="39">
+        <v>1115.875935337254</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2475,8 +2454,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="42">
-        <v>521.4377065933841</v>
+      <c r="F56" s="35">
+        <v>554.3799307784917</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2495,8 +2474,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="43">
-        <v>1124.138250003744</v>
+      <c r="F57" s="40">
+        <v>1220.167813466535</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2515,8 +2494,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="44">
-        <v>1658.008876309751</v>
+      <c r="F58" s="41">
+        <v>1755.763687947434</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2535,8 +2514,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="37">
-        <v>529.5516116747555</v>
+      <c r="F59" s="42">
+        <v>561.4690991933938</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2555,8 +2534,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="45">
-        <v>1173.353510265305</v>
+      <c r="F60" s="43">
+        <v>1259.9430630111</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2575,8 +2554,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="46">
-        <v>1679.708939574667</v>
+      <c r="F61" s="44">
+        <v>1773.405544255368</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2655,8 +2634,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="19">
-        <v>479.1584290542007</v>
+      <c r="F65" s="18">
+        <v>523.8480678466861</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2675,8 +2654,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="47">
-        <v>866.1336967639149</v>
+      <c r="F66" s="45">
+        <v>985.4359817410128</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2695,8 +2674,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="41">
-        <v>1049.600402072408</v>
+      <c r="F67" s="39">
+        <v>1115.875935337254</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2715,8 +2694,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="48">
-        <v>535.5667080980877</v>
+      <c r="F68" s="46">
+        <v>569.6143751988213</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2735,8 +2714,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="49">
-        <v>1157.838366191088</v>
+      <c r="F69" s="47">
+        <v>1254.516938371507</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2755,8 +2734,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="46">
-        <v>1679.775134035151</v>
+      <c r="F70" s="48">
+        <v>1778.808288800623</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2775,8 +2754,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="50">
-        <v>542.5159303981791</v>
+      <c r="F71" s="49">
+        <v>575.101534227332</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2795,8 +2774,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="51">
-        <v>1201.037268024097</v>
+      <c r="F72" s="50">
+        <v>1287.28409906816</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2815,8 +2794,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="52">
-        <v>1697.369290567061</v>
+      <c r="F73" s="51">
+        <v>1791.915506116407</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2844,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2885,7 +2864,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2905,7 +2884,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2904,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2945,7 +2924,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +2944,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <v>0</v>
       </c>
     </row>
@@ -2985,7 +2964,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +2984,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3025,7 +3004,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3045,7 +3024,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3044,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3085,7 +3064,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3105,8 +3084,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="54">
-        <v>362.5472365279041</v>
+      <c r="F14" s="53">
+        <v>482.398754381058</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3125,8 +3104,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="55">
-        <v>592.2793847193818</v>
+      <c r="F15" s="54">
+        <v>794.0210819271333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3145,8 +3124,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="56">
-        <v>678.1647005158347</v>
+      <c r="F16" s="55">
+        <v>884.1665663612175</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3165,8 +3144,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="57">
-        <v>30.63197321696617</v>
+      <c r="F17" s="56">
+        <v>42.49748378982747</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3185,8 +3164,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="58">
-        <v>54.00951890999004</v>
+      <c r="F18" s="57">
+        <v>77.48220486906783</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3205,8 +3184,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="59">
-        <v>117.843467480379</v>
+      <c r="F19" s="58">
+        <v>183.4079823294577</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3225,8 +3204,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="60">
-        <v>16.39835346344346</v>
+      <c r="F20" s="59">
+        <v>21.21661136779889</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3245,8 +3224,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="57">
-        <v>28.81065504601809</v>
+      <c r="F21" s="56">
+        <v>38.500628954771</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3265,8 +3244,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="61">
-        <v>44.01397257389518</v>
+      <c r="F22" s="60">
+        <v>55.15597023649374</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3285,8 +3264,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="60">
-        <v>13.30152133943466</v>
+      <c r="F23" s="59">
+        <v>18.56604015627988</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3305,8 +3284,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="62">
-        <v>22.5990363947439</v>
+      <c r="F24" s="61">
+        <v>30.55642374339187</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3325,8 +3304,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="57">
-        <v>28.81065504601809</v>
+      <c r="F25" s="56">
+        <v>35.27114511795672</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3345,8 +3324,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="63">
-        <v>736.7431232409151</v>
+      <c r="F26" s="62">
+        <v>923.6526544053045</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3365,8 +3344,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="64">
-        <v>1140.449971421264</v>
+      <c r="F27" s="63">
+        <v>1511.494948949186</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3385,8 +3364,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="65">
-        <v>1577.856327494092</v>
+      <c r="F28" s="64">
+        <v>2043.047430311573</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3405,8 +3384,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="59">
-        <v>117.8596272460904</v>
+      <c r="F29" s="65">
+        <v>159.6257603880412</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3426,7 +3405,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="66">
-        <v>214.3173716591666</v>
+        <v>316.5111338923464</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3445,8 +3424,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="67">
-        <v>558.3885235396642</v>
+      <c r="F31" s="55">
+        <v>884.7493569228642</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3465,8 +3444,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="58">
-        <v>58.50157823580282</v>
+      <c r="F32" s="57">
+        <v>78.84508176312721</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3485,8 +3464,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="68">
-        <v>109.392248617568</v>
+      <c r="F33" s="67">
+        <v>144.1386520455726</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3505,8 +3484,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="69">
-        <v>162.0285214738068</v>
+      <c r="F34" s="68">
+        <v>203.2452409633596</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3525,8 +3504,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="61">
-        <v>49.24244602507588</v>
+      <c r="F35" s="60">
+        <v>65.07273135394198</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3545,8 +3524,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="70">
-        <v>87.94921228677637</v>
+      <c r="F36" s="69">
+        <v>119.8770511431406</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3565,8 +3544,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="71">
-        <v>103.509369588693</v>
+      <c r="F37" s="70">
+        <v>126.8558915123593</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3585,7 +3564,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3605,7 +3584,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="53">
+      <c r="F39" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3625,7 +3604,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3645,7 +3624,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="53">
+      <c r="F41" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3665,7 +3644,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="53">
+      <c r="F42" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3685,7 +3664,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3705,7 +3684,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3725,7 +3704,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3745,7 +3724,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F46" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3765,7 +3744,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3785,7 +3764,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3805,7 +3784,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="52">
         <v>0</v>
       </c>
     </row>
@@ -3825,8 +3804,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="72">
-        <v>446.7746005399407</v>
+      <c r="F50" s="71">
+        <v>599.9148046573466</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3845,8 +3824,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="73">
-        <v>743.6893470413171</v>
+      <c r="F51" s="72">
+        <v>1040.998580025285</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3865,8 +3844,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="74">
-        <v>994.3083424884223</v>
+      <c r="F52" s="73">
+        <v>1344.910245116019</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3885,8 +3864,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="62">
-        <v>24.82255454037221</v>
+      <c r="F53" s="56">
+        <v>33.91699672551178</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3905,8 +3884,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="75">
-        <v>67.65297753015111</v>
+      <c r="F54" s="74">
+        <v>91.3037905809062</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3925,8 +3904,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="66">
-        <v>221.7636683686073</v>
+      <c r="F55" s="75">
+        <v>448.2729653107546</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3945,8 +3924,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="60">
-        <v>8.824442106633123</v>
+      <c r="F56" s="59">
+        <v>11.60099892437984</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3965,8 +3944,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="62">
-        <v>19.42070183315585</v>
+      <c r="F57" s="61">
+        <v>28.29688034472091</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3985,8 +3964,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="60">
-        <v>13.90619589870861</v>
+      <c r="F58" s="59">
+        <v>19.49917740122404</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4005,8 +3984,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="53">
-        <v>6.767010020283342</v>
+      <c r="F59" s="52">
+        <v>10.37721984905315</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4025,8 +4004,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="60">
-        <v>13.90619589870861</v>
+      <c r="F60" s="59">
+        <v>20.55977490816814</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4045,8 +4024,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="60">
-        <v>9.794129431318149</v>
+      <c r="F61" s="59">
+        <v>14.72818384299149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4066,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="76">
-        <v>884.2850426238274</v>
+        <v>1084.389790829791</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4086,7 +4065,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="77">
-        <v>1466.847865020949</v>
+        <v>1907.761932060187</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4106,7 +4085,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="78">
-        <v>2248.879587315711</v>
+        <v>2820.912143799616</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4125,8 +4104,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="79">
-        <v>83.64482975856085</v>
+      <c r="F65" s="69">
+        <v>111.4904625943548</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4145,8 +4124,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="80">
-        <v>234.4972914687875</v>
+      <c r="F66" s="79">
+        <v>350.2526331732308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4165,8 +4144,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="81">
-        <v>1008.117554939843</v>
+      <c r="F67" s="80">
+        <v>1326.347979149727</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4185,8 +4164,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="57">
-        <v>29.9489217757292</v>
+      <c r="F68" s="56">
+        <v>40.68027358678525</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4205,8 +4184,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="75">
-        <v>69.14141286032783</v>
+      <c r="F69" s="74">
+        <v>94.96825822791759</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4225,8 +4204,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="61">
-        <v>46.59641434382343</v>
+      <c r="F70" s="60">
+        <v>63.67321751387046</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4245,8 +4224,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="62">
-        <v>24.17474730427704</v>
+      <c r="F71" s="56">
+        <v>34.01647297719196</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4265,8 +4244,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="61">
-        <v>52.15835168350019</v>
+      <c r="F72" s="81">
+        <v>70.53546361765208</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4285,8 +4264,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="57">
-        <v>34.48571891385981</v>
+      <c r="F73" s="82">
+        <v>48.21193258576669</v>
       </c>
     </row>
   </sheetData>
@@ -4335,8 +4314,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="82">
-        <v>422.1388308493481</v>
+      <c r="F2" s="83">
+        <v>518.0776767868423</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4355,8 +4334,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="83">
-        <v>979.2169842674924</v>
+      <c r="F3" s="84">
+        <v>1208.355717858231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4375,8 +4354,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="84">
-        <v>1318.042188487271</v>
+      <c r="F4" s="85">
+        <v>1636.483420588892</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4395,8 +4374,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="85">
-        <v>159.3118660270487</v>
+      <c r="F5" s="86">
+        <v>168.3559278929574</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4415,8 +4394,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="86">
-        <v>500.3920761970707</v>
+      <c r="F6" s="87">
+        <v>548.0560824602458</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4435,8 +4414,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="87">
-        <v>691.1590386901258</v>
+      <c r="F7" s="88">
+        <v>779.4027238917909</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4455,8 +4434,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="88">
-        <v>82.1912273882007</v>
+      <c r="F8" s="89">
+        <v>83.17081790411369</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4475,8 +4454,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="89">
-        <v>295.8187617945234</v>
+      <c r="F9" s="90">
+        <v>306.6157291157845</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4495,8 +4474,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="90">
-        <v>255.447121496121</v>
+      <c r="F10" s="91">
+        <v>258.9716068334421</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4515,8 +4494,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="91">
-        <v>69.39272669083402</v>
+      <c r="F11" s="92">
+        <v>70.12257782158213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4535,8 +4514,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="92">
-        <v>243.6548576057918</v>
+      <c r="F12" s="93">
+        <v>249.5234197525827</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4555,8 +4534,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="93">
-        <v>169.5821259984417</v>
+      <c r="F13" s="86">
+        <v>168.9585652426185</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4576,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="94">
-        <v>241.6556280303396</v>
+        <v>260.4231206442151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4596,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="95">
-        <v>642.137502531311</v>
+        <v>730.9560374214309</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4616,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="96">
-        <v>939.6423519976167</v>
+        <v>1086.644240601872</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4636,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="97">
-        <v>137.8267957926754</v>
+        <v>137.8198559301378</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4656,7 +4635,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="98">
-        <v>464.2731555825158</v>
+        <v>493.8135890149911</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4676,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="99">
-        <v>615.9738107046142</v>
+        <v>662.7685416176955</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4695,8 +4674,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="91">
-        <v>69.72365576778144</v>
+      <c r="F20" s="100">
+        <v>66.69851887460374</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4715,8 +4694,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="100">
-        <v>274.3336915601502</v>
+      <c r="F21" s="101">
+        <v>276.650766790263</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4735,8 +4714,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="101">
-        <v>225.1654807873635</v>
+      <c r="F22" s="102">
+        <v>219.4643136385612</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4755,8 +4734,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="102">
-        <v>58.60936191087556</v>
+      <c r="F23" s="103">
+        <v>54.62966271421219</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4775,8 +4754,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="101">
-        <v>226.3282552899169</v>
+      <c r="F24" s="104">
+        <v>225.2031668239195</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4795,8 +4774,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="103">
-        <v>148.0970557640685</v>
+      <c r="F25" s="105">
+        <v>142.6671855455031</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4815,8 +4794,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="104">
-        <v>152.1675052519429</v>
+      <c r="F26" s="97">
+        <v>131.8752526838177</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4835,8 +4814,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="105">
-        <v>504.9931683932138</v>
+      <c r="F27" s="106">
+        <v>509.7878079875792</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4855,8 +4834,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="106">
-        <v>681.9541238165453</v>
+      <c r="F28" s="107">
+        <v>682.813502174748</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4875,8 +4854,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="107">
-        <v>86.27735141368896</v>
+      <c r="F29" s="100">
+        <v>66.48899665667261</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4896,7 +4875,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="108">
-        <v>374.6886673011044</v>
+        <v>364.9656961128304</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4916,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="109">
-        <v>455.4996780805851</v>
+        <v>431.6790650424625</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4936,7 +4915,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="110">
-        <v>41.81992973638927</v>
+        <v>26.37329735842102</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4956,7 +4935,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="111">
-        <v>220.5087834372089</v>
+        <v>203.4011143469774</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4975,8 +4954,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="104">
-        <v>153.3892149442433</v>
+      <c r="F34" s="112">
+        <v>125.8501228614321</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4995,8 +4974,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="112">
-        <v>32.97925461722791</v>
+      <c r="F35" s="113">
+        <v>20.63783397174589</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5015,8 +4994,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="113">
-        <v>180.6042102339438</v>
+      <c r="F36" s="114">
+        <v>159.9409189668333</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5035,8 +5014,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="114">
-        <v>101.944035533317</v>
+      <c r="F37" s="89">
+        <v>82.85710344581092</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5055,8 +5034,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="82">
-        <v>422.1388308493481</v>
+      <c r="F38" s="83">
+        <v>518.0776767868423</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5075,8 +5054,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="83">
-        <v>979.2169842674924</v>
+      <c r="F39" s="84">
+        <v>1208.355717858231</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5095,8 +5074,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="84">
-        <v>1318.042188487271</v>
+      <c r="F40" s="85">
+        <v>1636.483420588892</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5115,8 +5094,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="114">
-        <v>96.10203713321924</v>
+      <c r="F41" s="115">
+        <v>97.39986550729273</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5135,8 +5114,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="115">
-        <v>401.3855641106798</v>
+      <c r="F42" s="116">
+        <v>421.1165738520792</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5155,8 +5134,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="116">
-        <v>568.769362419298</v>
+      <c r="F43" s="117">
+        <v>636.3052263596775</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5175,8 +5154,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="110">
-        <v>38.55956736459595</v>
+      <c r="F44" s="118">
+        <v>37.82394921352137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5195,8 +5174,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="104">
-        <v>151.3988561656548</v>
+      <c r="F45" s="119">
+        <v>150.4679646328352</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5215,8 +5194,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="107">
-        <v>84.16933116711195</v>
+      <c r="F46" s="89">
+        <v>84.21383599438758</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5235,8 +5214,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="117">
-        <v>32.12960111300057</v>
+      <c r="F47" s="120">
+        <v>31.96187295034735</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5255,8 +5234,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="118">
-        <v>115.9066571335074</v>
+      <c r="F48" s="121">
+        <v>114.9057720859358</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5275,8 +5254,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="119">
-        <v>67.34212514966553</v>
+      <c r="F49" s="92">
+        <v>67.95773986383281</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5295,8 +5274,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="111">
-        <v>217.6034776644426</v>
+      <c r="F50" s="102">
+        <v>219.5567309571521</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5315,8 +5294,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="120">
-        <v>596.0442143227149</v>
+      <c r="F51" s="117">
+        <v>638.2353528336563</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5335,8 +5314,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="121">
-        <v>829.1215976406793</v>
+      <c r="F52" s="122">
+        <v>891.3100172483457</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5355,8 +5334,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="122">
-        <v>76.48950485624425</v>
+      <c r="F53" s="92">
+        <v>69.82745709124598</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5376,7 +5355,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="123">
-        <v>347.0416202931916</v>
+        <v>349.3176627515115</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5395,8 +5374,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="124">
-        <v>427.5962889221049</v>
+      <c r="F55" s="116">
+        <v>421.6381070401873</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5415,8 +5394,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="117">
-        <v>31.2222451044472</v>
+      <c r="F56" s="110">
+        <v>28.10843377736322</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5435,8 +5414,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="97">
-        <v>135.1837743565289</v>
+      <c r="F57" s="112">
+        <v>126.0734027932307</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5455,8 +5434,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="91">
-        <v>72.34884046205642</v>
+      <c r="F58" s="100">
+        <v>67.61023372691409</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5475,8 +5454,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="125">
-        <v>26.16822524131824</v>
+      <c r="F59" s="113">
+        <v>22.59841781732903</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5495,8 +5474,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="114">
-        <v>104.0861664284519</v>
+      <c r="F60" s="115">
+        <v>96.91557336307812</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5515,8 +5494,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="102">
-        <v>58.86589283748849</v>
+      <c r="F61" s="103">
+        <v>54.87181091657914</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5535,8 +5514,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="118">
-        <v>114.8735242343117</v>
+      <c r="F62" s="89">
+        <v>82.36062603002009</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5555,8 +5534,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="126">
-        <v>418.708042052421</v>
+      <c r="F63" s="124">
+        <v>383.3193416652394</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5575,8 +5554,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="127">
-        <v>490.5748751043557</v>
+      <c r="F64" s="116">
+        <v>420.8922835042922</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5595,8 +5574,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="112">
-        <v>38.01315502828126</v>
+      <c r="F65" s="113">
+        <v>18.8296300363276</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5615,8 +5594,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="128">
-        <v>247.4322689988537</v>
+      <c r="F66" s="111">
+        <v>207.2396742857485</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5635,8 +5614,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="101">
-        <v>221.9500537539789</v>
+      <c r="F67" s="119">
+        <v>150.3098981973983</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5655,8 +5634,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="129">
-        <v>15.79981150388325</v>
+      <c r="F68" s="125">
+        <v>6.578966738334717</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5675,8 +5654,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="114">
-        <v>98.58937276032312</v>
+      <c r="F69" s="126">
+        <v>76.53610032841686</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5695,8 +5674,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="130">
-        <v>48.5149770916593</v>
+      <c r="F70" s="120">
+        <v>34.77764413249814</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5715,8 +5694,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="129">
-        <v>12.57510897607936</v>
+      <c r="F71" s="125">
+        <v>4.162321829727404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5735,8 +5714,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="122">
-        <v>74.69036571837803</v>
+      <c r="F72" s="127">
+        <v>58.65378468661268</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5756,7 +5735,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="110">
-        <v>40.04557215082223</v>
+        <v>29.26762817246394</v>
       </c>
     </row>
   </sheetData>
@@ -5805,8 +5784,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="131">
-        <v>2045643.852639714</v>
+      <c r="F2" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5825,8 +5804,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="131">
-        <v>2045643.852639714</v>
+      <c r="F3" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5845,8 +5824,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="131">
-        <v>2045643.852639714</v>
+      <c r="F4" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5865,8 +5844,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="131">
-        <v>2045643.852639714</v>
+      <c r="F5" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5885,8 +5864,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="131">
-        <v>2045643.852639714</v>
+      <c r="F6" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5905,8 +5884,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="131">
-        <v>2045643.852639714</v>
+      <c r="F7" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5925,8 +5904,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="131">
-        <v>2045643.852639714</v>
+      <c r="F8" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5945,8 +5924,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="131">
-        <v>2045643.852639714</v>
+      <c r="F9" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5965,8 +5944,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="131">
-        <v>2045643.852639714</v>
+      <c r="F10" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5985,8 +5964,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="131">
-        <v>2045643.852639714</v>
+      <c r="F11" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6005,8 +5984,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="131">
-        <v>2045643.852639714</v>
+      <c r="F12" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6025,8 +6004,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="131">
-        <v>2045643.852639714</v>
+      <c r="F13" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6045,8 +6024,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="131">
-        <v>2045643.852639714</v>
+      <c r="F14" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6065,8 +6044,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="131">
-        <v>2045643.852639714</v>
+      <c r="F15" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6085,8 +6064,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="131">
-        <v>2045643.852639714</v>
+      <c r="F16" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6105,8 +6084,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="131">
-        <v>2045643.852639714</v>
+      <c r="F17" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6125,8 +6104,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="131">
-        <v>2045643.852639714</v>
+      <c r="F18" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6145,8 +6124,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="131">
-        <v>2045643.852639714</v>
+      <c r="F19" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6165,8 +6144,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="131">
-        <v>2045643.852639714</v>
+      <c r="F20" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6185,8 +6164,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="131">
-        <v>2045643.852639714</v>
+      <c r="F21" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6205,8 +6184,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="131">
-        <v>2045643.852639714</v>
+      <c r="F22" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6225,8 +6204,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="131">
-        <v>2045643.852639714</v>
+      <c r="F23" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6245,8 +6224,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="131">
-        <v>2045643.852639714</v>
+      <c r="F24" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6265,8 +6244,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="131">
-        <v>2045643.852639714</v>
+      <c r="F25" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6285,8 +6264,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="131">
-        <v>2045643.852639714</v>
+      <c r="F26" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6305,8 +6284,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="131">
-        <v>2045643.852639714</v>
+      <c r="F27" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6325,8 +6304,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="131">
-        <v>2045643.852639714</v>
+      <c r="F28" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6345,8 +6324,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="131">
-        <v>2045643.852639714</v>
+      <c r="F29" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6365,8 +6344,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="131">
-        <v>2045643.852639714</v>
+      <c r="F30" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6385,8 +6364,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="131">
-        <v>2045643.852639714</v>
+      <c r="F31" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6405,8 +6384,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="131">
-        <v>2045643.852639714</v>
+      <c r="F32" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6425,8 +6404,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="131">
-        <v>2045643.852639714</v>
+      <c r="F33" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6445,8 +6424,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="131">
-        <v>2045643.852639714</v>
+      <c r="F34" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6465,8 +6444,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="131">
-        <v>2045643.852639714</v>
+      <c r="F35" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6485,8 +6464,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="131">
-        <v>2045643.852639714</v>
+      <c r="F36" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6505,8 +6484,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="131">
-        <v>2045643.852639714</v>
+      <c r="F37" s="128">
+        <v>2175075.092881021</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6525,8 +6504,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="132">
-        <v>2520356.386981622</v>
+      <c r="F38" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6545,8 +6524,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="132">
-        <v>2520356.386981622</v>
+      <c r="F39" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6565,8 +6544,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="132">
-        <v>2520356.386981622</v>
+      <c r="F40" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6585,8 +6564,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="132">
-        <v>2520356.386981622</v>
+      <c r="F41" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6605,8 +6584,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="132">
-        <v>2520356.386981622</v>
+      <c r="F42" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6625,8 +6604,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="132">
-        <v>2520356.386981622</v>
+      <c r="F43" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6645,8 +6624,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="132">
-        <v>2520356.386981622</v>
+      <c r="F44" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6665,8 +6644,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="132">
-        <v>2520356.386981622</v>
+      <c r="F45" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6685,8 +6664,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="132">
-        <v>2520356.386981622</v>
+      <c r="F46" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6705,8 +6684,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="132">
-        <v>2520356.386981622</v>
+      <c r="F47" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6725,8 +6704,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="132">
-        <v>2520356.386981622</v>
+      <c r="F48" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6745,8 +6724,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="132">
-        <v>2520356.386981622</v>
+      <c r="F49" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6765,8 +6744,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="132">
-        <v>2520356.386981622</v>
+      <c r="F50" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6785,8 +6764,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="132">
-        <v>2520356.386981622</v>
+      <c r="F51" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6805,8 +6784,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="132">
-        <v>2520356.386981622</v>
+      <c r="F52" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6825,8 +6804,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="132">
-        <v>2520356.386981622</v>
+      <c r="F53" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6845,8 +6824,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="132">
-        <v>2520356.386981622</v>
+      <c r="F54" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6865,8 +6844,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="132">
-        <v>2520356.386981622</v>
+      <c r="F55" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6885,8 +6864,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="132">
-        <v>2520356.386981622</v>
+      <c r="F56" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6905,8 +6884,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="132">
-        <v>2520356.386981622</v>
+      <c r="F57" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6925,8 +6904,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="132">
-        <v>2520356.386981622</v>
+      <c r="F58" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6945,8 +6924,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="132">
-        <v>2520356.386981622</v>
+      <c r="F59" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6965,8 +6944,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="132">
-        <v>2520356.386981622</v>
+      <c r="F60" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6985,8 +6964,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="132">
-        <v>2520356.386981622</v>
+      <c r="F61" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7005,8 +6984,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="132">
-        <v>2520356.386981622</v>
+      <c r="F62" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7025,8 +7004,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="132">
-        <v>2520356.386981622</v>
+      <c r="F63" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7045,8 +7024,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="132">
-        <v>2520356.386981622</v>
+      <c r="F64" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7065,8 +7044,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="132">
-        <v>2520356.386981622</v>
+      <c r="F65" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7085,8 +7064,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="132">
-        <v>2520356.386981622</v>
+      <c r="F66" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7105,8 +7084,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="132">
-        <v>2520356.386981622</v>
+      <c r="F67" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7125,8 +7104,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="132">
-        <v>2520356.386981622</v>
+      <c r="F68" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7145,8 +7124,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="132">
-        <v>2520356.386981622</v>
+      <c r="F69" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7165,8 +7144,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="132">
-        <v>2520356.386981622</v>
+      <c r="F70" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7185,8 +7164,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="132">
-        <v>2520356.386981622</v>
+      <c r="F71" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7205,8 +7184,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="132">
-        <v>2520356.386981622</v>
+      <c r="F72" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7225,8 +7204,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="132">
-        <v>2520356.386981622</v>
+      <c r="F73" s="129">
+        <v>2679593.613971546</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/total_capacity.xlsx
+++ b/results/Manuscript/total_capacity.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="129">
+  <fills count="131">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDBDF5"/>
+        <fgColor rgb="FFBEBEF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,79 +168,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6060FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1515FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBABAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C8CF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D6DF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2020FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABABF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D5DFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1212FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4B4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8383F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5F5FFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1515FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBBBF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8D8DF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6E6EF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6767FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2121FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABABF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5D5DFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1212FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5B5F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8484F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D6DF9"/>
+        <fgColor rgb="FF1818FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7A7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5757FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C0CFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1B1F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D7DF9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F4FFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0707FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A4AFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0404FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7676F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B5BFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C4CFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0505FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4848FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0202FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,127 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6060FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1919FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8A8F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5858FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D0DFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1B1F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7C7CF9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA7A7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F4FFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0606FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4949FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0404FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7777F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B5BFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4C4CFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0505FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4747FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0202FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6C6CF9"/>
+        <fgColor rgb="FF6B6BFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,12 +378,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4848FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0101FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,7 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4444FC"/>
+        <fgColor rgb="FF4343FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,19 +408,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3E0C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D2A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA1CFA1"/>
+        <fgColor rgb="FFC2DFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7D2A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCE9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,61 +468,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9BCC9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B369"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A9C3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CB99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE4F0E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCECDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECE9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DB56D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF40A040"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEEDDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD1E6D1"/>
+        <fgColor rgb="FFD7E9D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEDF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAEBDA"/>
+        <fgColor rgb="FFB9DBB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C995"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BBC7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4E0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90C790"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CA54C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,19 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9DBB9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94C994"/>
+        <fgColor rgb="FFCBE4CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,55 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3EFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E1C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90C790"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BA54B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEE5CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CBD7C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
+        <fgColor rgb="FFE2EFE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D7"/>
+        <fgColor rgb="FFF4E8D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5E5CA"/>
+        <fgColor rgb="FFF5E4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,19 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5E4C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CF85"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBE50"/>
+        <fgColor rgb="FFF8CF87"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC055"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6DAA7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D28E"/>
+        <fgColor rgb="FFF6DAA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D391"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E6D0"/>
+        <fgColor rgb="FFF4E7D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,25 +738,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7D9A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D18B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6E0BA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DCB0"/>
+        <fgColor rgb="FFF4EBDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DBAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D495"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4ECE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4ECE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DDB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D392"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D494"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9C870"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E1BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DEB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,103 +858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E7D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E9D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4ECE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DDB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D392"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EADA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4EBDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9C76C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5E0BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6DFB7"/>
+        <fgColor rgb="FFF4EBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5E0BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DFB8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F0EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEE7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -934,35 +946,35 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -973,9 +985,9 @@
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -988,9 +1000,9 @@
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1040,7 +1052,9 @@
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <v>403.7208815204298</v>
+        <v>407.4055732218662</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1695,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="14">
-        <v>737.5963277163289</v>
+        <v>743.669593703419</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1715,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>969.9448484414287</v>
+        <v>975.3504629612407</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1735,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="10">
-        <v>503.388307733832</v>
+        <v>505.5824903855952</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1755,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="16">
-        <v>1026.659370482678</v>
+        <v>1030.675861687954</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1775,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="17">
-        <v>1546.858961652662</v>
+        <v>1551.199521531912</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1795,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>519.5812022374348</v>
+        <v>521.9551345249751</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1815,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="19">
-        <v>1095.795057904169</v>
+        <v>1099.207279769651</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1835,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="20">
-        <v>1654.041157164771</v>
+        <v>1657.166871476261</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1915,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="21">
-        <v>443.9214893411298</v>
+        <v>452.7618355233132</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1935,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="22">
-        <v>806.979414168351</v>
+        <v>818.4815453480662</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1954,7 +1968,7 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="15">
         <v>975.6365207775164</v>
       </c>
     </row>
@@ -1974,8 +1988,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="24">
-        <v>530.0270708174673</v>
+      <c r="F32" s="23">
+        <v>536.3613680254623</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1994,8 +2008,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="25">
-        <v>1074.162034772901</v>
+      <c r="F33" s="24">
+        <v>1085.747391858557</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2014,8 +2028,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="26">
-        <v>1602.813898810018</v>
+      <c r="F34" s="25">
+        <v>1613.301520734952</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2034,8 +2048,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="27">
-        <v>543.1317334577639</v>
+      <c r="F35" s="26">
+        <v>549.7016460679927</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2054,8 +2068,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="28">
-        <v>1140.156211243356</v>
+      <c r="F36" s="27">
+        <v>1149.14162384427</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2074,8 +2088,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="29">
-        <v>1690.601212371855</v>
+      <c r="F37" s="28">
+        <v>1697.572261114922</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2154,7 +2168,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>474.0430120635939</v>
       </c>
     </row>
@@ -2174,7 +2188,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>862.0647268036761</v>
       </c>
     </row>
@@ -2194,7 +2208,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="11">
         <v>1077.506018751933</v>
       </c>
     </row>
@@ -2214,7 +2228,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="26">
         <v>547.4676738064785</v>
       </c>
     </row>
@@ -2234,7 +2248,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="31">
         <v>1202.803160493306</v>
       </c>
     </row>
@@ -2254,7 +2268,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="32">
         <v>1743.959216463822</v>
       </c>
     </row>
@@ -2274,7 +2288,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="33">
         <v>554.456297334886</v>
       </c>
     </row>
@@ -2294,7 +2308,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="34">
         <v>1246.927745110285</v>
       </c>
     </row>
@@ -2314,7 +2328,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="35">
         <v>1763.772118315419</v>
       </c>
     </row>
@@ -2395,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="7">
-        <v>492.7235749439139</v>
+        <v>494.7207421696743</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2414,8 +2428,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="38">
-        <v>909.1929152637631</v>
+      <c r="F54" s="36">
+        <v>913.5246093023641</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2434,7 +2448,7 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="37">
         <v>1115.875935337254</v>
       </c>
     </row>
@@ -2454,8 +2468,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="35">
-        <v>554.3799307784917</v>
+      <c r="F56" s="33">
+        <v>555.1787472955975</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2474,8 +2488,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="40">
-        <v>1220.167813466535</v>
+      <c r="F57" s="38">
+        <v>1222.310591665391</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2494,8 +2508,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="41">
-        <v>1755.763687947434</v>
+      <c r="F58" s="39">
+        <v>1756.86638439447</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2514,8 +2528,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="42">
-        <v>561.4690991933938</v>
+      <c r="F59" s="40">
+        <v>562.3120963181975</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2534,8 +2548,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="43">
-        <v>1259.9430630111</v>
+      <c r="F60" s="41">
+        <v>1261.540388214005</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2554,8 +2568,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="44">
-        <v>1773.405544255368</v>
+      <c r="F61" s="42">
+        <v>1774.577113946229</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2634,8 +2648,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="18">
-        <v>523.8480678466861</v>
+      <c r="F65" s="43">
+        <v>526.7264664520173</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2654,8 +2668,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="45">
-        <v>985.4359817410128</v>
+      <c r="F66" s="44">
+        <v>994.4542203757869</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2674,7 +2688,7 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="37">
         <v>1115.875935337254</v>
       </c>
     </row>
@@ -2694,8 +2708,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="46">
-        <v>569.6143751988213</v>
+      <c r="F68" s="45">
+        <v>571.5169281715323</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2714,8 +2728,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="47">
-        <v>1254.516938371507</v>
+      <c r="F69" s="41">
+        <v>1260.122378567927</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2734,8 +2748,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="48">
-        <v>1778.808288800623</v>
+      <c r="F70" s="46">
+        <v>1781.496592357286</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2754,8 +2768,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="49">
-        <v>575.101534227332</v>
+      <c r="F71" s="47">
+        <v>576.4207396592919</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2774,8 +2788,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="50">
-        <v>1287.28409906816</v>
+      <c r="F72" s="48">
+        <v>1291.352121281168</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2794,8 +2808,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="51">
-        <v>1791.915506116407</v>
+      <c r="F73" s="49">
+        <v>1794.823299667598</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2858,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2878,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2884,7 +2898,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +2918,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2924,7 +2938,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +2958,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2964,7 +2978,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="50">
         <v>0</v>
       </c>
     </row>
@@ -2984,7 +2998,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3004,7 +3018,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3024,7 +3038,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3058,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3078,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3084,8 +3098,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="53">
-        <v>482.398754381058</v>
+      <c r="F14" s="51">
+        <v>517.7681100874111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3104,8 +3118,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="54">
-        <v>794.0210819271333</v>
+      <c r="F15" s="52">
+        <v>847.4053049273431</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3124,8 +3138,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="55">
-        <v>884.1665663612175</v>
+      <c r="F16" s="53">
+        <v>959.2334507936998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3144,8 +3158,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="56">
-        <v>42.49748378982747</v>
+      <c r="F17" s="54">
+        <v>51.39675400458967</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3164,8 +3178,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="57">
-        <v>77.48220486906783</v>
+      <c r="F18" s="55">
+        <v>93.3834533349696</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3184,8 +3198,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="58">
-        <v>183.4079823294577</v>
+      <c r="F19" s="56">
+        <v>221.2086243611417</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3204,8 +3218,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="59">
-        <v>21.21661136779889</v>
+      <c r="F20" s="57">
+        <v>25.69305850324582</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3224,8 +3238,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="56">
-        <v>38.500628954771</v>
+      <c r="F21" s="54">
+        <v>46.66723127744616</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3244,8 +3258,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="60">
-        <v>55.15597023649374</v>
+      <c r="F22" s="58">
+        <v>66.05649634104603</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3265,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="59">
-        <v>18.56604015627988</v>
+        <v>22.6701307111998</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3284,8 +3298,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="61">
-        <v>30.55642374339187</v>
+      <c r="F24" s="60">
+        <v>37.14163255230751</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3304,8 +3318,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="56">
-        <v>35.27114511795672</v>
+      <c r="F25" s="60">
+        <v>42.45265924189272</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3324,8 +3338,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="62">
-        <v>923.6526544053045</v>
+      <c r="F26" s="61">
+        <v>1004.875053611579</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3344,8 +3358,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="63">
-        <v>1511.494948949186</v>
+      <c r="F27" s="62">
+        <v>1639.100324825057</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3364,8 +3378,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="64">
-        <v>2043.047430311573</v>
+      <c r="F28" s="63">
+        <v>2227.561159370622</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3384,8 +3398,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="65">
-        <v>159.6257603880412</v>
+      <c r="F29" s="64">
+        <v>190.7749167519551</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3404,8 +3418,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="66">
-        <v>316.5111338923464</v>
+      <c r="F30" s="65">
+        <v>381.458898467016</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3424,8 +3438,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="55">
-        <v>884.7493569228642</v>
+      <c r="F31" s="66">
+        <v>1033.298554457179</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3444,8 +3458,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="57">
-        <v>78.84508176312721</v>
+      <c r="F32" s="67">
+        <v>92.30265696635389</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3464,8 +3478,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="67">
-        <v>144.1386520455726</v>
+      <c r="F33" s="68">
+        <v>172.1473386806181</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3484,8 +3498,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="68">
-        <v>203.2452409633596</v>
+      <c r="F34" s="69">
+        <v>244.8809384879183</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3504,8 +3518,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="60">
-        <v>65.07273135394198</v>
+      <c r="F35" s="70">
+        <v>76.64312050531768</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3524,8 +3538,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="69">
-        <v>119.8770511431406</v>
+      <c r="F36" s="71">
+        <v>143.6760763025402</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3544,8 +3558,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="70">
-        <v>126.8558915123593</v>
+      <c r="F37" s="72">
+        <v>152.7757628774542</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3564,7 +3578,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3584,7 +3598,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3618,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +3638,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3658,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3664,7 +3678,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +3698,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3718,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3724,7 +3738,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3744,7 +3758,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3764,7 +3778,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3784,7 +3798,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3804,8 +3818,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="71">
-        <v>599.9148046573466</v>
+      <c r="F50" s="73">
+        <v>626.2812572685004</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3824,8 +3838,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="72">
-        <v>1040.998580025285</v>
+      <c r="F51" s="74">
+        <v>1081.351284283008</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3844,8 +3858,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="73">
-        <v>1344.910245116019</v>
+      <c r="F52" s="75">
+        <v>1411.309400229518</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3864,8 +3878,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="56">
-        <v>33.91699672551178</v>
+      <c r="F53" s="60">
+        <v>37.66336609741919</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3884,8 +3898,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="74">
-        <v>91.3037905809062</v>
+      <c r="F54" s="55">
+        <v>101.1117730208602</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3904,8 +3918,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="75">
-        <v>448.2729653107546</v>
+      <c r="F55" s="76">
+        <v>488.3973944689852</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3925,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="59">
-        <v>11.60099892437984</v>
+        <v>12.93786913294809</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3944,8 +3958,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="61">
-        <v>28.29688034472091</v>
+      <c r="F57" s="57">
+        <v>31.74622049470694</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3965,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="59">
-        <v>19.49917740122404</v>
+        <v>21.41869314489526</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3984,8 +3998,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="52">
-        <v>10.37721984905315</v>
+      <c r="F59" s="59">
+        <v>11.61151434964425</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4005,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="59">
-        <v>20.55977490816814</v>
+        <v>23.05171407559599</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4025,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="59">
-        <v>14.72818384299149</v>
+        <v>16.49836537218415</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4044,8 +4058,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="76">
-        <v>1084.389790829791</v>
+      <c r="F62" s="77">
+        <v>1134.763735007685</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4064,8 +4078,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="77">
-        <v>1907.761932060187</v>
+      <c r="F63" s="78">
+        <v>1995.334008651443</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4084,8 +4098,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="78">
-        <v>2820.912143799616</v>
+      <c r="F64" s="79">
+        <v>2961.544617508013</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4104,8 +4118,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="69">
-        <v>111.4904625943548</v>
+      <c r="F65" s="80">
+        <v>121.5493059395669</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4124,8 +4138,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="79">
-        <v>350.2526331732308</v>
+      <c r="F66" s="81">
+        <v>394.5936451182797</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4144,8 +4158,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="80">
-        <v>1326.347979149727</v>
+      <c r="F67" s="82">
+        <v>1413.919474061641</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4164,8 +4178,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="56">
-        <v>40.68027358678525</v>
+      <c r="F68" s="60">
+        <v>44.51221236405128</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4184,8 +4198,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="74">
-        <v>94.96825822791759</v>
+      <c r="F69" s="83">
+        <v>105.5598902747641</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4204,8 +4218,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="60">
-        <v>63.67321751387046</v>
+      <c r="F70" s="58">
+        <v>69.3173758228113</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4224,8 +4238,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="56">
-        <v>34.01647297719196</v>
+      <c r="F71" s="60">
+        <v>36.56173004334062</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4244,8 +4258,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="81">
-        <v>70.53546361765208</v>
+      <c r="F72" s="70">
+        <v>77.96767645542675</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4264,8 +4278,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="82">
-        <v>48.21193258576669</v>
+      <c r="F73" s="54">
+        <v>53.34433765017448</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4328,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="84">
         <v>518.0776767868423</v>
       </c>
     </row>
@@ -4334,7 +4348,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="85">
         <v>1208.355717858231</v>
       </c>
     </row>
@@ -4354,7 +4368,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="86">
         <v>1636.483420588892</v>
       </c>
     </row>
@@ -4374,7 +4388,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="87">
         <v>168.3559278929574</v>
       </c>
     </row>
@@ -4394,7 +4408,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="88">
         <v>548.0560824602458</v>
       </c>
     </row>
@@ -4414,7 +4428,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="89">
         <v>779.4027238917909</v>
       </c>
     </row>
@@ -4434,7 +4448,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="90">
         <v>83.17081790411369</v>
       </c>
     </row>
@@ -4454,7 +4468,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="91">
         <v>306.6157291157845</v>
       </c>
     </row>
@@ -4474,7 +4488,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="92">
         <v>258.9716068334421</v>
       </c>
     </row>
@@ -4494,7 +4508,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="93">
         <v>70.12257782158213</v>
       </c>
     </row>
@@ -4514,7 +4528,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="94">
         <v>249.5234197525827</v>
       </c>
     </row>
@@ -4534,7 +4548,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="87">
         <v>168.9585652426185</v>
       </c>
     </row>
@@ -4555,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="94">
-        <v>260.4231206442151</v>
+        <v>248.2322949747136</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4575,7 +4589,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="95">
-        <v>730.9560374214309</v>
+        <v>711.1116872813996</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4595,7 +4609,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="96">
-        <v>1086.644240601872</v>
+        <v>1054.939496396886</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4615,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="97">
-        <v>137.8198559301378</v>
+        <v>131.57833257455</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4635,7 +4649,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="98">
-        <v>493.8135890149911</v>
+        <v>483.4002493444344</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4655,7 +4669,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="99">
-        <v>662.7685416176955</v>
+        <v>646.346899777379</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4675,7 +4689,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="100">
-        <v>66.69851887460374</v>
+        <v>63.30163031874312</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4695,7 +4709,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="101">
-        <v>276.650766790263</v>
+        <v>270.4092434346752</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4715,7 +4729,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="102">
-        <v>219.4643136385612</v>
+        <v>212.0042865559672</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4735,7 +4749,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="103">
-        <v>54.62966271421219</v>
+        <v>51.23277415835162</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4755,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="104">
-        <v>225.2031668239195</v>
+        <v>220.0351350919327</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4775,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="105">
-        <v>142.6671855455031</v>
+        <v>137.4991538135163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4794,8 +4808,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="97">
-        <v>131.8752526838177</v>
+      <c r="F26" s="106">
+        <v>106.999604547597</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4814,8 +4828,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="106">
-        <v>509.7878079875792</v>
+      <c r="F27" s="107">
+        <v>469.440933609217</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4834,8 +4848,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="107">
-        <v>682.813502174748</v>
+      <c r="F28" s="108">
+        <v>621.3736590461172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4854,8 +4868,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="100">
-        <v>66.48899665667261</v>
+      <c r="F29" s="103">
+        <v>48.73953976432739</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4874,8 +4888,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="108">
-        <v>364.9656961128304</v>
+      <c r="F30" s="109">
+        <v>336.8881871985217</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4894,8 +4908,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="109">
-        <v>431.6790650424625</v>
+      <c r="F31" s="110">
+        <v>383.872827187341</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4914,8 +4928,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="110">
-        <v>26.37329735842102</v>
+      <c r="F32" s="111">
+        <v>16.69669738080534</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4934,8 +4948,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="111">
-        <v>203.4011143469774</v>
+      <c r="F33" s="112">
+        <v>184.4991686495124</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4954,8 +4968,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="112">
-        <v>125.8501228614321</v>
+      <c r="F34" s="113">
+        <v>102.7087966286449</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4974,8 +4988,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="113">
-        <v>20.63783397174589</v>
+      <c r="F35" s="111">
+        <v>11.42510064858341</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4995,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="114">
-        <v>159.9409189668333</v>
+        <v>143.9696695496232</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5014,8 +5028,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="89">
-        <v>82.85710344581092</v>
+      <c r="F37" s="93">
+        <v>67.57605895252654</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5034,7 +5048,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="83">
+      <c r="F38" s="84">
         <v>518.0776767868423</v>
       </c>
     </row>
@@ -5054,7 +5068,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="85">
         <v>1208.355717858231</v>
       </c>
     </row>
@@ -5074,7 +5088,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="85">
+      <c r="F40" s="86">
         <v>1636.483420588892</v>
       </c>
     </row>
@@ -5194,7 +5208,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="90">
         <v>84.21383599438758</v>
       </c>
     </row>
@@ -5234,7 +5248,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="121">
+      <c r="F48" s="106">
         <v>114.9057720859358</v>
       </c>
     </row>
@@ -5254,7 +5268,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="92">
+      <c r="F49" s="93">
         <v>67.95773986383281</v>
       </c>
     </row>
@@ -5275,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="102">
-        <v>219.5567309571521</v>
+        <v>210.6569924601861</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5294,8 +5308,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="117">
-        <v>638.2353528336563</v>
+      <c r="F51" s="121">
+        <v>624.2098128641139</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5315,7 +5329,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="122">
-        <v>891.3100172483457</v>
+        <v>866.2511543245502</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5334,8 +5348,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="92">
-        <v>69.82745709124598</v>
+      <c r="F53" s="93">
+        <v>66.83151575851198</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5355,7 +5369,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="123">
-        <v>349.3176627515115</v>
+        <v>342.3888335517104</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5374,8 +5388,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="116">
-        <v>421.6381070401873</v>
+      <c r="F55" s="124">
+        <v>407.6125670706449</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5394,8 +5408,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="110">
-        <v>28.10843377736322</v>
+      <c r="F56" s="125">
+        <v>26.98674441144767</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5414,8 +5428,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="112">
-        <v>126.0734027932307</v>
+      <c r="F57" s="126">
+        <v>123.0774614604967</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5435,7 +5449,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="100">
-        <v>67.61023372691409</v>
+        <v>66.02527576013036</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5454,8 +5468,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="113">
-        <v>22.59841781732903</v>
+      <c r="F59" s="125">
+        <v>21.47672845141349</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5475,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="115">
-        <v>96.91557336307812</v>
+        <v>94.7178441106141</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5495,7 +5509,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="103">
-        <v>54.87181091657914</v>
+        <v>53.2868529497954</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5514,8 +5528,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="89">
-        <v>82.36062603002009</v>
+      <c r="F62" s="93">
+        <v>67.03995956749449</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5534,8 +5548,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="124">
-        <v>383.3193416652394</v>
+      <c r="F63" s="127">
+        <v>356.1649203398023</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5554,8 +5568,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="116">
-        <v>420.8922835042922</v>
+      <c r="F64" s="128">
+        <v>375.8796086614458</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5574,8 +5588,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="113">
-        <v>18.8296300363276</v>
+      <c r="F65" s="111">
+        <v>13.05442296472979</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5594,8 +5608,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="111">
-        <v>207.2396742857485</v>
+      <c r="F66" s="112">
+        <v>186.6781047360283</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5614,8 +5628,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="119">
-        <v>150.3098981973983</v>
+      <c r="F67" s="126">
+        <v>123.1554768719611</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5634,8 +5648,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="125">
-        <v>6.578966738334717</v>
+      <c r="F68" s="129">
+        <v>3.795831205936385</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5654,8 +5668,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="126">
-        <v>76.53610032841686</v>
+      <c r="F69" s="93">
+        <v>68.41730588096064</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5675,7 +5689,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="120">
-        <v>34.77764413249814</v>
+        <v>30.73441936601319</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5694,8 +5708,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="125">
-        <v>4.162321829727404</v>
+      <c r="F71" s="129">
+        <v>2.283945060962447</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5714,8 +5728,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="127">
-        <v>58.65378468661268</v>
+      <c r="F72" s="103">
+        <v>52.87857761501488</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5734,8 +5748,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="110">
-        <v>29.26762817246394</v>
+      <c r="F73" s="125">
+        <v>25.224403405979</v>
       </c>
     </row>
   </sheetData>
@@ -5784,8 +5798,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="128">
-        <v>2175075.092881021</v>
+      <c r="F2" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5804,8 +5818,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="128">
-        <v>2175075.092881021</v>
+      <c r="F3" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5824,8 +5838,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="128">
-        <v>2175075.092881021</v>
+      <c r="F4" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5844,8 +5858,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="128">
-        <v>2175075.092881021</v>
+      <c r="F5" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5864,8 +5878,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="128">
-        <v>2175075.092881021</v>
+      <c r="F6" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5884,8 +5898,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="128">
-        <v>2175075.092881021</v>
+      <c r="F7" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5904,8 +5918,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="128">
-        <v>2175075.092881021</v>
+      <c r="F8" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5924,8 +5938,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="128">
-        <v>2175075.092881021</v>
+      <c r="F9" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5944,8 +5958,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="128">
-        <v>2175075.092881021</v>
+      <c r="F10" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5964,8 +5978,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="128">
-        <v>2175075.092881021</v>
+      <c r="F11" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5984,8 +5998,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="128">
-        <v>2175075.092881021</v>
+      <c r="F12" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6004,8 +6018,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="128">
-        <v>2175075.092881021</v>
+      <c r="F13" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6024,8 +6038,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="128">
-        <v>2175075.092881021</v>
+      <c r="F14" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6044,8 +6058,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="128">
-        <v>2175075.092881021</v>
+      <c r="F15" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6064,8 +6078,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="128">
-        <v>2175075.092881021</v>
+      <c r="F16" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6084,8 +6098,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="128">
-        <v>2175075.092881021</v>
+      <c r="F17" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6104,8 +6118,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="128">
-        <v>2175075.092881021</v>
+      <c r="F18" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6124,8 +6138,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="128">
-        <v>2175075.092881021</v>
+      <c r="F19" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6144,8 +6158,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="128">
-        <v>2175075.092881021</v>
+      <c r="F20" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6164,8 +6178,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="128">
-        <v>2175075.092881021</v>
+      <c r="F21" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6184,8 +6198,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="128">
-        <v>2175075.092881021</v>
+      <c r="F22" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6204,8 +6218,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="128">
-        <v>2175075.092881021</v>
+      <c r="F23" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6224,8 +6238,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="128">
-        <v>2175075.092881021</v>
+      <c r="F24" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6244,8 +6258,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="128">
-        <v>2175075.092881021</v>
+      <c r="F25" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6264,8 +6278,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="128">
-        <v>2175075.092881021</v>
+      <c r="F26" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6284,8 +6298,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="128">
-        <v>2175075.092881021</v>
+      <c r="F27" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6304,8 +6318,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="128">
-        <v>2175075.092881021</v>
+      <c r="F28" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6324,8 +6338,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="128">
-        <v>2175075.092881021</v>
+      <c r="F29" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6344,8 +6358,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="128">
-        <v>2175075.092881021</v>
+      <c r="F30" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6364,8 +6378,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="128">
-        <v>2175075.092881021</v>
+      <c r="F31" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6384,8 +6398,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="128">
-        <v>2175075.092881021</v>
+      <c r="F32" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6404,8 +6418,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="128">
-        <v>2175075.092881021</v>
+      <c r="F33" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6424,8 +6438,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="128">
-        <v>2175075.092881021</v>
+      <c r="F34" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6444,8 +6458,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="128">
-        <v>2175075.092881021</v>
+      <c r="F35" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6464,8 +6478,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="128">
-        <v>2175075.092881021</v>
+      <c r="F36" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6484,8 +6498,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="128">
-        <v>2175075.092881021</v>
+      <c r="F37" s="130">
+        <v>22171.7075613004</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6504,8 +6518,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="129">
-        <v>2679593.613971546</v>
+      <c r="F38" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6524,8 +6538,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="129">
-        <v>2679593.613971546</v>
+      <c r="F39" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6544,8 +6558,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="129">
-        <v>2679593.613971546</v>
+      <c r="F40" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6564,8 +6578,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="129">
-        <v>2679593.613971546</v>
+      <c r="F41" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6584,8 +6598,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="129">
-        <v>2679593.613971546</v>
+      <c r="F42" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6604,8 +6618,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="129">
-        <v>2679593.613971546</v>
+      <c r="F43" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6624,8 +6638,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="129">
-        <v>2679593.613971546</v>
+      <c r="F44" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6644,8 +6658,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="129">
-        <v>2679593.613971546</v>
+      <c r="F45" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6664,8 +6678,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="129">
-        <v>2679593.613971546</v>
+      <c r="F46" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6684,8 +6698,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="129">
-        <v>2679593.613971546</v>
+      <c r="F47" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6704,8 +6718,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="129">
-        <v>2679593.613971546</v>
+      <c r="F48" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6724,8 +6738,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="129">
-        <v>2679593.613971546</v>
+      <c r="F49" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6744,8 +6758,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="129">
-        <v>2679593.613971546</v>
+      <c r="F50" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6764,8 +6778,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="129">
-        <v>2679593.613971546</v>
+      <c r="F51" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6784,8 +6798,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="129">
-        <v>2679593.613971546</v>
+      <c r="F52" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6804,8 +6818,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="129">
-        <v>2679593.613971546</v>
+      <c r="F53" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6824,8 +6838,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="129">
-        <v>2679593.613971546</v>
+      <c r="F54" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6844,8 +6858,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="129">
-        <v>2679593.613971546</v>
+      <c r="F55" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6864,8 +6878,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="129">
-        <v>2679593.613971546</v>
+      <c r="F56" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6884,8 +6898,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="129">
-        <v>2679593.613971546</v>
+      <c r="F57" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6904,8 +6918,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="129">
-        <v>2679593.613971546</v>
+      <c r="F58" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6924,8 +6938,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="129">
-        <v>2679593.613971546</v>
+      <c r="F59" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6944,8 +6958,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="129">
-        <v>2679593.613971546</v>
+      <c r="F60" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6964,8 +6978,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="129">
-        <v>2679593.613971546</v>
+      <c r="F61" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6984,8 +6998,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="129">
-        <v>2679593.613971546</v>
+      <c r="F62" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7004,8 +7018,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="129">
-        <v>2679593.613971546</v>
+      <c r="F63" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7024,8 +7038,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="129">
-        <v>2679593.613971546</v>
+      <c r="F64" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7044,8 +7058,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="129">
-        <v>2679593.613971546</v>
+      <c r="F65" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7064,8 +7078,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="129">
-        <v>2679593.613971546</v>
+      <c r="F66" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7084,8 +7098,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="129">
-        <v>2679593.613971546</v>
+      <c r="F67" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7104,8 +7118,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="129">
-        <v>2679593.613971546</v>
+      <c r="F68" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7124,8 +7138,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="129">
-        <v>2679593.613971546</v>
+      <c r="F69" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7144,8 +7158,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="129">
-        <v>2679593.613971546</v>
+      <c r="F70" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7164,8 +7178,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="129">
-        <v>2679593.613971546</v>
+      <c r="F71" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7184,8 +7198,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="129">
-        <v>2679593.613971546</v>
+      <c r="F72" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7204,8 +7218,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="129">
-        <v>2679593.613971546</v>
+      <c r="F73" s="131">
+        <v>27292.17658399421</v>
       </c>
     </row>
   </sheetData>
